--- a/questionnaires/RBDstandardized_questionnaire_all_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_all_FR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C4FB2D-4F0B-4396-B9F9-D47CF104035E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53657C15-3720-4667-834C-C8EB6A2A63EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6858,9 +6858,9 @@
   <dimension ref="A1:P392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B357" sqref="B357"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17470,12 +17470,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17696,15 +17693,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17729,18 +17738,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/questionnaires/RBDstandardized_questionnaire_all_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_all_FR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53657C15-3720-4667-834C-C8EB6A2A63EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8951921-8A25-45CD-87B7-6F848A25FCD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6858,7 +6858,7 @@
   <dimension ref="A1:P392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
@@ -14915,8 +14915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2115"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD63"/>
+    <sheetView topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -15766,7 +15766,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">

--- a/questionnaires/RBDstandardized_questionnaire_all_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_all_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BAED37-58FC-4D97-BE8F-8867946A6DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF18073F-9B79-4964-920A-6964F31E9C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1082">
   <si>
     <t>type</t>
   </si>
@@ -3413,12 +3413,1032 @@
 en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
     </r>
   </si>
+  <si>
+    <t>TransfertsSociaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt; TRANSFERTS SOCIAUX &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>DebutAssistance</t>
+  </si>
+  <si>
+    <t>Depuis quand le ménage est-il bénéficiaire de l’assistance FFA/CFA du PAM ? (mois/année)</t>
+  </si>
+  <si>
+    <t>select_one datedernierdistribution or_other</t>
+  </si>
+  <si>
+    <t>DateDerniereAssist</t>
+  </si>
+  <si>
+    <t>Dernière assistance reçue du PAM </t>
+  </si>
+  <si>
+    <t>TransfBenef</t>
+  </si>
+  <si>
+    <t>Le ménage, ou un membre de votre ménage,  a-t-il bénéficié au cours des 12 derniers mois de (lire les énoncés) :</t>
+  </si>
+  <si>
+    <t>select_one Yesnoautre</t>
+  </si>
+  <si>
+    <t>BanqueCerealiere</t>
+  </si>
+  <si>
+    <t>a. Banque céréalière</t>
+  </si>
+  <si>
+    <t>VivreContreTravail</t>
+  </si>
+  <si>
+    <t>b. Vivre contre travail/ Food assistance for asset</t>
+  </si>
+  <si>
+    <t>ArgentContreTravail</t>
+  </si>
+  <si>
+    <t>c. Argent contre travail/ Cash assistance  for asset</t>
+  </si>
+  <si>
+    <t>DistribVivresSoudure</t>
+  </si>
+  <si>
+    <t>d. Distribution gratuite de vivres (p.ex pendant la période de soudure)</t>
+  </si>
+  <si>
+    <t>DistribArgentSoudure</t>
+  </si>
+  <si>
+    <t>e. Distribution gratuite d’argent (p.ex pendant la période de soudure)</t>
+  </si>
+  <si>
+    <t>BoursesAdo</t>
+  </si>
+  <si>
+    <t>f. Bourses scolaires pour adolescentes</t>
+  </si>
+  <si>
+    <t>BlanketFeedingChildren</t>
+  </si>
+  <si>
+    <t>g. Blanket feeding - NSPAMM (enfants 6 -23 mois)</t>
+  </si>
+  <si>
+    <t>BlanketFeedingWomen</t>
+  </si>
+  <si>
+    <t>h. Blanket feeding-NSPAMM (Femmes enceintes et allaitantes)</t>
+  </si>
+  <si>
+    <t>MAMChildren</t>
+  </si>
+  <si>
+    <t>i. Prise en charge malnutrition aigüe modérée des enfants de 6 à 59 mois au niveau du centre de santé</t>
+  </si>
+  <si>
+    <t>MASChildren</t>
+  </si>
+  <si>
+    <t>j. Prise en charge malnutrition aigüe sévère des enfants de 6 à 59 mois au niveau du centre de santé</t>
+  </si>
+  <si>
+    <t>MAMPLWomen</t>
+  </si>
+  <si>
+    <t>k. Prise en charge malnutrition aigüe femme enceinte ou allaitante au niveau du centre de santé</t>
+  </si>
+  <si>
+    <t>FormationRenfCapacite</t>
+  </si>
+  <si>
+    <t>l. Formation/renforcement de capacités</t>
+  </si>
+  <si>
+    <t>CashTransfert</t>
+  </si>
+  <si>
+    <t>m. Cash transfert (filets sociaux ou autres structures)</t>
+  </si>
+  <si>
+    <t>CantineScolaire</t>
+  </si>
+  <si>
+    <t>n. Cantine scolaire pour les enfants ou Take home ration</t>
+  </si>
+  <si>
+    <t>AutreTransferts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q. Autres à préciser :     </t>
+  </si>
+  <si>
+    <t>GroupEpargneCredit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt; Groupe d'Epargne et de Crédit &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>ExistGroupeEpargne</t>
+  </si>
+  <si>
+    <t>Est-ce qu’il existe un Groupe d'épargne et de crédit ou une tontine dans votre communauté ?</t>
+  </si>
+  <si>
+    <t>select_one Yesnodkref</t>
+  </si>
+  <si>
+    <t>MembreGroupeEpargne</t>
+  </si>
+  <si>
+    <t>Est-ce que vous ou un autre membre du ménage êtes membre de ce groupe ?</t>
+  </si>
+  <si>
+    <t>EpargneAvantPam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;span style="color:red"&gt;  Avant d’être bénéficiaires du PAM &lt;/span&gt; , Participiez-vous à une tontine ou un groupe d‘épargne et de crédit  ?</t>
+  </si>
+  <si>
+    <t>EpargneSansPam</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:red"&gt;  si vous ne bénéficiez pas de l’assistance du PAM &lt;/span&gt; , auriez-vous pu participer à cette tontine ou groupe d’épargne et de crédit ?</t>
+  </si>
+  <si>
+    <t>PossibilitePret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si vous ou un membre de votre ménage avez un besoin urgent d’argent, seriez-vous en mesure d’avoir un prêt à partir de la tontine ou du groupe d’épargne et de crédit ? </t>
+  </si>
+  <si>
+    <t>AutreSourcePret</t>
+  </si>
+  <si>
+    <t>Si vous ou un membre de votre ménage avez un besoin urgent d’argent, seriez-vous en mesure d’avoir un prêt à partir d’une autre source ?</t>
+  </si>
+  <si>
+    <t>EpargnePieds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-ce que vous ou un membre de votre ménage disposez de bétail que vous avez acheté pour les vendre en cas difficultés économiques ou financières ? </t>
+  </si>
+  <si>
+    <t>Expositionchocs5ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt; Exposition aux chocs &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>nbchocs_5y</t>
+  </si>
+  <si>
+    <t>nbPluies_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt; Pluies excessives/ inondations &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbSecheresse_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Pluies variables/sécheresse &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbGlissementterrain_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt; Glissements de terrain/érosion &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbMaladiescultures_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Maladies des cultures &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbRavageursCultures_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Ravageurs des cultures (criquets) &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbMauvaisesHerbes_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt; Mauvaises herbes (par exemple, associées à la striga) &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbMaladiesBetails_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Maladies du bétail &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbEpidemies_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Épidémies &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbVolsDestructionBiens_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt; Vol ou destruction de biens &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbVolBetails_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Vol de bétail (raids) &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbRetardsAideHumanitaire_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Retard dans l'aide alimentaire &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbAugPrixAliments_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt; Augmentation des prix des aliments &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbAugmPrixIntrants_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Augmentation des prix des intrants agricoles ou des intrants agricoles ou d'élevage &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbBaissePrixAgriElev_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Baisse des produits agricole ou de l'élevage &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbPertesTerres_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Perte de terres/de biens locatifs &lt;/span&gt; ?</t>
+  </si>
+  <si>
+    <t>nbChomagejeune_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Chômage des jeunes &lt;/span&gt;?</t>
+  </si>
+  <si>
+    <t>nbDecesMembreMenage_5y</t>
+  </si>
+  <si>
+    <t>Combien de fois au cours des 5 dernières années votre ménage a-t-il subi &lt;span style="color:red"&gt;  Décès d'un membre du ménage &lt;/span&gt;?</t>
+  </si>
+  <si>
+    <t>chocsSubi12mois</t>
+  </si>
+  <si>
+    <t>Lesquels des chocs suivant Votre ménage a-t-il subi au cours de l'année dernière (12 mois) ?</t>
+  </si>
+  <si>
+    <t>Pluies_12m</t>
+  </si>
+  <si>
+    <t>a.Pluies excessives/ inondations</t>
+  </si>
+  <si>
+    <t>Secheresse_12m</t>
+  </si>
+  <si>
+    <t>b. Pluies variables/sécheresse</t>
+  </si>
+  <si>
+    <t>Glissementterrain_12m</t>
+  </si>
+  <si>
+    <t>d. Glissements de terrain/érosion</t>
+  </si>
+  <si>
+    <t>Maladiescultures_12m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e. Maladies des cultures </t>
+  </si>
+  <si>
+    <t>RavageursCultures_12m</t>
+  </si>
+  <si>
+    <t>f. Ravageurs des cultures (criquets)</t>
+  </si>
+  <si>
+    <t>MauvaisesHeres_12m</t>
+  </si>
+  <si>
+    <t>g. Mauvaises herbes (par exemple, associées à la striga)</t>
+  </si>
+  <si>
+    <t>MaladiesBetails_12m</t>
+  </si>
+  <si>
+    <t>h. Maladies du bétail</t>
+  </si>
+  <si>
+    <t>Epidemies_12m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i. Épidémies </t>
+  </si>
+  <si>
+    <t>VolsDestructionBiens_12m</t>
+  </si>
+  <si>
+    <t>j. Vol ou destruction de biens</t>
+  </si>
+  <si>
+    <t>VolBetails_12m</t>
+  </si>
+  <si>
+    <t>k. Vol de bétail (raids)</t>
+  </si>
+  <si>
+    <t>RetardsAideHumanitaire_12m</t>
+  </si>
+  <si>
+    <t>l. Retard dans l'aide alimentaire</t>
+  </si>
+  <si>
+    <t>AugPrixAliments_12m</t>
+  </si>
+  <si>
+    <t>m. Augmentation des prix des aliments</t>
+  </si>
+  <si>
+    <t>AugmPrixIntrants_12m</t>
+  </si>
+  <si>
+    <t>n. Augmentation des prix des intrants agricoles ou des intrants agricoles ou d'élevage</t>
+  </si>
+  <si>
+    <t>BaissePrixAgriElev_12m</t>
+  </si>
+  <si>
+    <t>o.Baisse des produits de l'agriculture ou de l'élevage</t>
+  </si>
+  <si>
+    <t>PertesTerres_12m</t>
+  </si>
+  <si>
+    <t>p. Perte de terres/de biens locatifs</t>
+  </si>
+  <si>
+    <t>Chomagejeune_12m</t>
+  </si>
+  <si>
+    <t>q. Chômage des jeunes</t>
+  </si>
+  <si>
+    <t>DecesMembreMenage_12m</t>
+  </si>
+  <si>
+    <t>r. Décès d'un membre du ménage</t>
+  </si>
+  <si>
+    <t>select_one GraviteImpact</t>
+  </si>
+  <si>
+    <t>GraviteImpactRevenus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quelle a été la gravité de l'impact sur &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>les revenus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>de votre ménage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;   au cours des 12 derniers mois ? </t>
+    </r>
+  </si>
+  <si>
+    <t>GraviteImpactSAN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quelle a été la gravité de l'impact sur  &lt;span style="color:red"&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  la consommation alimentaire de votre ménage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;   au cours des 12 derniers mois ?</t>
+    </r>
+  </si>
+  <si>
+    <t>CapaciteAdresserChocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt;  Capacités à faire face aux chocs et facteurs de stress &lt;/span&gt;  </t>
+  </si>
+  <si>
+    <t>select_one CapaciteFaireFaceChocs</t>
+  </si>
+  <si>
+    <t>CACRetabCapAlim</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dans quelle mesure votre capacité à &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>satisfaire vos besoins alimentaires</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;   est-elle revenue au niveau où elle était avant les chocs et les facteurs de stress que vous avez subis &lt;span style="color:red"&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>au cours des 12 derniers mois</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;  ?</t>
+    </r>
+  </si>
+  <si>
+    <t>CACRetabCapAlim_1y</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compte tenu des chocs que vous avez subis au cours des 12 derniers mois, dans quelle mesure pensez-vous être en mesure de &lt;span style="color:red"&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>satisfaire vos besoins alimentaires au cours de l'année prochaine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;   ?</t>
+    </r>
+  </si>
+  <si>
+    <t>ABIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt;  ASSET BENEFIT INDICATOR (ABI) &lt;/span&gt;  </t>
+  </si>
+  <si>
+    <t>ABIParticipation</t>
+  </si>
+  <si>
+    <t>Vous ou un membre du ménage a-t-il participé aux activités de création d’actifs?</t>
+  </si>
+  <si>
+    <t>ABItransferts</t>
+  </si>
+  <si>
+    <t>Vous ou un membre du ménage a-t-il reçu un transfert d’une aide alimentaire ?</t>
+  </si>
+  <si>
+    <t>select_one sexe</t>
+  </si>
+  <si>
+    <t>ABISexparticipant</t>
+  </si>
+  <si>
+    <t>Indiquer le sexe du participant aux activités</t>
+  </si>
+  <si>
+    <t>ABIProteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que les actifs qui ont été créés ou réhabilités dans votre communauté sont &lt;span style="color:red"&gt;  de nature à protéger votre ménage, ses biens et ses capacités de production (champs, équipement, etc.) contre les inondations / sécheresse / catastrophes ?  &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>ABIProduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que les actifs qui ont été créés ou réhabilités dans votre communauté &lt;span style="color:red"&gt;  ont permis à votre ménage  d’augmenter ou de diversifier sa production (agriculture / élevage / autre) ?  &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>ABIdifficultes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que les actifs qui ont été créés ou réhabilités dans votre communauté &lt;span style="color:red"&gt;  , réduire la charge et la durée des travaux domestiques : ( le temps pour  la collecte de l'eau/bois de chauffe, les travaux de puisage d’eau des femmes préparation de nourriture ) ?&lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>ABIMarches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que les actifs qui ont été créés ou réhabilités dans votre communauté &lt;span style="color:red"&gt;  ont amélioré la capacité des membres de votre ménage à l’accès aux marchés et/ou aux services de base (eau, assainissement, santé, éducation, etc.) ?  &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>ABIGererActifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que les formations et autres formes de soutien dispensés dans votre communauté &lt;span style="color:red"&gt;  ont amélioré la capacité de votre ménage pour gérer et maintenir les actifs ?  &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>ABIEnvironnement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que les actifs qui ont été construits ou réhabilités dans votre communauté &lt;span style="color:red"&gt;  ont amélioré votre environnement naturel (par exemple plus couverture végétale, nappe phréatique augmenté, moins d’érosion, etc.) ?  &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>ABIutiliseractifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que les travaux réalisés dans votre communauté &lt;span style="color:red"&gt;  ont restauré votre capacité à accéder et/ou utiliser les actifs &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>ABITensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensez-vous que les [actifs] créés/réhabilités &lt;span style="color:red"&gt;  ont aidé réduire les tensions au sein sur l'accès et l'utilisation des ressources naturelles dans votre communauté ? &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">note </t>
+  </si>
+  <si>
+    <t>DepartExodeMigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt;  DEPART EN EXODE ET MIGRATION &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>MigrationEmploi</t>
+  </si>
+  <si>
+    <t>Certains membres du ménage ont-ils migré à la recherche d’un emploi au cours des 12 derniers mois ?</t>
+  </si>
+  <si>
+    <t>NbMigrants</t>
+  </si>
+  <si>
+    <t>Combien de personnes dans votre ménage ont migré ou sont allées en exode pendant les 12 derniers mois ?</t>
+  </si>
+  <si>
+    <t>select_one raisonmigration or_other</t>
+  </si>
+  <si>
+    <t>RaisonMigration</t>
+  </si>
+  <si>
+    <t>Quelle est la principale raison qui a motivé certains membres du ménage à migrer ou à aller en exode ?</t>
+  </si>
+  <si>
+    <t>select_one raisonEconomiques or_other</t>
+  </si>
+  <si>
+    <t>AutreRaisonEconomiques</t>
+  </si>
+  <si>
+    <t>Si vous vous déplacez pour la Recherche d’opportunités économiques  , quelles sont ces raisons ? (réponse unique)</t>
+  </si>
+  <si>
+    <t>select_one raisonAccesServices or_other</t>
+  </si>
+  <si>
+    <t>RaisonAccesServices</t>
+  </si>
+  <si>
+    <t>Si vous vous déplacez pour accéder à des services de base, quels sont ces services ? (réponse unique)</t>
+  </si>
+  <si>
+    <t>select_multiple destinationmigration or_other</t>
+  </si>
+  <si>
+    <t>DestinationMigration</t>
+  </si>
+  <si>
+    <t>Quelles sont les destinations où sont partis les migrants membre de votre ménage ?  (sélectionner les réponses du ménage)</t>
+  </si>
+  <si>
+    <t>select_one dureemigrationexode or_other</t>
+  </si>
+  <si>
+    <t>DureeMigration</t>
+  </si>
+  <si>
+    <t>Les migrants saisonniers de votre ménage sont absents pendant combien de mois en moyenne dans l’année ?</t>
+  </si>
+  <si>
+    <t>select_one tendancemigraExode</t>
+  </si>
+  <si>
+    <t>TendanceMigration</t>
+  </si>
+  <si>
+    <t>Comment évaluez-vous la tendance à la migration chez les membres de votre ménage ?</t>
+  </si>
+  <si>
+    <t>select_one raisonhausseMig or_other</t>
+  </si>
+  <si>
+    <t>RaisonHausseMigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si la tendance est à la hausse, quelle en est la principale raison ? </t>
+  </si>
+  <si>
+    <t>select_one raisonbaisseMig or_other</t>
+  </si>
+  <si>
+    <t>RaisonBaisseMigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si la tendance est à la baisse, quelle en est la principale raison ? </t>
+  </si>
+  <si>
+    <t>SocialCapitalIndex</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:red"&gt; Social Capital Index &lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>select_one Socialressources</t>
+  </si>
+  <si>
+    <t>SCIAideIntraCom</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si votre ménage avait un problème et avait besoin d'une aide urgente (par exemple, de la nourriture, de l'argent, de la main-d'œuvre, du transport, etc.), à qui, &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DANS CETTE COMMUNAUTÉ, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;   pourriez-vous demander de l'aide (lisez la liste ; sélectionnez toutes les réponses qui s'appliquent).</t>
+    </r>
+  </si>
+  <si>
+    <t>SCIAideDehorsCom</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si votre ménage avait un problème et avait besoin d'une aide urgente (par exemple, de la nourriture, de l'argent, du travail, du transport, etc.), vers qui, &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>en DEHORS DE CE VILLAGE,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/span&gt;  pourriez-vous vous tourner pour obtenir de l'aide ?</t>
+    </r>
+  </si>
+  <si>
+    <t>select_one evolRessourcSociales</t>
+  </si>
+  <si>
+    <t>SCIEvolRessSociales</t>
+  </si>
+  <si>
+    <t>Par rapport à il y a un an, est-ce que votre capacité à obtenir de l'aide de quelqu'un à l'intérieur ou à l'extérieur de votre village s'est :</t>
+  </si>
+  <si>
+    <t>select_multiple Socialressources</t>
+  </si>
+  <si>
+    <t>SCIPersAAiderCom</t>
+  </si>
+  <si>
+    <r>
+      <t>Qui,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;span style="color:red"&gt;  DANS CETTE COMMUNAUTÉ, pourriez-vous aider s'ils avaient besoin d'une aide urgente&lt;/span&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(par ex. nourriture, argent, travail, transport, etc.) ?</t>
+    </r>
+  </si>
+  <si>
+    <t>SCIPersAiderDehorsCom</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Qui, &lt;span style="color:red"&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">EN DEHORS DE CETTE COMMUNAUTÉ, &lt;/span&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">pourriez-vous aider s'il avait besoin d'une aide urgente (par exemple de la nourriture, de l'argent, du travail, du transport, etc.) ? </t>
+    </r>
+  </si>
+  <si>
+    <t>SCIConMembreGvrnmt</t>
+  </si>
+  <si>
+    <t>Est-ce que vous ou quelqu'un d'autre dans votre foyer connaît personnellement un élu du gouvernement ?</t>
+  </si>
+  <si>
+    <t>select_one MembAyantConnuMembGvrmt or_other</t>
+  </si>
+  <si>
+    <t>SCIPersConMembreGvrnmt</t>
+  </si>
+  <si>
+    <t>Comment vous (ou un autre membre du foyer) connaissez-vous ce représentant du gouvernement ? Est-il ou est-elle un(e)... (lisez la liste ; sélectionnez toutes les réponses qui s'appliquent) ?</t>
+  </si>
+  <si>
+    <t>SCICapAideGvnmt</t>
+  </si>
+  <si>
+    <t>Pourriez-vous demander au fonctionnaire d'aider votre famille ou votre communauté si une aide était nécessaire ?</t>
+  </si>
+  <si>
+    <t>SCIConMembreNGO</t>
+  </si>
+  <si>
+    <t>Est-ce que vous ou quelqu'un d'autre dans votre foyer connaît personnellement un membre du personnel d'une ONG [OU d'une organisation communautaire, d'une agence des Nations Unies, de la Croix Rouge/Croissant Rouge...] ?</t>
+  </si>
+  <si>
+    <t>SCIPersConMembreNGO</t>
+  </si>
+  <si>
+    <t>Comment connaissez-vous (ou un autre membre du ménage) le membre du personnel de l'[AGENCE] ? Est-il ou est-elle un(e)... ?</t>
+  </si>
+  <si>
+    <t>SCIAideAubesoin</t>
+  </si>
+  <si>
+    <t>Pourriez-vous demander au membre du personnel de [l'AGENCE] d'aider votre famille ou votre communauté si de l'aide était nécessaire ?</t>
+  </si>
+  <si>
+    <t>SERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:red"&gt;  Score de résilience auto-évalué &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>SERSquestion</t>
+  </si>
+  <si>
+    <t>"Par rapport aux affirmations suivantes, diriez-vous que vous êtes tout à fait d'accord, d'accord, pas d'accord, pas du tout d'accord, ou ni d'accord ni pas d'accord ? "</t>
+  </si>
+  <si>
+    <t>select_one appreciationSERS</t>
+  </si>
+  <si>
+    <t>SERSRebondir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage peut &lt;span style="color:red"&gt;  rebondir à tout défi que la vie pourrait lui lancer     &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>SERSDifficultes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage est plus &lt;span style="color:red"&gt;  en mesure de faire face aux difficultés que les autres membres de votre communauté &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>SERSMoyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si les menaces pesant sur votre ménage devenaient plus fréquentes et intenses, &lt;span style="color:red"&gt;  vous trouveriez toujours un moyen de vous en sortir &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>SERSRevenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendant les moments d'épreuves, votre ménage peut changer ses sources de revenus et / ou moyens de subsistance, si nécessaire &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>SERSSurvivre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage &lt;span style="color:red"&gt;  peut s'offrir tout ce dont il a besoin pour survivre et prospérer &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>SERSFamAmis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage &lt;span style="color:red"&gt;  peut compter sur le soutien de la famille et des amis lorsque vous avez besoin d'aide &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>SERSPoliticiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage &lt;span style="color:red"&gt;  peut compter sur le soutien des politiciens et du gouvernement lorsque vous avez besoin d'aide &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>SERSLecons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage &lt;span style="color:red"&gt;  a tiré d'importantes leçons des difficultés passées pour vous aider à mieux préparer l'avenir &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>SERSPreparerFuture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage &lt;span style="color:red"&gt;  est parfaitement préparé à toutes les menaces et à tous les défis FUTURS que la vie pourrait vous lancer &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>SERSAvertissementEven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage &lt;span style="color:red"&gt;  reçoit fréquemment des informations vous avertissant à l'avance des événements météorologiques extrêmes &lt;/span&gt; </t>
+  </si>
+  <si>
+    <t>${ExistGroupeEpargne}=1</t>
+  </si>
+  <si>
+    <t>${nbPluies_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbSecheresse_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbGlissementterrain_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbMaladiescultures_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbRavageursCultures_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbMauvaisesHerbes_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbMaladiesBetails_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbEpidemies_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbVolsDestructionBiens_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbVolBetails_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbRetardsAideHumanitaire_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbAugPrixAliments_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbAugmPrixIntrants_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbBaissePrixAgriElev_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbPertesTerres_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbChomagejeune_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbDecesMembreMenage_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${ABIParticipation}=1</t>
+  </si>
+  <si>
+    <t>${MigrationEmploi}=1</t>
+  </si>
+  <si>
+    <t>${RaisonMigration}=2</t>
+  </si>
+  <si>
+    <t>${RaisonMigration}=4</t>
+  </si>
+  <si>
+    <t>${TendanceMigration}=1 or ${TendanceMigration}=2</t>
+  </si>
+  <si>
+    <t>${TendanceMigration}=3 or ${TendanceMigration}=4</t>
+  </si>
+  <si>
+    <t>${SCIConMembreGvrnmt}=1</t>
+  </si>
+  <si>
+    <t>${SCIConMembreNGO}=1</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3548,8 +4568,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4472C4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4472C4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3620,8 +4708,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3694,6 +4794,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3704,7 +4819,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3981,6 +5096,99 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -4486,12 +5694,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P344"/>
+  <dimension ref="A1:P478"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A264" sqref="A264:G274"/>
+      <selection pane="bottomLeft" activeCell="A408" sqref="A408:XFD435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9423,7 +10631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A273" s="96" t="s">
         <v>454</v>
       </c>
@@ -9441,7 +10649,7 @@
       </c>
       <c r="J273" s="9"/>
     </row>
-    <row r="274" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A274" s="96" t="s">
         <v>454</v>
       </c>
@@ -9459,1133 +10667,4255 @@
       </c>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" spans="1:12" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A275" s="99" t="s">
+    <row r="275" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="80"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="34"/>
+      <c r="D275" s="108"/>
+      <c r="E275" s="108"/>
+      <c r="F275" s="108"/>
+      <c r="G275" s="108"/>
+      <c r="J275" s="9"/>
+    </row>
+    <row r="276" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="B275" s="99" t="s">
+      <c r="B276" s="109" t="s">
+        <v>804</v>
+      </c>
+      <c r="C276" s="110" t="s">
+        <v>805</v>
+      </c>
+      <c r="D276" s="108"/>
+      <c r="E276" s="108"/>
+      <c r="F276" s="108"/>
+      <c r="G276" s="108"/>
+      <c r="J276" s="9"/>
+    </row>
+    <row r="277" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B277" s="112" t="s">
+        <v>806</v>
+      </c>
+      <c r="C277" s="112" t="s">
+        <v>807</v>
+      </c>
+      <c r="D277" s="108"/>
+      <c r="E277" s="108"/>
+      <c r="F277" s="108"/>
+      <c r="G277" s="113"/>
+      <c r="H277" s="113"/>
+      <c r="I277" s="113"/>
+      <c r="J277" s="113"/>
+      <c r="K277" s="113"/>
+      <c r="L277" s="113"/>
+      <c r="M277" s="113"/>
+      <c r="N277" s="113"/>
+    </row>
+    <row r="278" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="113" t="s">
+        <v>808</v>
+      </c>
+      <c r="B278" s="112" t="s">
+        <v>809</v>
+      </c>
+      <c r="C278" s="113" t="s">
+        <v>810</v>
+      </c>
+      <c r="D278" s="108"/>
+      <c r="E278" s="108"/>
+      <c r="F278" s="108"/>
+      <c r="G278" s="113"/>
+      <c r="H278" s="113"/>
+      <c r="I278" s="113"/>
+      <c r="J278" s="113"/>
+      <c r="K278" s="113"/>
+      <c r="L278" s="113"/>
+      <c r="M278" s="113"/>
+      <c r="N278" s="113"/>
+    </row>
+    <row r="279" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="B279" s="115" t="s">
+        <v>811</v>
+      </c>
+      <c r="C279" s="112" t="s">
+        <v>812</v>
+      </c>
+      <c r="D279" s="108"/>
+      <c r="E279" s="108"/>
+      <c r="F279" s="108"/>
+      <c r="G279" s="113"/>
+      <c r="H279" s="113" t="s">
+        <v>466</v>
+      </c>
+      <c r="I279" s="113"/>
+      <c r="J279" s="113"/>
+      <c r="K279" s="113"/>
+      <c r="L279" s="113"/>
+      <c r="M279" s="113"/>
+      <c r="N279" s="113"/>
+    </row>
+    <row r="280" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B280" s="116" t="s">
+        <v>814</v>
+      </c>
+      <c r="C280" s="116" t="s">
+        <v>815</v>
+      </c>
+      <c r="D280" s="108"/>
+      <c r="E280" s="108"/>
+      <c r="F280" s="108"/>
+      <c r="G280" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H280" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I280" s="113"/>
+      <c r="J280" s="113"/>
+      <c r="K280" s="113"/>
+      <c r="L280" s="113"/>
+      <c r="M280" s="113"/>
+      <c r="N280" s="113"/>
+    </row>
+    <row r="281" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B281" s="116" t="s">
+        <v>816</v>
+      </c>
+      <c r="C281" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="D281" s="108"/>
+      <c r="E281" s="108"/>
+      <c r="F281" s="108"/>
+      <c r="G281" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H281" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I281" s="113"/>
+      <c r="J281" s="113"/>
+      <c r="K281" s="113"/>
+      <c r="L281" s="113"/>
+      <c r="M281" s="113"/>
+      <c r="N281" s="113"/>
+    </row>
+    <row r="282" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B282" s="116" t="s">
+        <v>818</v>
+      </c>
+      <c r="C282" s="116" t="s">
+        <v>819</v>
+      </c>
+      <c r="D282" s="108"/>
+      <c r="E282" s="108"/>
+      <c r="F282" s="108"/>
+      <c r="G282" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H282" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I282" s="113"/>
+      <c r="J282" s="113"/>
+      <c r="K282" s="113"/>
+      <c r="L282" s="113"/>
+      <c r="M282" s="113"/>
+      <c r="N282" s="113"/>
+    </row>
+    <row r="283" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B283" s="116" t="s">
+        <v>820</v>
+      </c>
+      <c r="C283" s="116" t="s">
+        <v>821</v>
+      </c>
+      <c r="D283" s="108"/>
+      <c r="E283" s="108"/>
+      <c r="F283" s="108"/>
+      <c r="G283" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H283" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I283" s="113"/>
+      <c r="J283" s="113"/>
+      <c r="K283" s="113"/>
+      <c r="L283" s="113"/>
+      <c r="M283" s="113"/>
+      <c r="N283" s="113"/>
+    </row>
+    <row r="284" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B284" s="116" t="s">
+        <v>822</v>
+      </c>
+      <c r="C284" s="116" t="s">
+        <v>823</v>
+      </c>
+      <c r="D284" s="108"/>
+      <c r="E284" s="108"/>
+      <c r="F284" s="108"/>
+      <c r="G284" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H284" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I284" s="113"/>
+      <c r="J284" s="113"/>
+      <c r="K284" s="113"/>
+      <c r="L284" s="113"/>
+      <c r="M284" s="113"/>
+      <c r="N284" s="113"/>
+    </row>
+    <row r="285" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B285" s="116" t="s">
+        <v>824</v>
+      </c>
+      <c r="C285" s="116" t="s">
+        <v>825</v>
+      </c>
+      <c r="D285" s="108"/>
+      <c r="E285" s="108"/>
+      <c r="F285" s="108"/>
+      <c r="G285" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H285" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I285" s="113"/>
+      <c r="J285" s="113"/>
+      <c r="K285" s="113"/>
+      <c r="L285" s="113"/>
+      <c r="M285" s="113"/>
+      <c r="N285" s="113"/>
+    </row>
+    <row r="286" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B286" s="116" t="s">
+        <v>826</v>
+      </c>
+      <c r="C286" s="116" t="s">
+        <v>827</v>
+      </c>
+      <c r="D286" s="108"/>
+      <c r="E286" s="108"/>
+      <c r="F286" s="108"/>
+      <c r="G286" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H286" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I286" s="113"/>
+      <c r="J286" s="113"/>
+      <c r="K286" s="113"/>
+      <c r="L286" s="113"/>
+      <c r="M286" s="113"/>
+      <c r="N286" s="113"/>
+    </row>
+    <row r="287" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B287" s="116" t="s">
+        <v>828</v>
+      </c>
+      <c r="C287" s="116" t="s">
+        <v>829</v>
+      </c>
+      <c r="D287" s="108"/>
+      <c r="E287" s="108"/>
+      <c r="F287" s="108"/>
+      <c r="G287" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H287" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I287" s="113"/>
+      <c r="J287" s="113"/>
+      <c r="K287" s="113"/>
+      <c r="L287" s="113"/>
+      <c r="M287" s="113"/>
+      <c r="N287" s="113"/>
+    </row>
+    <row r="288" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B288" s="116" t="s">
+        <v>830</v>
+      </c>
+      <c r="C288" s="116" t="s">
+        <v>831</v>
+      </c>
+      <c r="D288" s="108"/>
+      <c r="E288" s="108"/>
+      <c r="F288" s="108"/>
+      <c r="G288" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H288" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I288" s="113"/>
+      <c r="J288" s="113"/>
+      <c r="K288" s="113"/>
+      <c r="L288" s="113"/>
+      <c r="M288" s="113"/>
+      <c r="N288" s="113"/>
+    </row>
+    <row r="289" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B289" s="116" t="s">
+        <v>832</v>
+      </c>
+      <c r="C289" s="116" t="s">
+        <v>833</v>
+      </c>
+      <c r="D289" s="108"/>
+      <c r="E289" s="108"/>
+      <c r="F289" s="108"/>
+      <c r="G289" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H289" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I289" s="113"/>
+      <c r="J289" s="113"/>
+      <c r="K289" s="113"/>
+      <c r="L289" s="113"/>
+      <c r="M289" s="113"/>
+      <c r="N289" s="113"/>
+    </row>
+    <row r="290" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B290" s="116" t="s">
+        <v>834</v>
+      </c>
+      <c r="C290" s="116" t="s">
+        <v>835</v>
+      </c>
+      <c r="D290" s="108"/>
+      <c r="E290" s="108"/>
+      <c r="F290" s="108"/>
+      <c r="G290" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H290" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I290" s="113"/>
+      <c r="J290" s="113"/>
+      <c r="K290" s="113"/>
+      <c r="L290" s="113"/>
+      <c r="M290" s="113"/>
+      <c r="N290" s="113"/>
+    </row>
+    <row r="291" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B291" s="116" t="s">
+        <v>836</v>
+      </c>
+      <c r="C291" s="116" t="s">
+        <v>837</v>
+      </c>
+      <c r="D291" s="108"/>
+      <c r="E291" s="108"/>
+      <c r="F291" s="108"/>
+      <c r="G291" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H291" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I291" s="113"/>
+      <c r="J291" s="113"/>
+      <c r="K291" s="113"/>
+      <c r="L291" s="113"/>
+      <c r="M291" s="113"/>
+      <c r="N291" s="113"/>
+    </row>
+    <row r="292" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A292" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B292" s="116" t="s">
+        <v>838</v>
+      </c>
+      <c r="C292" s="116" t="s">
+        <v>839</v>
+      </c>
+      <c r="D292" s="108"/>
+      <c r="E292" s="108"/>
+      <c r="F292" s="108"/>
+      <c r="G292" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H292" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I292" s="113"/>
+      <c r="J292" s="113"/>
+      <c r="K292" s="113"/>
+      <c r="L292" s="113"/>
+      <c r="M292" s="113"/>
+      <c r="N292" s="113"/>
+    </row>
+    <row r="293" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B293" s="116" t="s">
+        <v>840</v>
+      </c>
+      <c r="C293" s="116" t="s">
+        <v>841</v>
+      </c>
+      <c r="D293" s="108"/>
+      <c r="E293" s="108"/>
+      <c r="F293" s="108"/>
+      <c r="G293" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H293" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I293" s="113"/>
+      <c r="J293" s="113"/>
+      <c r="K293" s="113"/>
+      <c r="L293" s="113"/>
+      <c r="M293" s="113"/>
+      <c r="N293" s="113"/>
+    </row>
+    <row r="294" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A294" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B294" s="116" t="s">
+        <v>842</v>
+      </c>
+      <c r="C294" s="113" t="s">
+        <v>843</v>
+      </c>
+      <c r="D294" s="108"/>
+      <c r="E294" s="108"/>
+      <c r="F294" s="108"/>
+      <c r="G294" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H294" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="I294" s="113"/>
+      <c r="J294" s="113"/>
+      <c r="K294" s="113"/>
+      <c r="L294" s="113"/>
+      <c r="M294" s="113"/>
+      <c r="N294" s="113"/>
+    </row>
+    <row r="295" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="B295" s="118"/>
+      <c r="C295" s="119"/>
+      <c r="D295" s="108"/>
+      <c r="E295" s="108"/>
+      <c r="F295" s="108"/>
+      <c r="G295" s="133"/>
+      <c r="H295" s="133"/>
+      <c r="I295" s="133"/>
+      <c r="J295" s="133"/>
+      <c r="K295" s="133"/>
+      <c r="L295" s="133"/>
+      <c r="M295" s="133"/>
+      <c r="N295" s="133"/>
+    </row>
+    <row r="296" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="113"/>
+      <c r="B296" s="118"/>
+      <c r="C296" s="119"/>
+      <c r="D296" s="108"/>
+      <c r="E296" s="108"/>
+      <c r="F296" s="108"/>
+      <c r="G296" s="133"/>
+      <c r="H296" s="133"/>
+      <c r="I296" s="133"/>
+      <c r="J296" s="133"/>
+      <c r="K296" s="133"/>
+      <c r="L296" s="133"/>
+      <c r="M296" s="133"/>
+      <c r="N296" s="133"/>
+    </row>
+    <row r="297" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="B297" s="121" t="s">
+        <v>844</v>
+      </c>
+      <c r="C297" s="110" t="s">
+        <v>845</v>
+      </c>
+      <c r="D297" s="108"/>
+      <c r="E297" s="108"/>
+      <c r="F297" s="108"/>
+      <c r="G297" s="109"/>
+      <c r="H297" s="109"/>
+      <c r="I297" s="109"/>
+      <c r="J297" s="109"/>
+      <c r="K297" s="109"/>
+      <c r="L297" s="109"/>
+      <c r="M297" s="109"/>
+      <c r="N297" s="109"/>
+    </row>
+    <row r="298" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="116" t="s">
+        <v>565</v>
+      </c>
+      <c r="B298" s="116" t="s">
+        <v>846</v>
+      </c>
+      <c r="C298" s="116" t="s">
+        <v>847</v>
+      </c>
+      <c r="D298" s="108"/>
+      <c r="E298" s="108"/>
+      <c r="F298" s="108"/>
+      <c r="G298" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H298" s="113"/>
+      <c r="I298" s="113"/>
+      <c r="J298" s="113"/>
+      <c r="K298" s="113"/>
+      <c r="L298" s="113"/>
+      <c r="M298" s="113"/>
+      <c r="N298" s="113"/>
+    </row>
+    <row r="299" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="116" t="s">
+        <v>848</v>
+      </c>
+      <c r="B299" s="116" t="s">
+        <v>849</v>
+      </c>
+      <c r="C299" s="116" t="s">
+        <v>850</v>
+      </c>
+      <c r="D299" s="108"/>
+      <c r="E299" s="108"/>
+      <c r="F299" s="108"/>
+      <c r="G299" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H299" s="113"/>
+      <c r="I299" s="113"/>
+      <c r="J299" s="113" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K299" s="113"/>
+      <c r="L299" s="113"/>
+      <c r="M299" s="113"/>
+      <c r="N299" s="113"/>
+    </row>
+    <row r="300" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A300" s="116" t="s">
+        <v>848</v>
+      </c>
+      <c r="B300" s="116" t="s">
+        <v>851</v>
+      </c>
+      <c r="C300" s="116" t="s">
+        <v>852</v>
+      </c>
+      <c r="D300" s="108"/>
+      <c r="E300" s="108"/>
+      <c r="F300" s="108"/>
+      <c r="G300" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H300" s="113"/>
+      <c r="I300" s="113"/>
+      <c r="J300" s="113" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K300" s="113"/>
+      <c r="L300" s="113"/>
+      <c r="M300" s="113"/>
+      <c r="N300" s="113"/>
+    </row>
+    <row r="301" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="116" t="s">
+        <v>848</v>
+      </c>
+      <c r="B301" s="116" t="s">
+        <v>853</v>
+      </c>
+      <c r="C301" s="116" t="s">
+        <v>854</v>
+      </c>
+      <c r="D301" s="108"/>
+      <c r="E301" s="108"/>
+      <c r="F301" s="108"/>
+      <c r="G301" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H301" s="113"/>
+      <c r="I301" s="113"/>
+      <c r="J301" s="113" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K301" s="113"/>
+      <c r="L301" s="113"/>
+      <c r="M301" s="113"/>
+      <c r="N301" s="113"/>
+    </row>
+    <row r="302" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="116" t="s">
+        <v>848</v>
+      </c>
+      <c r="B302" s="116" t="s">
+        <v>855</v>
+      </c>
+      <c r="C302" s="122" t="s">
+        <v>856</v>
+      </c>
+      <c r="D302" s="108"/>
+      <c r="E302" s="108"/>
+      <c r="F302" s="108"/>
+      <c r="G302" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H302" s="113"/>
+      <c r="I302" s="113"/>
+      <c r="J302" s="113" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K302" s="113"/>
+      <c r="L302" s="113"/>
+      <c r="M302" s="113"/>
+      <c r="N302" s="113"/>
+    </row>
+    <row r="303" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="116" t="s">
+        <v>848</v>
+      </c>
+      <c r="B303" s="116" t="s">
+        <v>857</v>
+      </c>
+      <c r="C303" s="122" t="s">
+        <v>858</v>
+      </c>
+      <c r="D303" s="108"/>
+      <c r="E303" s="108"/>
+      <c r="F303" s="108"/>
+      <c r="G303" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H303" s="113"/>
+      <c r="I303" s="113"/>
+      <c r="J303" s="113" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K303" s="113"/>
+      <c r="L303" s="113"/>
+      <c r="M303" s="113"/>
+      <c r="N303" s="113"/>
+    </row>
+    <row r="304" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A304" s="116" t="s">
+        <v>848</v>
+      </c>
+      <c r="B304" s="116" t="s">
+        <v>859</v>
+      </c>
+      <c r="C304" s="116" t="s">
+        <v>860</v>
+      </c>
+      <c r="D304" s="108"/>
+      <c r="E304" s="108"/>
+      <c r="F304" s="108"/>
+      <c r="G304" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H304" s="113"/>
+      <c r="I304" s="113"/>
+      <c r="J304" s="113" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K304" s="113"/>
+      <c r="L304" s="113"/>
+      <c r="M304" s="113"/>
+      <c r="N304" s="113"/>
+    </row>
+    <row r="305" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="120" t="s">
+        <v>465</v>
+      </c>
+      <c r="B305" s="118"/>
+      <c r="C305" s="119"/>
+      <c r="D305" s="108"/>
+      <c r="E305" s="108"/>
+      <c r="F305" s="108"/>
+      <c r="G305" s="133"/>
+      <c r="H305" s="133"/>
+      <c r="I305" s="133"/>
+      <c r="J305" s="133"/>
+      <c r="K305" s="133"/>
+      <c r="L305" s="133"/>
+      <c r="M305" s="133"/>
+      <c r="N305" s="133"/>
+    </row>
+    <row r="306" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A306" s="111"/>
+      <c r="B306" s="123"/>
+      <c r="C306" s="124"/>
+      <c r="D306" s="108"/>
+      <c r="E306" s="108"/>
+      <c r="F306" s="108"/>
+      <c r="G306" s="113"/>
+      <c r="H306" s="113"/>
+      <c r="I306" s="113"/>
+      <c r="J306" s="113"/>
+      <c r="K306" s="113"/>
+      <c r="L306" s="113"/>
+      <c r="M306" s="113"/>
+      <c r="N306" s="113"/>
+    </row>
+    <row r="307" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A307" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B307" s="109" t="s">
+        <v>861</v>
+      </c>
+      <c r="C307" s="125" t="s">
+        <v>862</v>
+      </c>
+      <c r="D307" s="108"/>
+      <c r="E307" s="108"/>
+      <c r="F307" s="108"/>
+      <c r="G307" s="146"/>
+      <c r="H307" s="146"/>
+      <c r="I307" s="146"/>
+      <c r="J307" s="146"/>
+      <c r="K307" s="146"/>
+      <c r="L307" s="146"/>
+      <c r="M307" s="146"/>
+      <c r="N307" s="146"/>
+    </row>
+    <row r="308" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A308" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="B308" s="126" t="s">
+        <v>863</v>
+      </c>
+      <c r="C308" s="127"/>
+      <c r="D308" s="108"/>
+      <c r="E308" s="108"/>
+      <c r="F308" s="108"/>
+      <c r="G308" s="133"/>
+      <c r="H308" s="133" t="s">
+        <v>466</v>
+      </c>
+      <c r="I308" s="133"/>
+      <c r="J308" s="133"/>
+      <c r="K308" s="133"/>
+      <c r="L308" s="133"/>
+      <c r="M308" s="133"/>
+      <c r="N308" s="133"/>
+    </row>
+    <row r="309" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A309" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B309" s="111" t="s">
+        <v>864</v>
+      </c>
+      <c r="C309" s="124" t="s">
+        <v>865</v>
+      </c>
+      <c r="D309" s="108"/>
+      <c r="E309" s="108"/>
+      <c r="F309" s="108"/>
+      <c r="G309" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H309" s="113"/>
+      <c r="I309" s="113"/>
+      <c r="J309" s="113"/>
+      <c r="K309" s="113"/>
+      <c r="L309" s="113"/>
+      <c r="M309" s="113"/>
+      <c r="N309" s="113"/>
+    </row>
+    <row r="310" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A310" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310" s="111" t="s">
+        <v>866</v>
+      </c>
+      <c r="C310" s="124" t="s">
+        <v>867</v>
+      </c>
+      <c r="D310" s="108"/>
+      <c r="E310" s="108"/>
+      <c r="F310" s="108"/>
+      <c r="G310" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H310" s="113"/>
+      <c r="I310" s="113"/>
+      <c r="J310" s="113"/>
+      <c r="K310" s="113"/>
+      <c r="L310" s="113"/>
+      <c r="M310" s="113"/>
+      <c r="N310" s="113"/>
+    </row>
+    <row r="311" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A311" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B311" s="111" t="s">
+        <v>868</v>
+      </c>
+      <c r="C311" s="124" t="s">
+        <v>869</v>
+      </c>
+      <c r="D311" s="108"/>
+      <c r="E311" s="108"/>
+      <c r="F311" s="108"/>
+      <c r="G311" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H311" s="113"/>
+      <c r="I311" s="113"/>
+      <c r="J311" s="113"/>
+      <c r="K311" s="113"/>
+      <c r="L311" s="113"/>
+      <c r="M311" s="113"/>
+      <c r="N311" s="113"/>
+    </row>
+    <row r="312" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B312" s="111" t="s">
+        <v>870</v>
+      </c>
+      <c r="C312" s="124" t="s">
+        <v>871</v>
+      </c>
+      <c r="D312" s="108"/>
+      <c r="E312" s="108"/>
+      <c r="F312" s="108"/>
+      <c r="G312" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H312" s="113"/>
+      <c r="I312" s="113"/>
+      <c r="J312" s="113"/>
+      <c r="K312" s="113"/>
+      <c r="L312" s="113"/>
+      <c r="M312" s="113"/>
+      <c r="N312" s="113"/>
+    </row>
+    <row r="313" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A313" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B313" s="111" t="s">
+        <v>872</v>
+      </c>
+      <c r="C313" s="124" t="s">
+        <v>873</v>
+      </c>
+      <c r="D313" s="108"/>
+      <c r="E313" s="108"/>
+      <c r="F313" s="108"/>
+      <c r="G313" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H313" s="113"/>
+      <c r="I313" s="113"/>
+      <c r="J313" s="113"/>
+      <c r="K313" s="113"/>
+      <c r="L313" s="113"/>
+      <c r="M313" s="113"/>
+      <c r="N313" s="113"/>
+    </row>
+    <row r="314" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A314" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B314" s="111" t="s">
+        <v>874</v>
+      </c>
+      <c r="C314" s="124" t="s">
+        <v>875</v>
+      </c>
+      <c r="D314" s="108"/>
+      <c r="E314" s="108"/>
+      <c r="F314" s="108"/>
+      <c r="G314" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H314" s="113"/>
+      <c r="I314" s="113"/>
+      <c r="J314" s="113"/>
+      <c r="K314" s="113"/>
+      <c r="L314" s="113"/>
+      <c r="M314" s="113"/>
+      <c r="N314" s="113"/>
+    </row>
+    <row r="315" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A315" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B315" s="111" t="s">
+        <v>876</v>
+      </c>
+      <c r="C315" s="124" t="s">
+        <v>877</v>
+      </c>
+      <c r="D315" s="108"/>
+      <c r="E315" s="108"/>
+      <c r="F315" s="108"/>
+      <c r="G315" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H315" s="113"/>
+      <c r="I315" s="113"/>
+      <c r="J315" s="113"/>
+      <c r="K315" s="113"/>
+      <c r="L315" s="113"/>
+      <c r="M315" s="113"/>
+      <c r="N315" s="113"/>
+    </row>
+    <row r="316" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316" s="111" t="s">
+        <v>878</v>
+      </c>
+      <c r="C316" s="124" t="s">
+        <v>879</v>
+      </c>
+      <c r="D316" s="108"/>
+      <c r="E316" s="108"/>
+      <c r="F316" s="108"/>
+      <c r="G316" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H316" s="113"/>
+      <c r="I316" s="113"/>
+      <c r="J316" s="113"/>
+      <c r="K316" s="113"/>
+      <c r="L316" s="113"/>
+      <c r="M316" s="113"/>
+      <c r="N316" s="113"/>
+    </row>
+    <row r="317" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A317" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B317" s="111" t="s">
+        <v>880</v>
+      </c>
+      <c r="C317" s="124" t="s">
+        <v>881</v>
+      </c>
+      <c r="D317" s="108"/>
+      <c r="E317" s="108"/>
+      <c r="F317" s="108"/>
+      <c r="G317" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H317" s="113"/>
+      <c r="I317" s="113"/>
+      <c r="J317" s="113"/>
+      <c r="K317" s="113"/>
+      <c r="L317" s="113"/>
+      <c r="M317" s="113"/>
+      <c r="N317" s="113"/>
+    </row>
+    <row r="318" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A318" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B318" s="111" t="s">
+        <v>882</v>
+      </c>
+      <c r="C318" s="124" t="s">
+        <v>883</v>
+      </c>
+      <c r="D318" s="108"/>
+      <c r="E318" s="108"/>
+      <c r="F318" s="108"/>
+      <c r="G318" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H318" s="113"/>
+      <c r="I318" s="113"/>
+      <c r="J318" s="113"/>
+      <c r="K318" s="113"/>
+      <c r="L318" s="113"/>
+      <c r="M318" s="113"/>
+      <c r="N318" s="113"/>
+    </row>
+    <row r="319" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A319" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B319" s="111" t="s">
+        <v>884</v>
+      </c>
+      <c r="C319" s="124" t="s">
+        <v>885</v>
+      </c>
+      <c r="D319" s="108"/>
+      <c r="E319" s="108"/>
+      <c r="F319" s="108"/>
+      <c r="G319" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H319" s="113"/>
+      <c r="I319" s="113"/>
+      <c r="J319" s="113"/>
+      <c r="K319" s="113"/>
+      <c r="L319" s="113"/>
+      <c r="M319" s="113"/>
+      <c r="N319" s="113"/>
+    </row>
+    <row r="320" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A320" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320" s="111" t="s">
+        <v>886</v>
+      </c>
+      <c r="C320" s="124" t="s">
+        <v>887</v>
+      </c>
+      <c r="D320" s="108"/>
+      <c r="E320" s="108"/>
+      <c r="F320" s="108"/>
+      <c r="G320" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H320" s="113"/>
+      <c r="I320" s="113"/>
+      <c r="J320" s="113"/>
+      <c r="K320" s="113"/>
+      <c r="L320" s="113"/>
+      <c r="M320" s="113"/>
+      <c r="N320" s="113"/>
+    </row>
+    <row r="321" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A321" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B321" s="111" t="s">
+        <v>888</v>
+      </c>
+      <c r="C321" s="128" t="s">
+        <v>889</v>
+      </c>
+      <c r="D321" s="108"/>
+      <c r="E321" s="108"/>
+      <c r="F321" s="108"/>
+      <c r="G321" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H321" s="113"/>
+      <c r="I321" s="113"/>
+      <c r="J321" s="113"/>
+      <c r="K321" s="113"/>
+      <c r="L321" s="113"/>
+      <c r="M321" s="113"/>
+      <c r="N321" s="113"/>
+    </row>
+    <row r="322" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A322" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B322" s="111" t="s">
+        <v>890</v>
+      </c>
+      <c r="C322" s="128" t="s">
+        <v>891</v>
+      </c>
+      <c r="D322" s="108"/>
+      <c r="E322" s="108"/>
+      <c r="F322" s="108"/>
+      <c r="G322" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H322" s="113"/>
+      <c r="I322" s="113"/>
+      <c r="J322" s="113"/>
+      <c r="K322" s="113"/>
+      <c r="L322" s="113"/>
+      <c r="M322" s="113"/>
+      <c r="N322" s="113"/>
+    </row>
+    <row r="323" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A323" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B323" s="111" t="s">
+        <v>892</v>
+      </c>
+      <c r="C323" s="124" t="s">
+        <v>893</v>
+      </c>
+      <c r="D323" s="108"/>
+      <c r="E323" s="108"/>
+      <c r="F323" s="108"/>
+      <c r="G323" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H323" s="113"/>
+      <c r="I323" s="113"/>
+      <c r="J323" s="113"/>
+      <c r="K323" s="113"/>
+      <c r="L323" s="113"/>
+      <c r="M323" s="113"/>
+      <c r="N323" s="113"/>
+    </row>
+    <row r="324" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A324" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B324" s="111" t="s">
+        <v>894</v>
+      </c>
+      <c r="C324" s="124" t="s">
+        <v>895</v>
+      </c>
+      <c r="D324" s="108"/>
+      <c r="E324" s="108"/>
+      <c r="F324" s="108"/>
+      <c r="G324" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H324" s="113"/>
+      <c r="I324" s="113"/>
+      <c r="J324" s="113"/>
+      <c r="K324" s="113"/>
+      <c r="L324" s="113"/>
+      <c r="M324" s="113"/>
+      <c r="N324" s="113"/>
+    </row>
+    <row r="325" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A325" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B325" s="111" t="s">
+        <v>896</v>
+      </c>
+      <c r="C325" s="129" t="s">
+        <v>897</v>
+      </c>
+      <c r="D325" s="108"/>
+      <c r="E325" s="108"/>
+      <c r="F325" s="108"/>
+      <c r="G325" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H325" s="113"/>
+      <c r="I325" s="113"/>
+      <c r="J325" s="113"/>
+      <c r="K325" s="113"/>
+      <c r="L325" s="113"/>
+      <c r="M325" s="113"/>
+      <c r="N325" s="113"/>
+    </row>
+    <row r="326" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A326" s="120" t="s">
+        <v>465</v>
+      </c>
+      <c r="B326" s="126"/>
+      <c r="C326" s="130"/>
+      <c r="D326" s="108"/>
+      <c r="E326" s="108"/>
+      <c r="F326" s="108"/>
+      <c r="G326" s="133"/>
+      <c r="H326" s="133"/>
+      <c r="I326" s="133"/>
+      <c r="J326" s="133"/>
+      <c r="K326" s="133"/>
+      <c r="L326" s="133"/>
+      <c r="M326" s="133"/>
+      <c r="N326" s="133"/>
+    </row>
+    <row r="327" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A327" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="B327" s="126" t="s">
+        <v>898</v>
+      </c>
+      <c r="C327" s="119" t="s">
+        <v>899</v>
+      </c>
+      <c r="D327" s="108"/>
+      <c r="E327" s="108"/>
+      <c r="F327" s="108"/>
+      <c r="G327" s="133"/>
+      <c r="H327" s="133" t="s">
+        <v>466</v>
+      </c>
+      <c r="I327" s="133"/>
+      <c r="J327" s="133"/>
+      <c r="K327" s="133"/>
+      <c r="L327" s="133"/>
+      <c r="M327" s="133"/>
+      <c r="N327" s="133"/>
+    </row>
+    <row r="328" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A328" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B328" s="111" t="s">
+        <v>900</v>
+      </c>
+      <c r="C328" s="131" t="s">
+        <v>901</v>
+      </c>
+      <c r="D328" s="108"/>
+      <c r="E328" s="108"/>
+      <c r="F328" s="108"/>
+      <c r="G328" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H328" s="113"/>
+      <c r="I328" s="113"/>
+      <c r="J328" s="113" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K328" s="113"/>
+      <c r="L328" s="113"/>
+      <c r="M328" s="113"/>
+      <c r="N328" s="113"/>
+    </row>
+    <row r="329" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A329" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B329" s="111" t="s">
+        <v>902</v>
+      </c>
+      <c r="C329" s="131" t="s">
+        <v>903</v>
+      </c>
+      <c r="D329" s="108"/>
+      <c r="E329" s="108"/>
+      <c r="F329" s="108"/>
+      <c r="G329" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H329" s="113"/>
+      <c r="I329" s="113"/>
+      <c r="J329" s="113" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K329" s="113"/>
+      <c r="L329" s="113"/>
+      <c r="M329" s="113"/>
+      <c r="N329" s="113"/>
+    </row>
+    <row r="330" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A330" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B330" s="111" t="s">
+        <v>904</v>
+      </c>
+      <c r="C330" s="131" t="s">
+        <v>905</v>
+      </c>
+      <c r="D330" s="108"/>
+      <c r="E330" s="108"/>
+      <c r="F330" s="108"/>
+      <c r="G330" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H330" s="113"/>
+      <c r="I330" s="113"/>
+      <c r="J330" s="113" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K330" s="113"/>
+      <c r="L330" s="113"/>
+      <c r="M330" s="113"/>
+      <c r="N330" s="113"/>
+    </row>
+    <row r="331" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A331" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B331" s="111" t="s">
+        <v>906</v>
+      </c>
+      <c r="C331" s="131" t="s">
+        <v>907</v>
+      </c>
+      <c r="D331" s="108"/>
+      <c r="E331" s="108"/>
+      <c r="F331" s="108"/>
+      <c r="G331" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H331" s="113"/>
+      <c r="I331" s="113"/>
+      <c r="J331" s="113" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K331" s="113"/>
+      <c r="L331" s="113"/>
+      <c r="M331" s="113"/>
+      <c r="N331" s="113"/>
+    </row>
+    <row r="332" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A332" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B332" s="111" t="s">
+        <v>908</v>
+      </c>
+      <c r="C332" s="131" t="s">
+        <v>909</v>
+      </c>
+      <c r="D332" s="108"/>
+      <c r="E332" s="108"/>
+      <c r="F332" s="108"/>
+      <c r="G332" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H332" s="113"/>
+      <c r="I332" s="113"/>
+      <c r="J332" s="113" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K332" s="113"/>
+      <c r="L332" s="113"/>
+      <c r="M332" s="113"/>
+      <c r="N332" s="113"/>
+    </row>
+    <row r="333" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A333" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B333" s="111" t="s">
+        <v>910</v>
+      </c>
+      <c r="C333" s="131" t="s">
+        <v>911</v>
+      </c>
+      <c r="D333" s="108"/>
+      <c r="E333" s="108"/>
+      <c r="F333" s="108"/>
+      <c r="G333" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H333" s="113"/>
+      <c r="I333" s="113"/>
+      <c r="J333" s="113" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K333" s="113"/>
+      <c r="L333" s="113"/>
+      <c r="M333" s="113"/>
+      <c r="N333" s="113"/>
+    </row>
+    <row r="334" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A334" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B334" s="111" t="s">
+        <v>912</v>
+      </c>
+      <c r="C334" s="131" t="s">
+        <v>913</v>
+      </c>
+      <c r="D334" s="108"/>
+      <c r="E334" s="108"/>
+      <c r="F334" s="108"/>
+      <c r="G334" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H334" s="113"/>
+      <c r="I334" s="113"/>
+      <c r="J334" s="113" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K334" s="113"/>
+      <c r="L334" s="113"/>
+      <c r="M334" s="113"/>
+      <c r="N334" s="113"/>
+    </row>
+    <row r="335" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A335" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B335" s="111" t="s">
+        <v>914</v>
+      </c>
+      <c r="C335" s="131" t="s">
+        <v>915</v>
+      </c>
+      <c r="D335" s="108"/>
+      <c r="E335" s="108"/>
+      <c r="F335" s="108"/>
+      <c r="G335" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H335" s="113"/>
+      <c r="I335" s="113"/>
+      <c r="J335" s="113" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K335" s="113"/>
+      <c r="L335" s="113"/>
+      <c r="M335" s="113"/>
+      <c r="N335" s="113"/>
+    </row>
+    <row r="336" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A336" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B336" s="111" t="s">
+        <v>916</v>
+      </c>
+      <c r="C336" s="131" t="s">
+        <v>917</v>
+      </c>
+      <c r="D336" s="108"/>
+      <c r="E336" s="108"/>
+      <c r="F336" s="108"/>
+      <c r="G336" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H336" s="113"/>
+      <c r="I336" s="113"/>
+      <c r="J336" s="113" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K336" s="113"/>
+      <c r="L336" s="113"/>
+      <c r="M336" s="113"/>
+      <c r="N336" s="113"/>
+    </row>
+    <row r="337" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A337" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B337" s="111" t="s">
+        <v>918</v>
+      </c>
+      <c r="C337" s="131" t="s">
+        <v>919</v>
+      </c>
+      <c r="D337" s="108"/>
+      <c r="E337" s="108"/>
+      <c r="F337" s="108"/>
+      <c r="G337" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H337" s="113"/>
+      <c r="I337" s="113"/>
+      <c r="J337" s="113" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K337" s="113"/>
+      <c r="L337" s="113"/>
+      <c r="M337" s="113"/>
+      <c r="N337" s="113"/>
+    </row>
+    <row r="338" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A338" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B338" s="111" t="s">
+        <v>920</v>
+      </c>
+      <c r="C338" s="131" t="s">
+        <v>921</v>
+      </c>
+      <c r="D338" s="108"/>
+      <c r="E338" s="108"/>
+      <c r="F338" s="108"/>
+      <c r="G338" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H338" s="113"/>
+      <c r="I338" s="113"/>
+      <c r="J338" s="113" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K338" s="113"/>
+      <c r="L338" s="113"/>
+      <c r="M338" s="113"/>
+      <c r="N338" s="113"/>
+    </row>
+    <row r="339" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A339" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B339" s="111" t="s">
+        <v>922</v>
+      </c>
+      <c r="C339" s="131" t="s">
+        <v>923</v>
+      </c>
+      <c r="D339" s="108"/>
+      <c r="E339" s="108"/>
+      <c r="F339" s="108"/>
+      <c r="G339" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H339" s="113"/>
+      <c r="I339" s="113"/>
+      <c r="J339" s="113" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K339" s="113"/>
+      <c r="L339" s="113"/>
+      <c r="M339" s="113"/>
+      <c r="N339" s="113"/>
+    </row>
+    <row r="340" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A340" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B340" s="111" t="s">
+        <v>924</v>
+      </c>
+      <c r="C340" s="131" t="s">
+        <v>925</v>
+      </c>
+      <c r="D340" s="108"/>
+      <c r="E340" s="108"/>
+      <c r="F340" s="108"/>
+      <c r="G340" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H340" s="113"/>
+      <c r="I340" s="113"/>
+      <c r="J340" s="113" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K340" s="113"/>
+      <c r="L340" s="113"/>
+      <c r="M340" s="113"/>
+      <c r="N340" s="113"/>
+    </row>
+    <row r="341" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A341" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B341" s="111" t="s">
+        <v>926</v>
+      </c>
+      <c r="C341" s="131" t="s">
+        <v>927</v>
+      </c>
+      <c r="D341" s="108"/>
+      <c r="E341" s="108"/>
+      <c r="F341" s="108"/>
+      <c r="G341" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H341" s="113"/>
+      <c r="I341" s="113"/>
+      <c r="J341" s="113" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K341" s="113"/>
+      <c r="L341" s="113"/>
+      <c r="M341" s="113"/>
+      <c r="N341" s="113"/>
+    </row>
+    <row r="342" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A342" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B342" s="111" t="s">
+        <v>928</v>
+      </c>
+      <c r="C342" s="131" t="s">
+        <v>929</v>
+      </c>
+      <c r="D342" s="108"/>
+      <c r="E342" s="108"/>
+      <c r="F342" s="108"/>
+      <c r="G342" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H342" s="113"/>
+      <c r="I342" s="113"/>
+      <c r="J342" s="113" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K342" s="113"/>
+      <c r="L342" s="113"/>
+      <c r="M342" s="113"/>
+      <c r="N342" s="113"/>
+    </row>
+    <row r="343" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A343" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B343" s="111" t="s">
+        <v>930</v>
+      </c>
+      <c r="C343" s="131" t="s">
+        <v>931</v>
+      </c>
+      <c r="D343" s="108"/>
+      <c r="E343" s="108"/>
+      <c r="F343" s="108"/>
+      <c r="G343" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H343" s="113"/>
+      <c r="I343" s="113"/>
+      <c r="J343" s="113" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K343" s="113"/>
+      <c r="L343" s="113"/>
+      <c r="M343" s="113"/>
+      <c r="N343" s="113"/>
+    </row>
+    <row r="344" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A344" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B344" s="111" t="s">
+        <v>932</v>
+      </c>
+      <c r="C344" s="132" t="s">
+        <v>933</v>
+      </c>
+      <c r="D344" s="108"/>
+      <c r="E344" s="108"/>
+      <c r="F344" s="108"/>
+      <c r="G344" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H344" s="113"/>
+      <c r="I344" s="113"/>
+      <c r="J344" s="113" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K344" s="113"/>
+      <c r="L344" s="113"/>
+      <c r="M344" s="113"/>
+      <c r="N344" s="113"/>
+    </row>
+    <row r="345" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A345" s="120" t="s">
+        <v>465</v>
+      </c>
+      <c r="B345" s="126"/>
+      <c r="C345" s="133"/>
+      <c r="D345" s="108"/>
+      <c r="E345" s="108"/>
+      <c r="F345" s="108"/>
+      <c r="G345" s="133"/>
+      <c r="H345" s="133"/>
+      <c r="I345" s="133"/>
+      <c r="J345" s="133"/>
+      <c r="K345" s="133"/>
+      <c r="L345" s="133"/>
+      <c r="M345" s="133"/>
+      <c r="N345" s="133"/>
+    </row>
+    <row r="346" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A346" s="111" t="s">
+        <v>934</v>
+      </c>
+      <c r="B346" s="111" t="s">
+        <v>935</v>
+      </c>
+      <c r="C346" s="124" t="s">
+        <v>936</v>
+      </c>
+      <c r="D346" s="108"/>
+      <c r="E346" s="108"/>
+      <c r="F346" s="108"/>
+      <c r="G346" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H346" s="113"/>
+      <c r="I346" s="113"/>
+      <c r="J346" s="113"/>
+      <c r="K346" s="113"/>
+      <c r="L346" s="113"/>
+      <c r="M346" s="113"/>
+      <c r="N346" s="113"/>
+    </row>
+    <row r="347" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A347" s="111" t="s">
+        <v>934</v>
+      </c>
+      <c r="B347" s="111" t="s">
+        <v>937</v>
+      </c>
+      <c r="C347" s="124" t="s">
+        <v>938</v>
+      </c>
+      <c r="D347" s="108"/>
+      <c r="E347" s="108"/>
+      <c r="F347" s="108"/>
+      <c r="G347" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H347" s="113"/>
+      <c r="I347" s="113"/>
+      <c r="J347" s="113"/>
+      <c r="K347" s="113"/>
+      <c r="L347" s="113"/>
+      <c r="M347" s="113"/>
+      <c r="N347" s="113"/>
+    </row>
+    <row r="348" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A348" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B348" s="109" t="s">
+        <v>939</v>
+      </c>
+      <c r="C348" s="125" t="s">
+        <v>940</v>
+      </c>
+      <c r="D348" s="108"/>
+      <c r="E348" s="108"/>
+      <c r="F348" s="108"/>
+      <c r="G348" s="146"/>
+      <c r="H348" s="146"/>
+      <c r="I348" s="146"/>
+      <c r="J348" s="146"/>
+      <c r="K348" s="146"/>
+      <c r="L348" s="146"/>
+      <c r="M348" s="146"/>
+      <c r="N348" s="146"/>
+    </row>
+    <row r="349" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+      <c r="A349" s="111" t="s">
+        <v>941</v>
+      </c>
+      <c r="B349" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="C349" s="129" t="s">
+        <v>943</v>
+      </c>
+      <c r="D349" s="108"/>
+      <c r="E349" s="108"/>
+      <c r="F349" s="108"/>
+      <c r="G349" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H349" s="113"/>
+      <c r="I349" s="113"/>
+      <c r="J349" s="113"/>
+      <c r="K349" s="113"/>
+      <c r="L349" s="113"/>
+      <c r="M349" s="113"/>
+      <c r="N349" s="113"/>
+    </row>
+    <row r="350" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A350" s="111" t="s">
+        <v>941</v>
+      </c>
+      <c r="B350" s="111" t="s">
+        <v>944</v>
+      </c>
+      <c r="C350" s="129" t="s">
+        <v>945</v>
+      </c>
+      <c r="D350" s="108"/>
+      <c r="E350" s="108"/>
+      <c r="F350" s="108"/>
+      <c r="G350" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H350" s="113"/>
+      <c r="I350" s="113"/>
+      <c r="J350" s="113"/>
+      <c r="K350" s="113"/>
+      <c r="L350" s="113"/>
+      <c r="M350" s="113"/>
+      <c r="N350" s="113"/>
+    </row>
+    <row r="351" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A351" s="111"/>
+      <c r="B351" s="111"/>
+      <c r="C351" s="129"/>
+      <c r="D351" s="108"/>
+      <c r="E351" s="108"/>
+      <c r="F351" s="108"/>
+      <c r="G351" s="113"/>
+      <c r="H351" s="113"/>
+      <c r="I351" s="113"/>
+      <c r="J351" s="113"/>
+      <c r="K351" s="113"/>
+      <c r="L351" s="113"/>
+      <c r="M351" s="113"/>
+      <c r="N351" s="113"/>
+    </row>
+    <row r="352" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A352" s="134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B352" s="134" t="s">
+        <v>946</v>
+      </c>
+      <c r="C352" s="135" t="s">
+        <v>947</v>
+      </c>
+      <c r="D352" s="108"/>
+      <c r="E352" s="108"/>
+      <c r="F352" s="108"/>
+      <c r="G352" s="147"/>
+      <c r="H352" s="147"/>
+      <c r="I352" s="147"/>
+      <c r="J352" s="147"/>
+      <c r="K352" s="147"/>
+      <c r="L352" s="147"/>
+      <c r="M352" s="147"/>
+      <c r="N352" s="147"/>
+    </row>
+    <row r="353" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A353" s="111"/>
+      <c r="B353" s="111"/>
+      <c r="C353" s="136"/>
+      <c r="D353" s="108"/>
+      <c r="E353" s="108"/>
+      <c r="F353" s="108"/>
+      <c r="G353" s="113"/>
+      <c r="H353" s="113"/>
+      <c r="I353" s="113"/>
+      <c r="J353" s="113"/>
+      <c r="K353" s="113"/>
+      <c r="L353" s="113"/>
+      <c r="M353" s="113"/>
+      <c r="N353" s="113"/>
+    </row>
+    <row r="354" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A354" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B354" s="111" t="s">
+        <v>948</v>
+      </c>
+      <c r="C354" s="111" t="s">
+        <v>949</v>
+      </c>
+      <c r="D354" s="108"/>
+      <c r="E354" s="108"/>
+      <c r="F354" s="108"/>
+      <c r="G354" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H354" s="113"/>
+      <c r="I354" s="113"/>
+      <c r="J354" s="113"/>
+      <c r="K354" s="113"/>
+      <c r="L354" s="113"/>
+      <c r="M354" s="113"/>
+      <c r="N354" s="113"/>
+    </row>
+    <row r="355" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A355" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B355" s="111" t="s">
+        <v>950</v>
+      </c>
+      <c r="C355" s="111" t="s">
+        <v>951</v>
+      </c>
+      <c r="D355" s="108"/>
+      <c r="E355" s="108"/>
+      <c r="F355" s="108"/>
+      <c r="G355" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H355" s="113"/>
+      <c r="I355" s="113"/>
+      <c r="J355" s="113"/>
+      <c r="K355" s="113"/>
+      <c r="L355" s="113"/>
+      <c r="M355" s="113"/>
+      <c r="N355" s="113"/>
+    </row>
+    <row r="356" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A356" s="111" t="s">
+        <v>952</v>
+      </c>
+      <c r="B356" s="111" t="s">
+        <v>953</v>
+      </c>
+      <c r="C356" s="111" t="s">
+        <v>954</v>
+      </c>
+      <c r="D356" s="108"/>
+      <c r="E356" s="108"/>
+      <c r="F356" s="108"/>
+      <c r="G356" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H356" s="113"/>
+      <c r="I356" s="113"/>
+      <c r="J356" s="113" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K356" s="113"/>
+      <c r="L356" s="113"/>
+      <c r="M356" s="113"/>
+      <c r="N356" s="113"/>
+    </row>
+    <row r="357" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A357" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B357" s="111" t="s">
+        <v>955</v>
+      </c>
+      <c r="C357" s="116" t="s">
+        <v>956</v>
+      </c>
+      <c r="D357" s="108"/>
+      <c r="E357" s="108"/>
+      <c r="F357" s="108"/>
+      <c r="G357" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H357" s="113"/>
+      <c r="I357" s="113"/>
+      <c r="J357" s="113"/>
+      <c r="K357" s="113"/>
+      <c r="L357" s="113"/>
+      <c r="M357" s="113"/>
+      <c r="N357" s="113"/>
+    </row>
+    <row r="358" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A358" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B358" s="111" t="s">
+        <v>957</v>
+      </c>
+      <c r="C358" s="116" t="s">
+        <v>958</v>
+      </c>
+      <c r="D358" s="108"/>
+      <c r="E358" s="108"/>
+      <c r="F358" s="108"/>
+      <c r="G358" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H358" s="113"/>
+      <c r="I358" s="113"/>
+      <c r="J358" s="113"/>
+      <c r="K358" s="113"/>
+      <c r="L358" s="113"/>
+      <c r="M358" s="113"/>
+      <c r="N358" s="113"/>
+    </row>
+    <row r="359" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A359" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B359" s="111" t="s">
+        <v>959</v>
+      </c>
+      <c r="C359" s="137" t="s">
+        <v>960</v>
+      </c>
+      <c r="D359" s="108"/>
+      <c r="E359" s="108"/>
+      <c r="F359" s="108"/>
+      <c r="G359" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H359" s="113"/>
+      <c r="I359" s="113"/>
+      <c r="J359" s="113"/>
+      <c r="K359" s="113"/>
+      <c r="L359" s="113"/>
+      <c r="M359" s="113"/>
+      <c r="N359" s="113"/>
+    </row>
+    <row r="360" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A360" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B360" s="111" t="s">
+        <v>961</v>
+      </c>
+      <c r="C360" s="116" t="s">
+        <v>962</v>
+      </c>
+      <c r="D360" s="108"/>
+      <c r="E360" s="108"/>
+      <c r="F360" s="108"/>
+      <c r="G360" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H360" s="113"/>
+      <c r="I360" s="113"/>
+      <c r="J360" s="113"/>
+      <c r="K360" s="113"/>
+      <c r="L360" s="113"/>
+      <c r="M360" s="113"/>
+      <c r="N360" s="113"/>
+    </row>
+    <row r="361" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A361" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B361" s="111" t="s">
+        <v>963</v>
+      </c>
+      <c r="C361" s="116" t="s">
+        <v>964</v>
+      </c>
+      <c r="D361" s="108"/>
+      <c r="E361" s="108"/>
+      <c r="F361" s="108"/>
+      <c r="G361" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H361" s="113"/>
+      <c r="I361" s="113"/>
+      <c r="J361" s="113"/>
+      <c r="K361" s="113"/>
+      <c r="L361" s="113"/>
+      <c r="M361" s="113"/>
+      <c r="N361" s="113"/>
+    </row>
+    <row r="362" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A362" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B362" s="111" t="s">
+        <v>965</v>
+      </c>
+      <c r="C362" s="116" t="s">
+        <v>966</v>
+      </c>
+      <c r="D362" s="108"/>
+      <c r="E362" s="108"/>
+      <c r="F362" s="108"/>
+      <c r="G362" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H362" s="113"/>
+      <c r="I362" s="113"/>
+      <c r="J362" s="113"/>
+      <c r="K362" s="113"/>
+      <c r="L362" s="113"/>
+      <c r="M362" s="113"/>
+      <c r="N362" s="113"/>
+    </row>
+    <row r="363" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A363" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B363" s="111" t="s">
+        <v>967</v>
+      </c>
+      <c r="C363" s="116" t="s">
+        <v>968</v>
+      </c>
+      <c r="D363" s="108"/>
+      <c r="E363" s="108"/>
+      <c r="F363" s="108"/>
+      <c r="G363" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H363" s="113"/>
+      <c r="I363" s="113"/>
+      <c r="J363" s="113"/>
+      <c r="K363" s="113"/>
+      <c r="L363" s="113"/>
+      <c r="M363" s="113"/>
+      <c r="N363" s="113"/>
+    </row>
+    <row r="364" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A364" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B364" s="111" t="s">
+        <v>969</v>
+      </c>
+      <c r="C364" s="129" t="s">
+        <v>970</v>
+      </c>
+      <c r="D364" s="108"/>
+      <c r="E364" s="108"/>
+      <c r="F364" s="108"/>
+      <c r="G364" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H364" s="113"/>
+      <c r="I364" s="113"/>
+      <c r="J364" s="113"/>
+      <c r="K364" s="113"/>
+      <c r="L364" s="113"/>
+      <c r="M364" s="113"/>
+      <c r="N364" s="113"/>
+    </row>
+    <row r="365" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A365" s="111"/>
+      <c r="B365" s="111"/>
+      <c r="C365" s="129"/>
+      <c r="D365" s="108"/>
+      <c r="E365" s="108"/>
+      <c r="F365" s="108"/>
+      <c r="G365" s="113"/>
+      <c r="H365" s="113"/>
+      <c r="I365" s="113"/>
+      <c r="J365" s="113"/>
+      <c r="K365" s="113"/>
+      <c r="L365" s="113"/>
+      <c r="M365" s="113"/>
+      <c r="N365" s="113"/>
+    </row>
+    <row r="366" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A366" s="111"/>
+      <c r="B366" s="111"/>
+      <c r="C366" s="129"/>
+      <c r="D366" s="108"/>
+      <c r="E366" s="108"/>
+      <c r="F366" s="108"/>
+      <c r="G366" s="113"/>
+      <c r="H366" s="113"/>
+      <c r="I366" s="113"/>
+      <c r="J366" s="113"/>
+      <c r="K366" s="113"/>
+      <c r="L366" s="113"/>
+      <c r="M366" s="113"/>
+      <c r="N366" s="113"/>
+    </row>
+    <row r="367" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A367" s="109" t="s">
+        <v>971</v>
+      </c>
+      <c r="B367" s="109" t="s">
+        <v>972</v>
+      </c>
+      <c r="C367" s="125" t="s">
+        <v>973</v>
+      </c>
+      <c r="D367" s="108"/>
+      <c r="E367" s="108"/>
+      <c r="F367" s="108"/>
+      <c r="G367" s="109"/>
+      <c r="H367" s="109"/>
+      <c r="I367" s="109"/>
+      <c r="J367" s="109"/>
+      <c r="K367" s="109"/>
+      <c r="L367" s="109"/>
+      <c r="M367" s="109"/>
+      <c r="N367" s="109"/>
+    </row>
+    <row r="368" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A368" s="111"/>
+      <c r="B368" s="111"/>
+      <c r="C368" s="129"/>
+      <c r="D368" s="108"/>
+      <c r="E368" s="108"/>
+      <c r="F368" s="108"/>
+      <c r="G368" s="113"/>
+      <c r="H368" s="113"/>
+      <c r="I368" s="113"/>
+      <c r="J368" s="113"/>
+      <c r="K368" s="113"/>
+      <c r="L368" s="113"/>
+      <c r="M368" s="113"/>
+      <c r="N368" s="113"/>
+    </row>
+    <row r="369" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A369" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B369" s="138" t="s">
+        <v>974</v>
+      </c>
+      <c r="C369" s="139" t="s">
+        <v>975</v>
+      </c>
+      <c r="D369" s="108"/>
+      <c r="E369" s="108"/>
+      <c r="F369" s="108"/>
+      <c r="G369" s="113"/>
+      <c r="H369" s="113"/>
+      <c r="I369" s="113"/>
+      <c r="J369" s="113"/>
+      <c r="K369" s="113"/>
+      <c r="L369" s="113"/>
+      <c r="M369" s="113"/>
+      <c r="N369" s="113"/>
+    </row>
+    <row r="370" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A370" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B370" s="138" t="s">
+        <v>976</v>
+      </c>
+      <c r="C370" s="139" t="s">
+        <v>977</v>
+      </c>
+      <c r="D370" s="108"/>
+      <c r="E370" s="108"/>
+      <c r="F370" s="108"/>
+      <c r="G370" s="113"/>
+      <c r="H370" s="113"/>
+      <c r="I370" s="113"/>
+      <c r="J370" s="113" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K370" s="113"/>
+      <c r="L370" s="113"/>
+      <c r="M370" s="113"/>
+      <c r="N370" s="113"/>
+    </row>
+    <row r="371" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A371" s="111" t="s">
+        <v>978</v>
+      </c>
+      <c r="B371" s="138" t="s">
+        <v>979</v>
+      </c>
+      <c r="C371" s="139" t="s">
+        <v>980</v>
+      </c>
+      <c r="D371" s="108"/>
+      <c r="E371" s="108"/>
+      <c r="F371" s="108"/>
+      <c r="G371" s="113"/>
+      <c r="H371" s="113"/>
+      <c r="I371" s="113"/>
+      <c r="J371" s="113" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K371" s="113"/>
+      <c r="L371" s="113"/>
+      <c r="M371" s="113"/>
+      <c r="N371" s="113"/>
+    </row>
+    <row r="372" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A372" s="111" t="s">
+        <v>981</v>
+      </c>
+      <c r="B372" s="138" t="s">
+        <v>982</v>
+      </c>
+      <c r="C372" s="139" t="s">
+        <v>983</v>
+      </c>
+      <c r="D372" s="108"/>
+      <c r="E372" s="108"/>
+      <c r="F372" s="108"/>
+      <c r="G372" s="113"/>
+      <c r="H372" s="113"/>
+      <c r="I372" s="113"/>
+      <c r="J372" s="113" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K372" s="113"/>
+      <c r="L372" s="113"/>
+      <c r="M372" s="113"/>
+      <c r="N372" s="113"/>
+    </row>
+    <row r="373" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A373" s="111" t="s">
+        <v>984</v>
+      </c>
+      <c r="B373" s="138" t="s">
+        <v>985</v>
+      </c>
+      <c r="C373" s="139" t="s">
+        <v>986</v>
+      </c>
+      <c r="D373" s="108"/>
+      <c r="E373" s="108"/>
+      <c r="F373" s="108"/>
+      <c r="G373" s="113"/>
+      <c r="H373" s="113"/>
+      <c r="I373" s="113"/>
+      <c r="J373" s="113" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K373" s="113"/>
+      <c r="L373" s="113"/>
+      <c r="M373" s="113"/>
+      <c r="N373" s="113"/>
+    </row>
+    <row r="374" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A374" s="111"/>
+      <c r="B374" s="113"/>
+      <c r="C374" s="113"/>
+      <c r="D374" s="108"/>
+      <c r="E374" s="108"/>
+      <c r="F374" s="108"/>
+      <c r="G374" s="113"/>
+      <c r="H374" s="113"/>
+      <c r="I374" s="113"/>
+      <c r="J374" s="113"/>
+      <c r="K374" s="113"/>
+      <c r="L374" s="113"/>
+      <c r="M374" s="113"/>
+      <c r="N374" s="113"/>
+    </row>
+    <row r="375" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A375" s="140" t="s">
+        <v>987</v>
+      </c>
+      <c r="B375" s="141" t="s">
+        <v>988</v>
+      </c>
+      <c r="C375" s="141" t="s">
+        <v>989</v>
+      </c>
+      <c r="D375" s="108"/>
+      <c r="E375" s="108"/>
+      <c r="F375" s="108"/>
+      <c r="G375" s="113"/>
+      <c r="H375" s="113"/>
+      <c r="I375" s="113"/>
+      <c r="J375" s="113" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K375" s="113"/>
+      <c r="L375" s="113"/>
+      <c r="M375" s="113"/>
+      <c r="N375" s="113"/>
+    </row>
+    <row r="376" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A376" s="111" t="s">
+        <v>990</v>
+      </c>
+      <c r="B376" s="138" t="s">
+        <v>991</v>
+      </c>
+      <c r="C376" s="138" t="s">
+        <v>992</v>
+      </c>
+      <c r="D376" s="108"/>
+      <c r="E376" s="108"/>
+      <c r="F376" s="108"/>
+      <c r="G376" s="113"/>
+      <c r="H376" s="113"/>
+      <c r="I376" s="113"/>
+      <c r="J376" s="113" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K376" s="113"/>
+      <c r="L376" s="113"/>
+      <c r="M376" s="113"/>
+      <c r="N376" s="113"/>
+    </row>
+    <row r="377" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A377" s="111" t="s">
+        <v>993</v>
+      </c>
+      <c r="B377" s="116" t="s">
+        <v>994</v>
+      </c>
+      <c r="C377" s="116" t="s">
+        <v>995</v>
+      </c>
+      <c r="D377" s="108"/>
+      <c r="E377" s="108"/>
+      <c r="F377" s="108"/>
+      <c r="G377" s="113"/>
+      <c r="H377" s="113"/>
+      <c r="I377" s="113"/>
+      <c r="J377" s="113" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K377" s="113"/>
+      <c r="L377" s="113"/>
+      <c r="M377" s="113"/>
+      <c r="N377" s="113"/>
+    </row>
+    <row r="378" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A378" s="111" t="s">
+        <v>996</v>
+      </c>
+      <c r="B378" s="116" t="s">
+        <v>997</v>
+      </c>
+      <c r="C378" s="116" t="s">
+        <v>998</v>
+      </c>
+      <c r="D378" s="108"/>
+      <c r="E378" s="108"/>
+      <c r="F378" s="108"/>
+      <c r="G378" s="113"/>
+      <c r="H378" s="113"/>
+      <c r="I378" s="113"/>
+      <c r="J378" s="113" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K378" s="113"/>
+      <c r="L378" s="113"/>
+      <c r="M378" s="113"/>
+      <c r="N378" s="113"/>
+    </row>
+    <row r="379" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A379" s="111" t="s">
+        <v>999</v>
+      </c>
+      <c r="B379" s="113" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C379" s="111" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D379" s="108"/>
+      <c r="E379" s="108"/>
+      <c r="F379" s="108"/>
+      <c r="G379" s="113"/>
+      <c r="H379" s="113"/>
+      <c r="I379" s="113"/>
+      <c r="J379" s="113" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K379" s="113"/>
+      <c r="L379" s="113"/>
+      <c r="M379" s="113"/>
+      <c r="N379" s="113"/>
+    </row>
+    <row r="380" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A380" s="111"/>
+      <c r="B380" s="113"/>
+      <c r="C380" s="142"/>
+      <c r="D380" s="108"/>
+      <c r="E380" s="108"/>
+      <c r="F380" s="108"/>
+      <c r="G380" s="113"/>
+      <c r="H380" s="113"/>
+      <c r="I380" s="113"/>
+      <c r="J380" s="113"/>
+      <c r="K380" s="113"/>
+      <c r="L380" s="113"/>
+      <c r="M380" s="113"/>
+      <c r="N380" s="113"/>
+    </row>
+    <row r="381" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A381" s="111"/>
+      <c r="B381" s="111"/>
+      <c r="C381" s="132"/>
+      <c r="D381" s="108"/>
+      <c r="E381" s="108"/>
+      <c r="F381" s="108"/>
+      <c r="G381" s="113"/>
+      <c r="H381" s="113"/>
+      <c r="I381" s="113"/>
+      <c r="J381" s="113"/>
+      <c r="K381" s="113"/>
+      <c r="L381" s="113"/>
+      <c r="M381" s="113"/>
+      <c r="N381" s="113"/>
+    </row>
+    <row r="382" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A382" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B382" s="121" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C382" s="110" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D382" s="108"/>
+      <c r="E382" s="108"/>
+      <c r="F382" s="108"/>
+      <c r="G382" s="146"/>
+      <c r="H382" s="146"/>
+      <c r="I382" s="146"/>
+      <c r="J382" s="146"/>
+      <c r="K382" s="146"/>
+      <c r="L382" s="146"/>
+      <c r="M382" s="146"/>
+      <c r="N382" s="146"/>
+    </row>
+    <row r="383" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+      <c r="A383" s="111" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B383" s="111" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C383" s="129" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D383" s="108"/>
+      <c r="E383" s="108"/>
+      <c r="F383" s="108"/>
+      <c r="G383" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H383" s="113"/>
+      <c r="I383" s="113"/>
+      <c r="J383" s="113"/>
+      <c r="K383" s="113"/>
+      <c r="L383" s="113"/>
+      <c r="M383" s="113"/>
+      <c r="N383" s="113"/>
+    </row>
+    <row r="384" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A384" s="111" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B384" s="111" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C384" s="129" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D384" s="108"/>
+      <c r="E384" s="108"/>
+      <c r="F384" s="108"/>
+      <c r="G384" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H384" s="113"/>
+      <c r="I384" s="113"/>
+      <c r="J384" s="113"/>
+      <c r="K384" s="113"/>
+      <c r="L384" s="113"/>
+      <c r="M384" s="113"/>
+      <c r="N384" s="113"/>
+    </row>
+    <row r="385" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A385" s="111" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B385" s="111" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C385" s="129" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D385" s="108"/>
+      <c r="E385" s="108"/>
+      <c r="F385" s="108"/>
+      <c r="G385" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H385" s="113"/>
+      <c r="I385" s="113"/>
+      <c r="J385" s="113"/>
+      <c r="K385" s="113"/>
+      <c r="L385" s="113"/>
+      <c r="M385" s="113"/>
+      <c r="N385" s="113"/>
+    </row>
+    <row r="386" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A386" s="111" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B386" s="111" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C386" s="129" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D386" s="108"/>
+      <c r="E386" s="108"/>
+      <c r="F386" s="108"/>
+      <c r="G386" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H386" s="113"/>
+      <c r="I386" s="113"/>
+      <c r="J386" s="113"/>
+      <c r="K386" s="113"/>
+      <c r="L386" s="113"/>
+      <c r="M386" s="113"/>
+      <c r="N386" s="113"/>
+    </row>
+    <row r="387" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A387" s="111" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B387" s="111" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C387" s="129" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D387" s="108"/>
+      <c r="E387" s="108"/>
+      <c r="F387" s="108"/>
+      <c r="G387" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H387" s="113"/>
+      <c r="I387" s="113"/>
+      <c r="J387" s="113"/>
+      <c r="K387" s="113"/>
+      <c r="L387" s="113"/>
+      <c r="M387" s="113"/>
+      <c r="N387" s="113"/>
+    </row>
+    <row r="388" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A388" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B388" s="111" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C388" s="129" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D388" s="108"/>
+      <c r="E388" s="108"/>
+      <c r="F388" s="108"/>
+      <c r="G388" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H388" s="113"/>
+      <c r="I388" s="113"/>
+      <c r="J388" s="113"/>
+      <c r="K388" s="113"/>
+      <c r="L388" s="113"/>
+      <c r="M388" s="113"/>
+      <c r="N388" s="113"/>
+    </row>
+    <row r="389" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A389" s="111" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B389" s="111" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C389" s="129" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D389" s="108"/>
+      <c r="E389" s="108"/>
+      <c r="F389" s="108"/>
+      <c r="G389" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H389" s="113"/>
+      <c r="I389" s="113"/>
+      <c r="J389" s="113" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K389" s="113"/>
+      <c r="L389" s="113"/>
+      <c r="M389" s="113"/>
+      <c r="N389" s="113"/>
+    </row>
+    <row r="390" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A390" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B390" s="111" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C390" s="129" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D390" s="108"/>
+      <c r="E390" s="108"/>
+      <c r="F390" s="108"/>
+      <c r="G390" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H390" s="113"/>
+      <c r="I390" s="113"/>
+      <c r="J390" s="113" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K390" s="113"/>
+      <c r="L390" s="113"/>
+      <c r="M390" s="113"/>
+      <c r="N390" s="113"/>
+    </row>
+    <row r="391" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A391" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="B391" s="111" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C391" s="129" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D391" s="108"/>
+      <c r="E391" s="108"/>
+      <c r="F391" s="108"/>
+      <c r="G391" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H391" s="113"/>
+      <c r="I391" s="113"/>
+      <c r="J391" s="113"/>
+      <c r="K391" s="113"/>
+      <c r="L391" s="113"/>
+      <c r="M391" s="113"/>
+      <c r="N391" s="113"/>
+    </row>
+    <row r="392" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A392" s="111" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B392" s="111" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C392" s="129" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D392" s="108"/>
+      <c r="E392" s="108"/>
+      <c r="F392" s="108"/>
+      <c r="G392" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H392" s="113"/>
+      <c r="I392" s="113"/>
+      <c r="J392" s="113" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K392" s="113"/>
+      <c r="L392" s="113"/>
+      <c r="M392" s="113"/>
+      <c r="N392" s="113"/>
+    </row>
+    <row r="393" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A393" s="111" t="s">
+        <v>848</v>
+      </c>
+      <c r="B393" s="111" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C393" s="129" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D393" s="108"/>
+      <c r="E393" s="108"/>
+      <c r="F393" s="108"/>
+      <c r="G393" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H393" s="113"/>
+      <c r="I393" s="113"/>
+      <c r="J393" s="113" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K393" s="113"/>
+      <c r="L393" s="113"/>
+      <c r="M393" s="113"/>
+      <c r="N393" s="113"/>
+    </row>
+    <row r="394" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A394" s="111"/>
+      <c r="B394" s="111"/>
+      <c r="C394" s="113"/>
+      <c r="D394" s="108"/>
+      <c r="E394" s="108"/>
+      <c r="F394" s="108"/>
+      <c r="G394" s="113"/>
+      <c r="H394" s="113"/>
+      <c r="I394" s="113"/>
+      <c r="J394" s="113"/>
+      <c r="K394" s="113"/>
+      <c r="L394" s="113"/>
+      <c r="M394" s="113"/>
+      <c r="N394" s="113"/>
+    </row>
+    <row r="395" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A395" s="143" t="s">
+        <v>124</v>
+      </c>
+      <c r="B395" s="143" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C395" s="144" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D395" s="108"/>
+      <c r="E395" s="108"/>
+      <c r="F395" s="108"/>
+      <c r="G395" s="148"/>
+      <c r="H395" s="148"/>
+      <c r="I395" s="148"/>
+      <c r="J395" s="148"/>
+      <c r="K395" s="148"/>
+      <c r="L395" s="148"/>
+      <c r="M395" s="148"/>
+      <c r="N395" s="148"/>
+    </row>
+    <row r="396" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A396" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="B396" s="111" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C396" s="129" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D396" s="108"/>
+      <c r="E396" s="108"/>
+      <c r="F396" s="108"/>
+      <c r="G396" s="113"/>
+      <c r="H396" s="113" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I396" s="113"/>
+      <c r="J396" s="113"/>
+      <c r="K396" s="113"/>
+      <c r="L396" s="113"/>
+      <c r="M396" s="113"/>
+      <c r="N396" s="113"/>
+    </row>
+    <row r="397" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A397" s="111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B397" s="111" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C397" s="116" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D397" s="108"/>
+      <c r="E397" s="108"/>
+      <c r="F397" s="108"/>
+      <c r="G397" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H397" s="113"/>
+      <c r="I397" s="113"/>
+      <c r="J397" s="113"/>
+      <c r="K397" s="113"/>
+      <c r="L397" s="113"/>
+      <c r="M397" s="113"/>
+      <c r="N397" s="113"/>
+    </row>
+    <row r="398" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A398" s="111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B398" s="111" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C398" s="116" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D398" s="108"/>
+      <c r="E398" s="108"/>
+      <c r="F398" s="108"/>
+      <c r="G398" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H398" s="113"/>
+      <c r="I398" s="113"/>
+      <c r="J398" s="113"/>
+      <c r="K398" s="113"/>
+      <c r="L398" s="113"/>
+      <c r="M398" s="113"/>
+      <c r="N398" s="113"/>
+    </row>
+    <row r="399" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A399" s="111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B399" s="111" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C399" s="116" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D399" s="108"/>
+      <c r="E399" s="108"/>
+      <c r="F399" s="108"/>
+      <c r="G399" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H399" s="113"/>
+      <c r="I399" s="113"/>
+      <c r="J399" s="113"/>
+      <c r="K399" s="113"/>
+      <c r="L399" s="113"/>
+      <c r="M399" s="113"/>
+      <c r="N399" s="113"/>
+    </row>
+    <row r="400" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A400" s="111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B400" s="111" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C400" s="116" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D400" s="108"/>
+      <c r="E400" s="108"/>
+      <c r="F400" s="108"/>
+      <c r="G400" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H400" s="113"/>
+      <c r="I400" s="113"/>
+      <c r="J400" s="113"/>
+      <c r="K400" s="113"/>
+      <c r="L400" s="113"/>
+      <c r="M400" s="113"/>
+      <c r="N400" s="113"/>
+    </row>
+    <row r="401" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A401" s="111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B401" s="111" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C401" s="116" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D401" s="108"/>
+      <c r="E401" s="108"/>
+      <c r="F401" s="108"/>
+      <c r="G401" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H401" s="113"/>
+      <c r="I401" s="113"/>
+      <c r="J401" s="113"/>
+      <c r="K401" s="113"/>
+      <c r="L401" s="113"/>
+      <c r="M401" s="113"/>
+      <c r="N401" s="113"/>
+    </row>
+    <row r="402" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A402" s="111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B402" s="111" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C402" s="116" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D402" s="108"/>
+      <c r="E402" s="108"/>
+      <c r="F402" s="108"/>
+      <c r="G402" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H402" s="113"/>
+      <c r="I402" s="113"/>
+      <c r="J402" s="113"/>
+      <c r="K402" s="113"/>
+      <c r="L402" s="113"/>
+      <c r="M402" s="113"/>
+      <c r="N402" s="113"/>
+    </row>
+    <row r="403" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A403" s="111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B403" s="111" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C403" s="116" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D403" s="108"/>
+      <c r="E403" s="108"/>
+      <c r="F403" s="108"/>
+      <c r="G403" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H403" s="113"/>
+      <c r="I403" s="113"/>
+      <c r="J403" s="113"/>
+      <c r="K403" s="113"/>
+      <c r="L403" s="113"/>
+      <c r="M403" s="113"/>
+      <c r="N403" s="113"/>
+    </row>
+    <row r="404" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A404" s="111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B404" s="111" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C404" s="116" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D404" s="108"/>
+      <c r="E404" s="108"/>
+      <c r="F404" s="108"/>
+      <c r="G404" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H404" s="113"/>
+      <c r="I404" s="113"/>
+      <c r="J404" s="113"/>
+      <c r="K404" s="113"/>
+      <c r="L404" s="113"/>
+      <c r="M404" s="113"/>
+      <c r="N404" s="113"/>
+    </row>
+    <row r="405" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A405" s="111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B405" s="111" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C405" s="116" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D405" s="108"/>
+      <c r="E405" s="108"/>
+      <c r="F405" s="108"/>
+      <c r="G405" s="113"/>
+      <c r="H405" s="113"/>
+      <c r="I405" s="113"/>
+      <c r="J405" s="113"/>
+      <c r="K405" s="113"/>
+      <c r="L405" s="113"/>
+      <c r="M405" s="113"/>
+      <c r="N405" s="113"/>
+    </row>
+    <row r="406" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A406" s="111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B406" s="111" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C406" s="116" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D406" s="108"/>
+      <c r="E406" s="108"/>
+      <c r="F406" s="108"/>
+      <c r="G406" s="113"/>
+      <c r="H406" s="113"/>
+      <c r="I406" s="113"/>
+      <c r="J406" s="113"/>
+      <c r="K406" s="113"/>
+      <c r="L406" s="113"/>
+      <c r="M406" s="113"/>
+      <c r="N406" s="113"/>
+    </row>
+    <row r="407" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A407" s="145" t="s">
+        <v>465</v>
+      </c>
+      <c r="B407" s="111"/>
+      <c r="C407" s="111"/>
+      <c r="D407" s="108"/>
+      <c r="E407" s="108"/>
+      <c r="F407" s="108"/>
+      <c r="G407" s="113"/>
+      <c r="H407" s="113"/>
+      <c r="I407" s="113"/>
+      <c r="J407" s="113"/>
+      <c r="K407" s="113"/>
+      <c r="L407" s="113"/>
+      <c r="M407" s="113"/>
+      <c r="N407" s="113"/>
+    </row>
+    <row r="408" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A408" s="80"/>
+      <c r="B408" s="9"/>
+      <c r="C408" s="34"/>
+      <c r="D408" s="108"/>
+      <c r="E408" s="108"/>
+      <c r="F408" s="108"/>
+      <c r="G408" s="108"/>
+      <c r="J408" s="9"/>
+    </row>
+    <row r="409" spans="1:14" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A409" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="B409" s="99" t="s">
         <v>475</v>
       </c>
-      <c r="C275" s="100" t="s">
+      <c r="C409" s="100" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="276" spans="1:12" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A276" s="102" t="s">
+    <row r="410" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A410" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B276" s="102" t="s">
+      <c r="B410" s="102" t="s">
         <v>477</v>
       </c>
-      <c r="C276" s="81" t="s">
+      <c r="C410" s="81" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="277" spans="1:12" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="103" t="s">
+    <row r="411" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A411" s="103" t="s">
         <v>479</v>
       </c>
-      <c r="B277" s="102" t="s">
+      <c r="B411" s="102" t="s">
         <v>480</v>
       </c>
-      <c r="C277" s="81"/>
-      <c r="J277" s="103" t="s">
+      <c r="C411" s="81"/>
+      <c r="J411" s="103" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="278" spans="1:12" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="103" t="s">
+    <row r="412" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A412" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="B278" s="104" t="s">
+      <c r="B412" s="104" t="s">
         <v>482</v>
       </c>
-      <c r="C278" s="81"/>
-      <c r="L278" s="48" t="s">
+      <c r="C412" s="81"/>
+      <c r="L412" s="48" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="279" spans="1:12" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A279" s="103" t="s">
+    <row r="413" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A413" s="103" t="s">
         <v>484</v>
       </c>
-      <c r="B279" s="104" t="s">
+      <c r="B413" s="104" t="s">
         <v>485</v>
       </c>
-      <c r="C279" s="81" t="s">
+      <c r="C413" s="81" t="s">
         <v>486</v>
       </c>
-      <c r="E279" s="32"/>
-      <c r="G279" s="52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="103" t="s">
+      <c r="E413" s="32"/>
+      <c r="G413" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A414" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B280" s="104" t="s">
+      <c r="B414" s="104" t="s">
         <v>487</v>
       </c>
-      <c r="C280" s="104" t="s">
+      <c r="C414" s="104" t="s">
         <v>488</v>
       </c>
-      <c r="E280" s="50" t="s">
+      <c r="E414" s="50" t="s">
         <v>489</v>
       </c>
-      <c r="F280" s="32"/>
-      <c r="G280" s="52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="102" t="s">
+      <c r="F414" s="32"/>
+      <c r="G414" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A415" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="B281" s="102" t="s">
+      <c r="B415" s="102" t="s">
         <v>490</v>
       </c>
-      <c r="C281" s="81" t="s">
+      <c r="C415" s="81" t="s">
         <v>491</v>
       </c>
-      <c r="D281" s="48" t="s">
+      <c r="D415" s="48" t="s">
         <v>492</v>
       </c>
-      <c r="E281" s="32"/>
-    </row>
-    <row r="282" spans="1:12" s="48" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A282" s="102" t="s">
+      <c r="E415" s="32"/>
+    </row>
+    <row r="416" spans="1:14" s="48" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+      <c r="A416" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B282" s="50" t="s">
+      <c r="B416" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="C282" s="105" t="s">
+      <c r="C416" s="105" t="s">
         <v>494</v>
       </c>
-      <c r="D282" s="81" t="s">
+      <c r="D416" s="81" t="s">
         <v>659</v>
       </c>
-      <c r="E282" s="32"/>
-      <c r="G282" s="52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A283" s="102" t="s">
+      <c r="E416" s="32"/>
+      <c r="G416" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A417" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B283" s="50" t="s">
+      <c r="B417" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="C283" s="105" t="s">
+      <c r="C417" s="105" t="s">
         <v>496</v>
       </c>
-      <c r="D283" s="81" t="s">
+      <c r="D417" s="81" t="s">
         <v>660</v>
       </c>
-      <c r="E283" s="32"/>
-      <c r="G283" s="52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" s="48" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A284" s="102" t="s">
+      <c r="E417" s="32"/>
+      <c r="G417" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" s="48" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A418" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B284" s="102" t="s">
+      <c r="B418" s="102" t="s">
         <v>497</v>
       </c>
-      <c r="C284" s="102" t="s">
+      <c r="C418" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="D284" s="81" t="s">
+      <c r="D418" s="81" t="s">
         <v>661</v>
       </c>
-      <c r="E284" s="32"/>
-      <c r="F284" s="106"/>
-      <c r="G284" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J284" s="102"/>
-    </row>
-    <row r="285" spans="1:12" s="48" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A285" s="102" t="s">
+      <c r="E418" s="32"/>
+      <c r="F418" s="106"/>
+      <c r="G418" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J418" s="102"/>
+    </row>
+    <row r="419" spans="1:10" s="48" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A419" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B285" s="102" t="s">
+      <c r="B419" s="102" t="s">
         <v>499</v>
       </c>
-      <c r="C285" s="102" t="s">
+      <c r="C419" s="102" t="s">
         <v>500</v>
       </c>
-      <c r="D285" s="81" t="s">
+      <c r="D419" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="E285" s="32"/>
-      <c r="F285" s="102"/>
-      <c r="G285" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J285" s="106"/>
-    </row>
-    <row r="286" spans="1:12" s="48" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A286" s="102" t="s">
+      <c r="E419" s="32"/>
+      <c r="F419" s="102"/>
+      <c r="G419" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J419" s="106"/>
+    </row>
+    <row r="420" spans="1:10" s="48" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+      <c r="A420" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B286" s="102" t="s">
+      <c r="B420" s="102" t="s">
         <v>502</v>
       </c>
-      <c r="C286" s="102" t="s">
+      <c r="C420" s="102" t="s">
         <v>503</v>
       </c>
-      <c r="D286" s="81" t="s">
+      <c r="D420" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="E286" s="32"/>
-      <c r="F286" s="102"/>
-      <c r="G286" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J286" s="106"/>
-    </row>
-    <row r="287" spans="1:12" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="102" t="s">
+      <c r="E420" s="32"/>
+      <c r="F420" s="102"/>
+      <c r="G420" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J420" s="106"/>
+    </row>
+    <row r="421" spans="1:10" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A421" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B287" s="50" t="s">
+      <c r="B421" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="C287" s="102" t="s">
+      <c r="C421" s="102" t="s">
         <v>506</v>
       </c>
-      <c r="D287" s="81" t="s">
+      <c r="D421" s="81" t="s">
         <v>662</v>
       </c>
-      <c r="E287" s="32"/>
-      <c r="G287" s="52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" s="48" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A288" s="102" t="s">
+      <c r="E421" s="32"/>
+      <c r="G421" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" s="48" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A422" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B288" s="50" t="s">
+      <c r="B422" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="C288" s="102" t="s">
+      <c r="C422" s="102" t="s">
         <v>508</v>
       </c>
-      <c r="D288" s="81" t="s">
+      <c r="D422" s="81" t="s">
         <v>509</v>
       </c>
-      <c r="E288" s="32"/>
-      <c r="F288" s="106"/>
-      <c r="G288" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J288" s="102"/>
-    </row>
-    <row r="289" spans="1:10" s="48" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A289" s="102" t="s">
+      <c r="E422" s="32"/>
+      <c r="F422" s="106"/>
+      <c r="G422" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J422" s="102"/>
+    </row>
+    <row r="423" spans="1:10" s="48" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A423" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B289" s="50" t="s">
+      <c r="B423" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="C289" s="106" t="s">
+      <c r="C423" s="106" t="s">
         <v>511</v>
       </c>
-      <c r="D289" s="81" t="s">
+      <c r="D423" s="81" t="s">
         <v>663</v>
       </c>
-      <c r="E289" s="32"/>
-      <c r="F289" s="102"/>
-      <c r="G289" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J289" s="106"/>
-    </row>
-    <row r="290" spans="1:10" s="48" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A290" s="102" t="s">
+      <c r="E423" s="32"/>
+      <c r="F423" s="102"/>
+      <c r="G423" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J423" s="106"/>
+    </row>
+    <row r="424" spans="1:10" s="48" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A424" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B290" s="50" t="s">
+      <c r="B424" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="C290" s="102" t="s">
+      <c r="C424" s="102" t="s">
         <v>513</v>
       </c>
-      <c r="D290" s="81" t="s">
+      <c r="D424" s="81" t="s">
         <v>514</v>
       </c>
-      <c r="E290" s="32"/>
-      <c r="F290" s="102"/>
-      <c r="G290" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J290" s="106"/>
-    </row>
-    <row r="291" spans="1:10" s="48" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A291" s="102" t="s">
+      <c r="E424" s="32"/>
+      <c r="F424" s="102"/>
+      <c r="G424" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J424" s="106"/>
+    </row>
+    <row r="425" spans="1:10" s="48" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A425" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B291" s="50" t="s">
+      <c r="B425" s="50" t="s">
         <v>515</v>
       </c>
-      <c r="C291" s="106" t="s">
+      <c r="C425" s="106" t="s">
         <v>516</v>
       </c>
-      <c r="D291" s="81" t="s">
+      <c r="D425" s="81" t="s">
         <v>664</v>
       </c>
-      <c r="E291" s="32"/>
-      <c r="G291" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J291" s="88"/>
-    </row>
-    <row r="292" spans="1:10" s="48" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A292" s="102" t="s">
+      <c r="E425" s="32"/>
+      <c r="G425" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J425" s="88"/>
+    </row>
+    <row r="426" spans="1:10" s="48" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A426" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B292" s="50" t="s">
+      <c r="B426" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="C292" s="106" t="s">
+      <c r="C426" s="106" t="s">
         <v>518</v>
       </c>
-      <c r="D292" s="81" t="s">
+      <c r="D426" s="81" t="s">
         <v>665</v>
       </c>
-      <c r="E292" s="32"/>
-      <c r="G292" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J292" s="88"/>
-    </row>
-    <row r="293" spans="1:10" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A293" s="102" t="s">
+      <c r="E426" s="32"/>
+      <c r="G426" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J426" s="88"/>
+    </row>
+    <row r="427" spans="1:10" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A427" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B293" s="50" t="s">
+      <c r="B427" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="C293" s="102" t="s">
+      <c r="C427" s="102" t="s">
         <v>520</v>
       </c>
-      <c r="D293" s="81" t="s">
+      <c r="D427" s="81" t="s">
         <v>521</v>
       </c>
-      <c r="E293" s="32"/>
-      <c r="G293" s="52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A294" s="102" t="s">
+      <c r="E427" s="32"/>
+      <c r="G427" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A428" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B294" s="50" t="s">
+      <c r="B428" s="50" t="s">
         <v>522</v>
       </c>
-      <c r="C294" s="102" t="s">
+      <c r="C428" s="102" t="s">
         <v>523</v>
       </c>
-      <c r="D294" s="48" t="s">
+      <c r="D428" s="48" t="s">
         <v>524</v>
       </c>
-      <c r="E294" s="32"/>
-      <c r="G294" s="52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" s="48" customFormat="1" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A295" s="102" t="s">
+      <c r="E428" s="32"/>
+      <c r="G428" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" s="48" customFormat="1" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A429" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B295" s="50" t="s">
+      <c r="B429" s="50" t="s">
         <v>525</v>
       </c>
-      <c r="C295" s="102" t="s">
+      <c r="C429" s="102" t="s">
         <v>526</v>
       </c>
-      <c r="D295" s="81" t="s">
+      <c r="D429" s="81" t="s">
         <v>527</v>
       </c>
-      <c r="E295" s="32"/>
-      <c r="G295" s="52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" s="48" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A296" s="102" t="s">
+      <c r="E429" s="32"/>
+      <c r="G429" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" s="48" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A430" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B296" s="102" t="s">
+      <c r="B430" s="102" t="s">
         <v>528</v>
       </c>
-      <c r="C296" s="102" t="s">
+      <c r="C430" s="102" t="s">
         <v>529</v>
       </c>
-      <c r="D296" s="81" t="s">
+      <c r="D430" s="81" t="s">
         <v>530</v>
       </c>
-      <c r="E296" s="32"/>
-      <c r="F296" s="106"/>
-      <c r="G296" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J296" s="102"/>
-    </row>
-    <row r="297" spans="1:10" s="48" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="102" t="s">
+      <c r="E430" s="32"/>
+      <c r="F430" s="106"/>
+      <c r="G430" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J430" s="102"/>
+    </row>
+    <row r="431" spans="1:10" s="48" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A431" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B297" s="102" t="s">
+      <c r="B431" s="102" t="s">
         <v>531</v>
       </c>
-      <c r="C297" s="102" t="s">
+      <c r="C431" s="102" t="s">
         <v>532</v>
       </c>
-      <c r="D297" s="81" t="s">
+      <c r="D431" s="81" t="s">
         <v>533</v>
       </c>
-      <c r="E297" s="32"/>
-      <c r="F297" s="102"/>
-      <c r="G297" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J297" s="106"/>
-    </row>
-    <row r="298" spans="1:10" s="48" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A298" s="102" t="s">
+      <c r="E431" s="32"/>
+      <c r="F431" s="102"/>
+      <c r="G431" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J431" s="106"/>
+    </row>
+    <row r="432" spans="1:10" s="48" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A432" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B298" s="102" t="s">
+      <c r="B432" s="102" t="s">
         <v>534</v>
       </c>
-      <c r="C298" s="102" t="s">
+      <c r="C432" s="102" t="s">
         <v>535</v>
       </c>
-      <c r="D298" s="81" t="s">
+      <c r="D432" s="81" t="s">
         <v>536</v>
       </c>
-      <c r="E298" s="32"/>
-      <c r="F298" s="102"/>
-      <c r="G298" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J298" s="106"/>
-    </row>
-    <row r="299" spans="1:10" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A299" s="102" t="s">
+      <c r="E432" s="32"/>
+      <c r="F432" s="102"/>
+      <c r="G432" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J432" s="106"/>
+    </row>
+    <row r="433" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="B299" s="102" t="s">
+      <c r="B433" s="102" t="s">
         <v>537</v>
       </c>
-      <c r="C299" s="102" t="s">
+      <c r="C433" s="102" t="s">
         <v>538</v>
       </c>
-      <c r="E299" s="32"/>
-      <c r="F299" s="106"/>
-      <c r="G299" s="52" t="s">
+      <c r="E433" s="32"/>
+      <c r="F433" s="106"/>
+      <c r="G433" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="J299" s="102"/>
-    </row>
-    <row r="300" spans="1:10" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A300" s="102" t="s">
+      <c r="J433" s="102"/>
+    </row>
+    <row r="434" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A434" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B300" s="102" t="s">
+      <c r="B434" s="102" t="s">
         <v>539</v>
       </c>
-      <c r="C300" s="102" t="s">
+      <c r="C434" s="102" t="s">
         <v>540</v>
       </c>
-      <c r="E300" s="32"/>
-      <c r="F300" s="106"/>
-      <c r="G300" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J300" s="106"/>
-    </row>
-    <row r="301" spans="1:10" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A301" s="102" t="s">
+      <c r="E434" s="32"/>
+      <c r="F434" s="106"/>
+      <c r="G434" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J434" s="106"/>
+    </row>
+    <row r="435" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A435" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B301" s="48" t="s">
+      <c r="B435" s="48" t="s">
         <v>541</v>
       </c>
-      <c r="C301" s="102" t="s">
+      <c r="C435" s="102" t="s">
         <v>542</v>
       </c>
-      <c r="E301" s="32"/>
-      <c r="F301" s="88"/>
-      <c r="G301" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J301" s="88"/>
-    </row>
-    <row r="302" spans="1:10" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A302" s="102" t="s">
+      <c r="E435" s="32"/>
+      <c r="F435" s="88"/>
+      <c r="G435" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J435" s="88"/>
+    </row>
+    <row r="436" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A436" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B302" s="48" t="s">
+      <c r="B436" s="48" t="s">
         <v>543</v>
       </c>
-      <c r="C302" s="102" t="s">
+      <c r="C436" s="102" t="s">
         <v>544</v>
       </c>
-      <c r="E302" s="32"/>
-      <c r="G302" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J302" s="88"/>
-    </row>
-    <row r="303" spans="1:10" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A303" s="102" t="s">
+      <c r="E436" s="32"/>
+      <c r="G436" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J436" s="88"/>
+    </row>
+    <row r="437" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A437" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B303" s="48" t="s">
+      <c r="B437" s="48" t="s">
         <v>545</v>
       </c>
-      <c r="C303" s="102" t="s">
+      <c r="C437" s="102" t="s">
         <v>546</v>
       </c>
-      <c r="E303" s="32"/>
-      <c r="G303" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J303" s="88"/>
-    </row>
-    <row r="304" spans="1:10" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A304" s="102" t="s">
+      <c r="E437" s="32"/>
+      <c r="G437" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J437" s="88"/>
+    </row>
+    <row r="438" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A438" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B304" s="48" t="s">
+      <c r="B438" s="48" t="s">
         <v>547</v>
       </c>
-      <c r="C304" s="102" t="s">
+      <c r="C438" s="102" t="s">
         <v>548</v>
       </c>
-      <c r="E304" s="32"/>
-      <c r="F304" s="88"/>
-      <c r="G304" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J304" s="88"/>
-    </row>
-    <row r="305" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" s="102" t="s">
+      <c r="E438" s="32"/>
+      <c r="F438" s="88"/>
+      <c r="G438" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J438" s="88"/>
+    </row>
+    <row r="439" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A439" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B305" s="48" t="s">
+      <c r="B439" s="48" t="s">
         <v>549</v>
       </c>
-      <c r="C305" s="102" t="s">
+      <c r="C439" s="102" t="s">
         <v>550</v>
       </c>
-      <c r="E305" s="32"/>
-      <c r="G305" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J305" s="88"/>
-    </row>
-    <row r="306" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A306" s="107" t="s">
+      <c r="E439" s="32"/>
+      <c r="G439" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J439" s="88"/>
+    </row>
+    <row r="440" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A440" s="107" t="s">
         <v>465</v>
       </c>
-      <c r="C306" s="102"/>
-      <c r="J306" s="88"/>
-    </row>
-    <row r="307" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A307" s="103" t="s">
+      <c r="C440" s="102"/>
+      <c r="J440" s="88"/>
+    </row>
+    <row r="441" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A441" s="103" t="s">
         <v>551</v>
       </c>
-      <c r="C307" s="102"/>
-      <c r="F307" s="88"/>
-      <c r="J307" s="88"/>
-    </row>
-    <row r="308" spans="1:16" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A308" s="99" t="s">
+      <c r="C441" s="102"/>
+      <c r="F441" s="88"/>
+      <c r="J441" s="88"/>
+    </row>
+    <row r="442" spans="1:16" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A442" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="B308" s="99" t="s">
+      <c r="B442" s="99" t="s">
         <v>618</v>
       </c>
-      <c r="C308" s="100" t="s">
+      <c r="C442" s="100" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A309" s="32" t="s">
+    <row r="443" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A443" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B309" s="32" t="s">
+      <c r="B443" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="C309" s="32" t="s">
+      <c r="C443" s="32" t="s">
         <v>640</v>
       </c>
-      <c r="G309" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J309" s="32" t="s">
+      <c r="G443" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J443" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="32" t="s">
+    <row r="444" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A444" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="B310" s="32" t="s">
+      <c r="B444" s="32" t="s">
         <v>552</v>
       </c>
-      <c r="J310" s="32" t="s">
+      <c r="J444" s="32" t="s">
         <v>642</v>
       </c>
-      <c r="L310" s="32" t="s">
+      <c r="L444" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="P310" s="32" t="s">
+      <c r="P444" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A311" s="32" t="s">
+    <row r="445" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A445" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B311" s="32" t="s">
+      <c r="B445" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="L311" s="32" t="s">
+      <c r="L445" s="32" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A312" s="32" t="s">
+    <row r="446" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A446" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="B312" s="32" t="s">
+      <c r="B446" s="32" t="s">
         <v>554</v>
       </c>
-      <c r="C312" s="32" t="s">
+      <c r="C446" s="32" t="s">
         <v>555</v>
       </c>
-      <c r="G312" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="313" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="32" t="s">
+      <c r="G446" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A447" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B313" s="32" t="s">
+      <c r="B447" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="C313" s="32" t="s">
+      <c r="C447" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="G313" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A314" s="32" t="s">
+      <c r="G447" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A448" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B314" s="32" t="s">
+      <c r="B448" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="C314" s="32" t="s">
+      <c r="C448" s="32" t="s">
         <v>559</v>
       </c>
-      <c r="D314" s="32" t="s">
+      <c r="D448" s="32" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A315" s="32" t="s">
+    <row r="449" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A449" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B315" s="32" t="s">
+      <c r="B449" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="C315" s="32" t="s">
+      <c r="C449" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="E315" s="32" t="s">
+      <c r="E449" s="32" t="s">
         <v>563</v>
       </c>
-      <c r="F315" s="32" t="s">
+      <c r="F449" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="G315" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H315" s="32" t="s">
+      <c r="G449" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H449" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A316" s="32" t="s">
+    <row r="450" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A450" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B316" s="32" t="s">
+      <c r="B450" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="C316" s="32" t="s">
+      <c r="C450" s="32" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A317" s="32" t="s">
+    <row r="451" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B317" s="32" t="s">
+      <c r="B451" s="32" t="s">
         <v>568</v>
       </c>
-      <c r="C317" s="32" t="s">
+      <c r="C451" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="G317" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="318" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A318" s="32" t="s">
+      <c r="G451" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A452" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B318" s="32" t="s">
+      <c r="B452" s="32" t="s">
         <v>570</v>
       </c>
-      <c r="C318" s="32" t="s">
+      <c r="C452" s="32" t="s">
         <v>571</v>
       </c>
-      <c r="G318" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H318" s="32" t="s">
+      <c r="G452" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H452" s="32" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="32" t="s">
+    <row r="453" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A453" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B319" s="32" t="s">
+      <c r="B453" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="C319" s="32" t="s">
+      <c r="C453" s="32" t="s">
         <v>573</v>
       </c>
-      <c r="G319" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="320" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="32" t="s">
+      <c r="G453" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A454" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B320" s="32" t="s">
+      <c r="B454" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="C320" s="32" t="s">
+      <c r="C454" s="32" t="s">
         <v>575</v>
       </c>
-      <c r="G320" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A321" s="32" t="s">
+      <c r="G454" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A455" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B321" s="32" t="s">
+      <c r="B455" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="C321" s="32" t="s">
+      <c r="C455" s="32" t="s">
         <v>577</v>
       </c>
-      <c r="G321" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A322" s="32" t="s">
+      <c r="G455" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A456" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B322" s="32" t="s">
+      <c r="B456" s="32" t="s">
         <v>578</v>
       </c>
-      <c r="C322" s="32" t="s">
+      <c r="C456" s="32" t="s">
         <v>579</v>
       </c>
-      <c r="G322" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="32" t="s">
+      <c r="G456" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A457" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A324" s="32" t="s">
+    <row r="458" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A458" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B324" s="32" t="s">
+      <c r="B458" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="C324" s="32" t="s">
+      <c r="C458" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="D324" s="32" t="s">
+      <c r="D458" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="F324" s="32" t="s">
+      <c r="F458" s="32" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A325" s="32" t="s">
+    <row r="459" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A459" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B325" s="32" t="s">
+      <c r="B459" s="32" t="s">
         <v>583</v>
       </c>
-      <c r="C325" s="32" t="s">
+      <c r="C459" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="D325" s="32" t="s">
+      <c r="D459" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G325" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="32" t="s">
+      <c r="G459" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A460" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B326" s="32" t="s">
+      <c r="B460" s="32" t="s">
         <v>586</v>
       </c>
-      <c r="C326" s="32" t="s">
+      <c r="C460" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="D326" s="32" t="s">
+      <c r="D460" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G326" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A327" s="32" t="s">
+      <c r="G460" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A461" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B327" s="32" t="s">
+      <c r="B461" s="32" t="s">
         <v>588</v>
       </c>
-      <c r="C327" s="32" t="s">
+      <c r="C461" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="D327" s="32" t="s">
+      <c r="D461" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G327" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A328" s="32" t="s">
+      <c r="G461" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A462" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B328" s="32" t="s">
+      <c r="B462" s="32" t="s">
         <v>590</v>
       </c>
-      <c r="C328" s="32" t="s">
+      <c r="C462" s="32" t="s">
         <v>591</v>
       </c>
-      <c r="D328" s="32" t="s">
+      <c r="D462" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G328" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A329" s="32" t="s">
+      <c r="G462" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A463" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B329" s="32" t="s">
+      <c r="B463" s="32" t="s">
         <v>592</v>
       </c>
-      <c r="C329" s="32" t="s">
+      <c r="C463" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="D329" s="32" t="s">
+      <c r="D463" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G329" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A330" s="32" t="s">
+      <c r="G463" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A464" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B330" s="32" t="s">
+      <c r="B464" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="C330" s="32" t="s">
+      <c r="C464" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="D330" s="32" t="s">
+      <c r="D464" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G330" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A331" s="32" t="s">
+      <c r="G464" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A465" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B331" s="32" t="s">
+      <c r="B465" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="C331" s="32" t="s">
+      <c r="C465" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="D331" s="32" t="s">
+      <c r="D465" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G331" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="32" t="s">
+      <c r="G465" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A466" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B332" s="32" t="s">
+      <c r="B466" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="C332" s="32" t="s">
+      <c r="C466" s="32" t="s">
         <v>599</v>
       </c>
-      <c r="D332" s="32" t="s">
+      <c r="D466" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G332" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="32" t="s">
+      <c r="G466" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A467" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B333" s="32" t="s">
+      <c r="B467" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="C333" s="32" t="s">
+      <c r="C467" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="D333" s="32" t="s">
+      <c r="D467" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G333" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A334" s="32" t="s">
+      <c r="G467" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A468" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B334" s="32" t="s">
+      <c r="B468" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="C334" s="32" t="s">
+      <c r="C468" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="D334" s="32" t="s">
+      <c r="D468" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G334" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A335" s="32" t="s">
+      <c r="G468" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A469" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B335" s="32" t="s">
+      <c r="B469" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="C469" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="D335" s="32" t="s">
+      <c r="D469" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G335" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A336" s="32" t="s">
+      <c r="G469" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A470" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B336" s="32" t="s">
+      <c r="B470" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="C470" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="D336" s="32" t="s">
+      <c r="D470" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G336" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A337" s="32" t="s">
+      <c r="G470" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A471" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B337" s="32" t="s">
+      <c r="B471" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="C471" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="D337" s="32" t="s">
+      <c r="D471" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G337" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A338" s="32" t="s">
+      <c r="G471" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A472" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B338" s="32" t="s">
+      <c r="B472" s="32" t="s">
         <v>610</v>
       </c>
-      <c r="C338" s="32" t="s">
+      <c r="C472" s="32" t="s">
         <v>611</v>
       </c>
-      <c r="D338" s="32" t="s">
+      <c r="D472" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G338" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A339" s="32" t="s">
+      <c r="G472" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A473" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B339" s="32" t="s">
+      <c r="B473" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="C339" s="32" t="s">
+      <c r="C473" s="32" t="s">
         <v>613</v>
       </c>
-      <c r="D339" s="32" t="s">
+      <c r="D473" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G339" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A340" s="32" t="s">
+      <c r="G473" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A474" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B340" s="32" t="s">
+      <c r="B474" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="C340" s="32" t="s">
+      <c r="C474" s="32" t="s">
         <v>615</v>
       </c>
-      <c r="D340" s="32" t="s">
+      <c r="D474" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="G340" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A341" s="32" t="s">
+      <c r="G474" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A475" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B341" s="32" t="s">
+      <c r="B475" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="C341" s="32" t="s">
+      <c r="C475" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="G341" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A342" s="32" t="s">
+      <c r="G475" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A476" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A343" s="32" t="s">
+    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A477" s="32" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A344" s="32" t="s">
+    <row r="478" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A478" s="32" t="s">
         <v>465</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{7628E898-5CA1-4554-AD54-5C79B5B36A2A}"/>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B291">
+  <conditionalFormatting sqref="B425">
     <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B283">
+  <conditionalFormatting sqref="B417">
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B292">
+  <conditionalFormatting sqref="B426">
     <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B294">
+  <conditionalFormatting sqref="B428">
     <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B293">
+  <conditionalFormatting sqref="B427">
     <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B295">
+  <conditionalFormatting sqref="B429">
     <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B288">
+  <conditionalFormatting sqref="B422">
     <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B290">
+  <conditionalFormatting sqref="B424">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B289">
+  <conditionalFormatting sqref="B423">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B282">
+  <conditionalFormatting sqref="B416">
     <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B287">
+  <conditionalFormatting sqref="B421">
     <cfRule type="duplicateValues" dxfId="1" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12467,12 +16797,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12693,15 +17020,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12726,18 +17065,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/questionnaires/RBDstandardized_questionnaire_all_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_all_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF18073F-9B79-4964-920A-6964F31E9C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAF24E6-94E5-491C-B641-5B6219534629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="1224">
   <si>
     <t>type</t>
   </si>
@@ -4433,12 +4433,438 @@
   <si>
     <t>list</t>
   </si>
+  <si>
+    <t>sexe</t>
+  </si>
+  <si>
+    <t>datedernierdistribution</t>
+  </si>
+  <si>
+    <t>Moins d’une semaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entre 1 et 3 semaines  </t>
+  </si>
+  <si>
+    <t>plus de 3 semaines</t>
+  </si>
+  <si>
+    <t>Transfertssociaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. Distribution gratuite de vivres </t>
+  </si>
+  <si>
+    <t>c. Distribution gratuite d’argent</t>
+  </si>
+  <si>
+    <t>d. Vivre contre travail/ Food for asset</t>
+  </si>
+  <si>
+    <t>e. Argent contre travail/ Cash for asset</t>
+  </si>
+  <si>
+    <t>f. Don/zakat</t>
+  </si>
+  <si>
+    <t>l. Intrants agricoles (engrais, semences…)</t>
+  </si>
+  <si>
+    <t>n. Cantine scolaire pour les enfants</t>
+  </si>
+  <si>
+    <t>typeAssusrance</t>
+  </si>
+  <si>
+    <t>aucune</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bétail </t>
+  </si>
+  <si>
+    <t>Santé</t>
+  </si>
+  <si>
+    <t>Refus</t>
+  </si>
+  <si>
+    <t>GraviteImpact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas d'impact ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Légère diminution ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forte diminution ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pire que jamais ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne sait pas ; </t>
+  </si>
+  <si>
+    <t>Refus.</t>
+  </si>
+  <si>
+    <t>CapaciteFaireFaceChocs</t>
+  </si>
+  <si>
+    <t>La capacité à satisfaire les besoins alimentaires est pire qu'avant le choc.</t>
+  </si>
+  <si>
+    <t>La capacité à satisfaire les besoins alimentaires est la même qu'avant le choc.</t>
+  </si>
+  <si>
+    <t>La capacité à satisfaire les besoins alimentaires est meilleure qu'avant le choc.</t>
+  </si>
+  <si>
+    <t>Socialressources</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>Les personnes non apparentées de mon groupe ethnique/clan</t>
+  </si>
+  <si>
+    <t>Non parents dans un autre groupe ethnique/clan</t>
+  </si>
+  <si>
+    <t>Personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne sait pas </t>
+  </si>
+  <si>
+    <t>Refuse de répondre</t>
+  </si>
+  <si>
+    <t>evolRessourcSociales</t>
+  </si>
+  <si>
+    <t>Augmenté</t>
+  </si>
+  <si>
+    <t>Est resté le même</t>
+  </si>
+  <si>
+    <t>A diminué</t>
+  </si>
+  <si>
+    <t>MembAyantConnuMembGvrmt</t>
+  </si>
+  <si>
+    <t>Un membre de la famille ou un parent</t>
+  </si>
+  <si>
+    <t>Ami(e)</t>
+  </si>
+  <si>
+    <t>Voisin</t>
+  </si>
+  <si>
+    <t>Connaissance (membre d'un groupe, ami d'un ami, etc.)</t>
+  </si>
+  <si>
+    <t>Refuse de répondre.</t>
+  </si>
+  <si>
+    <t>typedeGroupe</t>
+  </si>
+  <si>
+    <t>Groupe d'usagers de l'eau</t>
+  </si>
+  <si>
+    <t>Groupe d'utilisateurs des pâturages</t>
+  </si>
+  <si>
+    <t>Groupe de ressources naturelles communautaires</t>
+  </si>
+  <si>
+    <t>Groupe de crédit ou de microfinance</t>
+  </si>
+  <si>
+    <t>Groupe d'épargne</t>
+  </si>
+  <si>
+    <t>Groupe d'entraide</t>
+  </si>
+  <si>
+    <t>Groupe religieux ;</t>
+  </si>
+  <si>
+    <t>Groupe de mères ;</t>
+  </si>
+  <si>
+    <t>Groupement de femmes</t>
+  </si>
+  <si>
+    <t>Groupe de jeunes</t>
+  </si>
+  <si>
+    <t>Groupe sportif</t>
+  </si>
+  <si>
+    <t>Groupe de planification en cas de catastrophe ;</t>
+  </si>
+  <si>
+    <t>FrequenceAssistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucun, personne n'a eu besoin d'aide ou n'en a demandé. </t>
+  </si>
+  <si>
+    <t>Aucun, je ne faisais pas partie d'un groupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une ou deux fois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 à 5 fois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 fois ou plus ; </t>
+  </si>
+  <si>
+    <t>capaciteinterplearder</t>
+  </si>
+  <si>
+    <t>Très facile</t>
+  </si>
+  <si>
+    <t>Facile</t>
+  </si>
+  <si>
+    <t>Difficile</t>
+  </si>
+  <si>
+    <t>Très difficile</t>
+  </si>
+  <si>
+    <t>priseEncompteQuestions</t>
+  </si>
+  <si>
+    <t>Beacuoup</t>
+  </si>
+  <si>
+    <t>Quelques fois</t>
+  </si>
+  <si>
+    <t>Peu</t>
+  </si>
+  <si>
+    <t>appreciationSERS</t>
+  </si>
+  <si>
+    <t>Tout à fait d'accord,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D'accord, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni d'accord ni pas d'accord </t>
+  </si>
+  <si>
+    <t>Pas d'accord,</t>
+  </si>
+  <si>
+    <t>Pas du tout d'accord</t>
+  </si>
+  <si>
+    <t>bonnespratiques</t>
+  </si>
+  <si>
+    <t>Fosses compostières</t>
+  </si>
+  <si>
+    <t>foyers améliorés</t>
+  </si>
+  <si>
+    <t>Embouche</t>
+  </si>
+  <si>
+    <t>Micro-jardins</t>
+  </si>
+  <si>
+    <t>Améliorations des pratique WASH</t>
+  </si>
+  <si>
+    <t>Améliorer la Nutrition l’utilisation des produits locaux</t>
+  </si>
+  <si>
+    <t>Conservation et la transformation des aliments</t>
+  </si>
+  <si>
+    <t>rapportTranshAgri</t>
+  </si>
+  <si>
+    <t>Très négatif, hostile</t>
+  </si>
+  <si>
+    <t>Insatisfait, désagréable</t>
+  </si>
+  <si>
+    <t>Ni positif ni négatif</t>
+  </si>
+  <si>
+    <t>Poli ou courtois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amical et égalitaire </t>
+  </si>
+  <si>
+    <t>raisonmigration</t>
+  </si>
+  <si>
+    <t>Recherche d’opportunités économiques </t>
+  </si>
+  <si>
+    <t>Catastrophes naturelles (par ex., inondations, sécheresse, etc.)</t>
+  </si>
+  <si>
+    <t>Accès aux services de base (santé, éducation…)</t>
+  </si>
+  <si>
+    <t>Difficultés alimentaires conjoncturelles</t>
+  </si>
+  <si>
+    <t>Uniquement en année de crise alimentaire</t>
+  </si>
+  <si>
+    <t>La migration fait désormais partie des moyens d’existence classique</t>
+  </si>
+  <si>
+    <t>Guerre/conflit</t>
+  </si>
+  <si>
+    <t>Violence ciblée ou persécution</t>
+  </si>
+  <si>
+    <t>Autres à préciser |________________|</t>
+  </si>
+  <si>
+    <t>raisonEconomiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affaires (marché, vente/achat) </t>
+  </si>
+  <si>
+    <t>Déplacements quotidiens/hebdomadaires pour le travail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité agricole et pastorale (transhumance, migration saisonnière) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche d'opportunités d'emploi à l'étranger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">raisonAccesServices </t>
+  </si>
+  <si>
+    <t>Accès à la nourriture, à l'eau</t>
+  </si>
+  <si>
+    <t>L'accès aux services de base (éducation primaire, soins de santé primaires)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accès aux services humanitaires </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enseignement supérieur (lycée et niveaux supérieurs) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santé (soins médicaux spécialisés) </t>
+  </si>
+  <si>
+    <t>destinationmigration</t>
+  </si>
+  <si>
+    <t>Ville/Capitale</t>
+  </si>
+  <si>
+    <t>Un autre pays d’Afrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hors Afrique                   </t>
+  </si>
+  <si>
+    <t>dureemigrationexode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mois d’un mois </t>
+  </si>
+  <si>
+    <t>1 à 3 mois</t>
+  </si>
+  <si>
+    <t>3 à 6 mois</t>
+  </si>
+  <si>
+    <t>6 à 9 mois</t>
+  </si>
+  <si>
+    <t>10 à 12 mois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus de 12 mois. </t>
+  </si>
+  <si>
+    <t>tendancemigraExode</t>
+  </si>
+  <si>
+    <t>Beaucoup augmenté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Légèrement augmenté </t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaucoup baissé </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Légèrement baissé </t>
+  </si>
+  <si>
+    <t>raisonhausseMig</t>
+  </si>
+  <si>
+    <t>Manque d’opportunités économiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La migration fait désormais partie des moyens d’existence classique </t>
+  </si>
+  <si>
+    <t>raisonbaisseMig</t>
+  </si>
+  <si>
+    <t>Emergence d’opportunités économiques grâce aux actifs créés/réhabilités</t>
+  </si>
+  <si>
+    <t>Yesnoautre</t>
+  </si>
+  <si>
+    <t>Oui, PAM</t>
+  </si>
+  <si>
+    <t>Oui, Autre</t>
+  </si>
+  <si>
+    <t>Ne Sait Pas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4636,6 +5062,40 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4472C4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -4721,7 +5181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4809,6 +5269,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4819,7 +5320,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5189,6 +5690,45 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -5696,7 +6236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P478"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A408" sqref="A408:XFD435"/>
@@ -14925,10 +15465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2096"/>
+  <dimension ref="A1:D2083"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A60:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15539,849 +16079,1859 @@
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="149" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="149" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="149"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="150" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" s="151" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" s="151" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67" s="151"/>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="152" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="153" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" s="153" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" s="153" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" s="153" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" s="153" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74" s="153" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75" s="153" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76" s="153" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77" s="153" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B78">
+        <v>11</v>
+      </c>
+      <c r="C78" s="153" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79" s="153" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B80">
+        <v>13</v>
+      </c>
+      <c r="C80" s="153" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B81">
+        <v>14</v>
+      </c>
+      <c r="C81" s="154" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82" s="155"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>474</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B83">
         <v>0</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C83" s="151" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>474</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B84" s="156">
         <v>1</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C84" s="151" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85" s="156"/>
+      <c r="C85" s="151"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86" s="151"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>467</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B87">
         <v>0</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C87" s="151" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>467</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B88" s="156">
         <v>1</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C88" s="151" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>467</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B89">
         <v>888</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C89" s="151" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90" s="151"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91" s="151"/>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>471</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B92" s="156">
         <v>0</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C92" s="151" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>471</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B93">
         <v>1</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C93" s="151" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>471</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B94">
         <v>888</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C94" s="151" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>471</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B95">
         <v>8888</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C95" s="151" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="4"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="4"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="4"/>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="4"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="4"/>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="4"/>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="4"/>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="4"/>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="4"/>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="4"/>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="4"/>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="4"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="4"/>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="4"/>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="4"/>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="4"/>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="4"/>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="4"/>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="4"/>
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="4"/>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="4"/>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="4"/>
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="4"/>
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="4"/>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="4"/>
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="4"/>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="4"/>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="4"/>
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="4"/>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="4"/>
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="4"/>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="4"/>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="4"/>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="4"/>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="4"/>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="4"/>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="4"/>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="4"/>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="4"/>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="4"/>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="4"/>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="4"/>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="4"/>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="4"/>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="4"/>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="4"/>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="4"/>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="4"/>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="4"/>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="4"/>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="4"/>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="4"/>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="4"/>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="4"/>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="4"/>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="4"/>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="4"/>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="4"/>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="4"/>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="4"/>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="4"/>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="4"/>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="4"/>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="4"/>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="4"/>
-      <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="4"/>
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="4"/>
-      <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="4"/>
-      <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="4"/>
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="4"/>
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="4"/>
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="4"/>
-      <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="4"/>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="4"/>
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="4"/>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="4"/>
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="4"/>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="4"/>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="4"/>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="4"/>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="4"/>
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="4"/>
-      <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="4"/>
-      <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="4"/>
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="4"/>
-      <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="4"/>
-      <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="4"/>
-      <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="4"/>
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="4"/>
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="4"/>
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="4"/>
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="4"/>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="4"/>
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="4"/>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="4"/>
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="4"/>
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="4"/>
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="4"/>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="4"/>
-      <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="4"/>
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="4"/>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="4"/>
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="4"/>
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="4"/>
-      <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="4"/>
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="4"/>
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="4"/>
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="4"/>
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="4"/>
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="4"/>
-      <c r="C212" s="1"/>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="4"/>
-      <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="4"/>
-      <c r="C214" s="1"/>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="4"/>
-      <c r="C215" s="1"/>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="4"/>
-      <c r="C216" s="1"/>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="4"/>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="4"/>
-      <c r="C218" s="1"/>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="4"/>
-      <c r="C219" s="1"/>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="4"/>
-      <c r="C220" s="1"/>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="4"/>
-      <c r="C221" s="1"/>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="4"/>
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="4"/>
-      <c r="C223" s="1"/>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="4"/>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="4"/>
-      <c r="C225" s="1"/>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="4"/>
-      <c r="C226" s="1"/>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="4"/>
-      <c r="C227" s="1"/>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="4"/>
-      <c r="C228" s="1"/>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="4"/>
-      <c r="C229" s="1"/>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="4"/>
-      <c r="C230" s="1"/>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="4"/>
-      <c r="C231" s="1"/>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="4"/>
-      <c r="C232" s="1"/>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="4"/>
-      <c r="C233" s="1"/>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="4"/>
-      <c r="C234" s="1"/>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="4"/>
-      <c r="C235" s="1"/>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="4"/>
-      <c r="C236" s="1"/>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="4"/>
-      <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="4"/>
-      <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="4"/>
-      <c r="C239" s="1"/>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="4"/>
-      <c r="C240" s="1"/>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="4"/>
-      <c r="C241" s="1"/>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="4"/>
-      <c r="C242" s="1"/>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="4"/>
-      <c r="C243" s="1"/>
-    </row>
-    <row r="244" spans="2:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="4"/>
-      <c r="C244" s="1"/>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="4"/>
-      <c r="C245" s="1"/>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96" s="151"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97" s="151"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98" s="151"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" s="151" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B100" s="157">
+        <v>1</v>
+      </c>
+      <c r="C100" s="151" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" s="151" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" s="151" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103" s="158" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104" s="151" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105" s="151"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106" s="151"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="159" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" s="159" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" s="159" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" s="159" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B111">
+        <v>888</v>
+      </c>
+      <c r="C111" s="159" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B112">
+        <v>8888</v>
+      </c>
+      <c r="C112" s="160" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113" s="151"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114" s="151"/>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" s="161" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" s="161" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117" s="158" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118" s="151"/>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="162" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" s="162" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" s="162" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" s="162" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B123">
+        <v>888</v>
+      </c>
+      <c r="C123" s="163" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B124">
+        <v>8888</v>
+      </c>
+      <c r="C124" s="163" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125" s="151"/>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="161" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" s="161" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128" s="161" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B129">
+        <v>888</v>
+      </c>
+      <c r="C129" s="161" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B130">
+        <v>8888</v>
+      </c>
+      <c r="C130" s="158" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131" s="151"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132" s="151"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133" s="151"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" s="161" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135" s="161" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136" s="161" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" s="161" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B138">
+        <v>888</v>
+      </c>
+      <c r="C138" s="158" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B139">
+        <v>8888</v>
+      </c>
+      <c r="C139" s="151" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140" s="151"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="151" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142" s="151" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143" s="151" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" s="151" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145" s="151" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146" s="151" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" s="151" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B148">
+        <v>8</v>
+      </c>
+      <c r="C148" s="151" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B149">
+        <v>9</v>
+      </c>
+      <c r="C149" s="151" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150" s="151" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B151">
+        <v>11</v>
+      </c>
+      <c r="C151" s="151" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B152">
+        <v>12</v>
+      </c>
+      <c r="C152" s="151" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153" s="151"/>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" s="161" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" s="161" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156" s="161" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157" s="161" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158" s="161" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B159">
+        <v>888</v>
+      </c>
+      <c r="C159" s="161" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B160">
+        <v>8888</v>
+      </c>
+      <c r="C160" s="158" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161" s="151"/>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" s="158" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163" s="158" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164" s="158" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165" s="158" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166" s="151"/>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" s="158" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168" s="158" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169" s="158" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170" s="151"/>
+    </row>
+    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" s="158" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" s="151" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173" s="151" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174" s="151" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175" s="151" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176" s="151"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177" s="151"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B183">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B184">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185" s="151"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" s="151" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" s="151" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188" s="151" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189" s="151" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190" s="151" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191"/>
+      <c r="B191"/>
+      <c r="C191" s="151"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192"/>
+      <c r="B192"/>
+      <c r="C192" s="151"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B198">
+        <v>6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B199">
+        <v>7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B200">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B201">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202"/>
+      <c r="B202"/>
+      <c r="C202" s="151"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" s="142" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204" s="142" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205" s="142" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206" s="142" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207"/>
+      <c r="B207"/>
+      <c r="C207" s="151"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" s="142" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209" s="142" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" s="142" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211" s="142" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212" s="142" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213"/>
+      <c r="B213"/>
+      <c r="C213" s="151"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" s="142" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215" s="142" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216" s="164" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217"/>
+      <c r="B217"/>
+      <c r="C217" s="151"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" s="142" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219" s="142" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220" s="142" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221" s="142" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222" s="142" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B223">
+        <v>6</v>
+      </c>
+      <c r="C223" s="142" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224"/>
+      <c r="B224"/>
+      <c r="C224" s="151"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" s="142" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="C226" s="142" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227" s="142" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+      <c r="C228" s="142" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B229">
+        <v>5</v>
+      </c>
+      <c r="C229" s="142" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B230">
+        <v>6</v>
+      </c>
+      <c r="C230" s="142" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231"/>
+      <c r="B231"/>
+      <c r="C231" s="151"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" s="142" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233" s="142" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234" s="142" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235" s="142" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236"/>
+      <c r="B236"/>
+      <c r="C236" s="151"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" s="165" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238" s="165" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239" s="165" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240" s="165" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B241">
+        <v>5</v>
+      </c>
+      <c r="C241" s="165" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242"/>
+      <c r="B242"/>
+      <c r="C242" s="151"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" s="151" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244" s="151" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245" s="151" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B246" s="4"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B247" s="4"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B248" s="4"/>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B249" s="4"/>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B250" s="4"/>
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B251" s="4"/>
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B252" s="4"/>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B253" s="4"/>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B254" s="4"/>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B255" s="4"/>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B256" s="4"/>
       <c r="C256" s="1"/>
     </row>
@@ -16541,7 +18091,7 @@
       <c r="B295" s="4"/>
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="4"/>
       <c r="C296" s="1"/>
     </row>
@@ -16559,73 +18109,60 @@
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="4"/>
-      <c r="C300" s="1"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="4"/>
-      <c r="C301" s="1"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="4"/>
-      <c r="C302" s="1"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="4"/>
-      <c r="C303" s="1"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="4"/>
-      <c r="C304" s="1"/>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" s="4"/>
-      <c r="C305" s="1"/>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B306" s="4"/>
-      <c r="C306" s="1"/>
-    </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B307" s="4"/>
-      <c r="C307" s="1"/>
-    </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B308" s="4"/>
-      <c r="C308" s="1"/>
-    </row>
-    <row r="309" spans="2:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="4"/>
-      <c r="C309" s="1"/>
-    </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B310" s="4"/>
-      <c r="C310" s="1"/>
-    </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B311" s="4"/>
-      <c r="C311" s="1"/>
-    </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B312" s="4"/>
-      <c r="C312" s="1"/>
-    </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B313" s="4"/>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B314" s="4"/>
-    </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B315" s="4"/>
-    </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B316" s="4"/>
-    </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B317" s="4"/>
-    </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B318" s="4"/>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B482" s="16"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B483" s="16"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B484" s="16"/>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B485" s="16"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B486" s="16"/>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B487" s="16"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B488" s="16"/>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B489" s="16"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B490" s="16"/>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B491" s="16"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B492" s="16"/>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B493" s="16"/>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B494" s="17"/>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B495" s="16"/>
@@ -16664,77 +18201,38 @@
       <c r="B506" s="16"/>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B507" s="17"/>
+      <c r="B507" s="16"/>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B508" s="16"/>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B509" s="16"/>
-    </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B510" s="16"/>
-    </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B511" s="16"/>
-    </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B512" s="16"/>
-    </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B513" s="16"/>
-    </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B514" s="16"/>
-    </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B515" s="16"/>
-    </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B516" s="16"/>
-    </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B517" s="16"/>
-    </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B518" s="16"/>
-    </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B519" s="16"/>
-    </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B520" s="16"/>
-    </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B521" s="16"/>
-    </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B522" s="7"/>
-    </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B544" s="8"/>
-    </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B545" s="8"/>
-    </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B865" s="18"/>
-    </row>
-    <row r="1040" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1040" s="18"/>
-    </row>
-    <row r="1156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1156" s="18"/>
-    </row>
-    <row r="1174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1174" s="18"/>
-    </row>
-    <row r="2096" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2096" s="18"/>
+      <c r="B509" s="7"/>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B531" s="8"/>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B532" s="8"/>
+    </row>
+    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B852" s="18"/>
+    </row>
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1027" s="18"/>
+    </row>
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1143" s="18"/>
+    </row>
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1161" s="18"/>
+    </row>
+    <row r="2083" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2083" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B313:B2192">
+  <conditionalFormatting sqref="B300:B2179">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16797,9 +18295,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17020,27 +18521,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17065,9 +18554,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/questionnaires/RBDstandardized_questionnaire_all_FR.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_all_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAF24E6-94E5-491C-B641-5B6219534629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF0BB56-18B0-4356-9BFD-0B324CC982D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -6236,13 +6236,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P478"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A408" sqref="A408:XFD435"/>
+      <selection pane="bottomLeft" activeCell="A412" sqref="A412:XFD412"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="32" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="32" customWidth="1"/>
@@ -6257,7 +6257,7 @@
     <col min="12" max="16384" width="24.5703125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="31" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>22</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>31</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>32</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>25</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>35</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>72</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>14</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>31</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>77</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>78</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>44</v>
       </c>
@@ -6528,10 +6528,10 @@
       </c>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:10" s="42" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>124</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>72</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>14</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>14</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>14</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>14</v>
       </c>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="J22" s="43"/>
     </row>
-    <row r="23" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>14</v>
       </c>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="J23" s="45"/>
     </row>
-    <row r="24" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>14</v>
       </c>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="J24" s="43"/>
     </row>
-    <row r="25" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>14</v>
       </c>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="J25" s="43"/>
     </row>
-    <row r="26" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>465</v>
       </c>
@@ -6675,7 +6675,7 @@
       <c r="E26" s="45"/>
       <c r="J26" s="43"/>
     </row>
-    <row r="27" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>72</v>
       </c>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="J27" s="43"/>
     </row>
-    <row r="28" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>14</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>14</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>14</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>14</v>
       </c>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="J31" s="45"/>
     </row>
-    <row r="32" spans="1:10" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>14</v>
       </c>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="J32" s="43"/>
     </row>
-    <row r="33" spans="1:12" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>14</v>
       </c>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="J33" s="43"/>
     </row>
-    <row r="34" spans="1:12" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>14</v>
       </c>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="J34" s="43"/>
     </row>
-    <row r="35" spans="1:12" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>465</v>
       </c>
@@ -6806,7 +6806,7 @@
       <c r="E35" s="45"/>
       <c r="J35" s="43"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>108</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>108</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>124</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
     </row>
-    <row r="39" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55" t="s">
         <v>14</v>
       </c>
@@ -6876,7 +6876,7 @@
       <c r="I39" s="57"/>
       <c r="J39" s="57"/>
     </row>
-    <row r="40" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55" t="s">
         <v>130</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55" t="s">
         <v>14</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="I41" s="57"/>
       <c r="J41" s="57"/>
     </row>
-    <row r="42" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55" t="s">
         <v>130</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>14</v>
       </c>
@@ -6968,7 +6968,7 @@
       <c r="I43" s="60"/>
       <c r="J43" s="60"/>
     </row>
-    <row r="44" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>130</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>14</v>
       </c>
@@ -7014,7 +7014,7 @@
       <c r="I45" s="49"/>
       <c r="J45" s="49"/>
     </row>
-    <row r="46" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>130</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>14</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>14</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>14</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>14</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="55" t="s">
         <v>14</v>
       </c>
@@ -7164,7 +7164,7 @@
       <c r="I51" s="49"/>
       <c r="J51" s="49"/>
     </row>
-    <row r="52" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>130</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>14</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>14</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>14</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
     </row>
-    <row r="56" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
         <v>130</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>14</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55" t="s">
         <v>14</v>
       </c>
@@ -7334,7 +7334,7 @@
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
     </row>
-    <row r="59" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="55" t="s">
         <v>130</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
         <v>14</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
     </row>
-    <row r="61" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55" t="s">
         <v>130</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="55" t="s">
         <v>14</v>
       </c>
@@ -7426,7 +7426,7 @@
       <c r="I62" s="49"/>
       <c r="J62" s="49"/>
     </row>
-    <row r="63" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="55" t="s">
         <v>130</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="64" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="62" t="s">
         <v>124</v>
       </c>
@@ -7462,7 +7462,7 @@
       <c r="M64" s="65"/>
       <c r="N64" s="65"/>
     </row>
-    <row r="65" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="66" t="s">
         <v>35</v>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="M65" s="49"/>
       <c r="N65" s="49"/>
     </row>
-    <row r="66" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
         <v>72</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
         <v>14</v>
       </c>
@@ -7521,7 +7521,7 @@
       <c r="M67" s="49"/>
       <c r="N67" s="49"/>
     </row>
-    <row r="68" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49" t="s">
         <v>14</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="M68" s="49"/>
       <c r="N68" s="49"/>
     </row>
-    <row r="69" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49" t="s">
         <v>14</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="M69" s="49"/>
       <c r="N69" s="49"/>
     </row>
-    <row r="70" spans="1:14" s="48" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
         <v>14</v>
       </c>
@@ -7579,7 +7579,7 @@
       <c r="M70" s="49"/>
       <c r="N70" s="49"/>
     </row>
-    <row r="71" spans="1:14" s="48" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
         <v>465</v>
       </c>
@@ -7591,7 +7591,7 @@
       <c r="M71" s="49"/>
       <c r="N71" s="49"/>
     </row>
-    <row r="72" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
         <v>35</v>
       </c>
@@ -7615,7 +7615,7 @@
       <c r="M72" s="49"/>
       <c r="N72" s="49"/>
     </row>
-    <row r="73" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="70" t="s">
         <v>72</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
         <v>14</v>
       </c>
@@ -7650,7 +7650,7 @@
       <c r="M74" s="49"/>
       <c r="N74" s="49"/>
     </row>
-    <row r="75" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
         <v>14</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="M75" s="49"/>
       <c r="N75" s="49"/>
     </row>
-    <row r="76" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
         <v>14</v>
       </c>
@@ -7689,7 +7689,7 @@
       <c r="M76" s="49"/>
       <c r="N76" s="49"/>
     </row>
-    <row r="77" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
         <v>14</v>
       </c>
@@ -7707,12 +7707,12 @@
       <c r="M77" s="49"/>
       <c r="N77" s="49"/>
     </row>
-    <row r="78" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="66" t="s">
         <v>35</v>
       </c>
@@ -7736,7 +7736,7 @@
       <c r="M79" s="49"/>
       <c r="N79" s="49"/>
     </row>
-    <row r="80" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="70" t="s">
         <v>72</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
         <v>14</v>
       </c>
@@ -7771,7 +7771,7 @@
       <c r="M81" s="49"/>
       <c r="N81" s="49"/>
     </row>
-    <row r="82" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
         <v>14</v>
       </c>
@@ -7792,7 +7792,7 @@
       <c r="M82" s="49"/>
       <c r="N82" s="49"/>
     </row>
-    <row r="83" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
         <v>14</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="M83" s="49"/>
       <c r="N83" s="49"/>
     </row>
-    <row r="84" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49" t="s">
         <v>14</v>
       </c>
@@ -7828,7 +7828,7 @@
       <c r="M84" s="49"/>
       <c r="N84" s="49"/>
     </row>
-    <row r="85" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49" t="s">
         <v>465</v>
       </c>
@@ -7839,7 +7839,7 @@
       <c r="M85" s="49"/>
       <c r="N85" s="49"/>
     </row>
-    <row r="86" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="66" t="s">
         <v>35</v>
       </c>
@@ -7863,7 +7863,7 @@
       <c r="M86" s="49"/>
       <c r="N86" s="49"/>
     </row>
-    <row r="87" spans="1:14" s="42" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="70" t="s">
         <v>72</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49" t="s">
         <v>14</v>
       </c>
@@ -7898,7 +7898,7 @@
       <c r="M88" s="49"/>
       <c r="N88" s="49"/>
     </row>
-    <row r="89" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="49" t="s">
         <v>14</v>
       </c>
@@ -7919,7 +7919,7 @@
       <c r="M89" s="49"/>
       <c r="N89" s="49"/>
     </row>
-    <row r="90" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49" t="s">
         <v>14</v>
       </c>
@@ -7937,7 +7937,7 @@
       <c r="M90" s="49"/>
       <c r="N90" s="49"/>
     </row>
-    <row r="91" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49" t="s">
         <v>14</v>
       </c>
@@ -7955,7 +7955,7 @@
       <c r="M91" s="49"/>
       <c r="N91" s="49"/>
     </row>
-    <row r="92" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
         <v>465</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="M92" s="49"/>
       <c r="N92" s="49"/>
     </row>
-    <row r="93" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="66" t="s">
         <v>35</v>
       </c>
@@ -7990,7 +7990,7 @@
       <c r="M93" s="49"/>
       <c r="N93" s="49"/>
     </row>
-    <row r="94" spans="1:14" s="42" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="70" t="s">
         <v>72</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="49" t="s">
         <v>14</v>
       </c>
@@ -8025,7 +8025,7 @@
       <c r="M95" s="49"/>
       <c r="N95" s="49"/>
     </row>
-    <row r="96" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49" t="s">
         <v>14</v>
       </c>
@@ -8046,7 +8046,7 @@
       <c r="M96" s="49"/>
       <c r="N96" s="49"/>
     </row>
-    <row r="97" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="49" t="s">
         <v>14</v>
       </c>
@@ -8064,7 +8064,7 @@
       <c r="M97" s="49"/>
       <c r="N97" s="49"/>
     </row>
-    <row r="98" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
         <v>14</v>
       </c>
@@ -8082,7 +8082,7 @@
       <c r="M98" s="49"/>
       <c r="N98" s="49"/>
     </row>
-    <row r="99" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="49" t="s">
         <v>465</v>
       </c>
@@ -8093,7 +8093,7 @@
       <c r="M99" s="49"/>
       <c r="N99" s="49"/>
     </row>
-    <row r="100" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="66" t="s">
         <v>35</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="M100" s="49"/>
       <c r="N100" s="49"/>
     </row>
-    <row r="101" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="70" t="s">
         <v>72</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49" t="s">
         <v>14</v>
       </c>
@@ -8152,7 +8152,7 @@
       <c r="M102" s="49"/>
       <c r="N102" s="49"/>
     </row>
-    <row r="103" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="49" t="s">
         <v>14</v>
       </c>
@@ -8173,7 +8173,7 @@
       <c r="M103" s="49"/>
       <c r="N103" s="49"/>
     </row>
-    <row r="104" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49" t="s">
         <v>14</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="M104" s="49"/>
       <c r="N104" s="49"/>
     </row>
-    <row r="105" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
         <v>14</v>
       </c>
@@ -8209,7 +8209,7 @@
       <c r="M105" s="49"/>
       <c r="N105" s="49"/>
     </row>
-    <row r="106" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="49" t="s">
         <v>465</v>
       </c>
@@ -8220,7 +8220,7 @@
       <c r="M106" s="49"/>
       <c r="N106" s="49"/>
     </row>
-    <row r="107" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="66" t="s">
         <v>35</v>
       </c>
@@ -8244,7 +8244,7 @@
       <c r="M107" s="49"/>
       <c r="N107" s="49"/>
     </row>
-    <row r="108" spans="1:14" s="42" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="70" t="s">
         <v>72</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="49" t="s">
         <v>14</v>
       </c>
@@ -8279,7 +8279,7 @@
       <c r="M109" s="49"/>
       <c r="N109" s="49"/>
     </row>
-    <row r="110" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="49" t="s">
         <v>14</v>
       </c>
@@ -8300,7 +8300,7 @@
       <c r="M110" s="49"/>
       <c r="N110" s="49"/>
     </row>
-    <row r="111" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="49" t="s">
         <v>14</v>
       </c>
@@ -8318,7 +8318,7 @@
       <c r="M111" s="49"/>
       <c r="N111" s="49"/>
     </row>
-    <row r="112" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="49" t="s">
         <v>14</v>
       </c>
@@ -8336,7 +8336,7 @@
       <c r="M112" s="49"/>
       <c r="N112" s="49"/>
     </row>
-    <row r="113" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="49" t="s">
         <v>465</v>
       </c>
@@ -8347,7 +8347,7 @@
       <c r="M113" s="49"/>
       <c r="N113" s="49"/>
     </row>
-    <row r="114" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="66" t="s">
         <v>35</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="M114" s="49"/>
       <c r="N114" s="49"/>
     </row>
-    <row r="115" spans="1:14" s="42" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="70" t="s">
         <v>72</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="49" t="s">
         <v>14</v>
       </c>
@@ -8406,7 +8406,7 @@
       <c r="M116" s="49"/>
       <c r="N116" s="49"/>
     </row>
-    <row r="117" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="49" t="s">
         <v>14</v>
       </c>
@@ -8427,7 +8427,7 @@
       <c r="M117" s="49"/>
       <c r="N117" s="49"/>
     </row>
-    <row r="118" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="49" t="s">
         <v>14</v>
       </c>
@@ -8445,7 +8445,7 @@
       <c r="M118" s="49"/>
       <c r="N118" s="49"/>
     </row>
-    <row r="119" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="49" t="s">
         <v>14</v>
       </c>
@@ -8463,7 +8463,7 @@
       <c r="M119" s="49"/>
       <c r="N119" s="49"/>
     </row>
-    <row r="120" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="49" t="s">
         <v>465</v>
       </c>
@@ -8474,7 +8474,7 @@
       <c r="M120" s="49"/>
       <c r="N120" s="49"/>
     </row>
-    <row r="121" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="66" t="s">
         <v>35</v>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="M121" s="49"/>
       <c r="N121" s="49"/>
     </row>
-    <row r="122" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="70" t="s">
         <v>72</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="49" t="s">
         <v>14</v>
       </c>
@@ -8533,7 +8533,7 @@
       <c r="M123" s="49"/>
       <c r="N123" s="49"/>
     </row>
-    <row r="124" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="49" t="s">
         <v>14</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="M124" s="49"/>
       <c r="N124" s="49"/>
     </row>
-    <row r="125" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="49" t="s">
         <v>14</v>
       </c>
@@ -8572,7 +8572,7 @@
       <c r="M125" s="49"/>
       <c r="N125" s="49"/>
     </row>
-    <row r="126" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="49" t="s">
         <v>14</v>
       </c>
@@ -8590,7 +8590,7 @@
       <c r="M126" s="49"/>
       <c r="N126" s="49"/>
     </row>
-    <row r="127" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="49" t="s">
         <v>465</v>
       </c>
@@ -8601,7 +8601,7 @@
       <c r="M127" s="49"/>
       <c r="N127" s="49"/>
     </row>
-    <row r="128" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="66" t="s">
         <v>35</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="M128" s="49"/>
       <c r="N128" s="49"/>
     </row>
-    <row r="129" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="70" t="s">
         <v>72</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="49" t="s">
         <v>14</v>
       </c>
@@ -8660,7 +8660,7 @@
       <c r="M130" s="49"/>
       <c r="N130" s="49"/>
     </row>
-    <row r="131" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="49" t="s">
         <v>14</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="M131" s="49"/>
       <c r="N131" s="49"/>
     </row>
-    <row r="132" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="49" t="s">
         <v>14</v>
       </c>
@@ -8699,7 +8699,7 @@
       <c r="M132" s="49"/>
       <c r="N132" s="49"/>
     </row>
-    <row r="133" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="49" t="s">
         <v>14</v>
       </c>
@@ -8717,7 +8717,7 @@
       <c r="M133" s="49"/>
       <c r="N133" s="49"/>
     </row>
-    <row r="134" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="49" t="s">
         <v>465</v>
       </c>
@@ -8728,7 +8728,7 @@
       <c r="M134" s="49"/>
       <c r="N134" s="49"/>
     </row>
-    <row r="135" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="66" t="s">
         <v>35</v>
       </c>
@@ -8752,7 +8752,7 @@
       <c r="M135" s="49"/>
       <c r="N135" s="49"/>
     </row>
-    <row r="136" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="70" t="s">
         <v>72</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="49" t="s">
         <v>14</v>
       </c>
@@ -8787,7 +8787,7 @@
       <c r="M137" s="49"/>
       <c r="N137" s="49"/>
     </row>
-    <row r="138" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="49" t="s">
         <v>14</v>
       </c>
@@ -8808,7 +8808,7 @@
       <c r="M138" s="49"/>
       <c r="N138" s="49"/>
     </row>
-    <row r="139" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="49" t="s">
         <v>14</v>
       </c>
@@ -8826,7 +8826,7 @@
       <c r="M139" s="49"/>
       <c r="N139" s="49"/>
     </row>
-    <row r="140" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="49" t="s">
         <v>14</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="M140" s="49"/>
       <c r="N140" s="49"/>
     </row>
-    <row r="141" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="49" t="s">
         <v>465</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="M141" s="49"/>
       <c r="N141" s="49"/>
     </row>
-    <row r="142" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="66" t="s">
         <v>35</v>
       </c>
@@ -8879,7 +8879,7 @@
       <c r="M142" s="49"/>
       <c r="N142" s="49"/>
     </row>
-    <row r="143" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="70" t="s">
         <v>72</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="49" t="s">
         <v>14</v>
       </c>
@@ -8914,7 +8914,7 @@
       <c r="M144" s="49"/>
       <c r="N144" s="49"/>
     </row>
-    <row r="145" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="49" t="s">
         <v>14</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="M145" s="49"/>
       <c r="N145" s="49"/>
     </row>
-    <row r="146" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="49" t="s">
         <v>14</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="M146" s="49"/>
       <c r="N146" s="49"/>
     </row>
-    <row r="147" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="49" t="s">
         <v>14</v>
       </c>
@@ -8971,7 +8971,7 @@
       <c r="M147" s="49"/>
       <c r="N147" s="49"/>
     </row>
-    <row r="148" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="49" t="s">
         <v>465</v>
       </c>
@@ -8982,7 +8982,7 @@
       <c r="M148" s="49"/>
       <c r="N148" s="49"/>
     </row>
-    <row r="149" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="66" t="s">
         <v>35</v>
       </c>
@@ -9006,7 +9006,7 @@
       <c r="M149" s="49"/>
       <c r="N149" s="49"/>
     </row>
-    <row r="150" spans="1:14" s="42" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="70" t="s">
         <v>72</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="49" t="s">
         <v>14</v>
       </c>
@@ -9041,7 +9041,7 @@
       <c r="M151" s="49"/>
       <c r="N151" s="49"/>
     </row>
-    <row r="152" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49" t="s">
         <v>14</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="M152" s="49"/>
       <c r="N152" s="49"/>
     </row>
-    <row r="153" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="49" t="s">
         <v>14</v>
       </c>
@@ -9080,7 +9080,7 @@
       <c r="M153" s="49"/>
       <c r="N153" s="49"/>
     </row>
-    <row r="154" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="49" t="s">
         <v>14</v>
       </c>
@@ -9098,7 +9098,7 @@
       <c r="M154" s="49"/>
       <c r="N154" s="49"/>
     </row>
-    <row r="155" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49" t="s">
         <v>465</v>
       </c>
@@ -9109,7 +9109,7 @@
       <c r="M155" s="49"/>
       <c r="N155" s="49"/>
     </row>
-    <row r="156" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="66" t="s">
         <v>35</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="M156" s="49"/>
       <c r="N156" s="49"/>
     </row>
-    <row r="157" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="70" t="s">
         <v>72</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="49" t="s">
         <v>14</v>
       </c>
@@ -9168,7 +9168,7 @@
       <c r="M158" s="49"/>
       <c r="N158" s="49"/>
     </row>
-    <row r="159" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="49" t="s">
         <v>14</v>
       </c>
@@ -9189,7 +9189,7 @@
       <c r="M159" s="49"/>
       <c r="N159" s="49"/>
     </row>
-    <row r="160" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="49" t="s">
         <v>14</v>
       </c>
@@ -9207,7 +9207,7 @@
       <c r="M160" s="49"/>
       <c r="N160" s="49"/>
     </row>
-    <row r="161" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="49" t="s">
         <v>14</v>
       </c>
@@ -9225,7 +9225,7 @@
       <c r="M161" s="49"/>
       <c r="N161" s="49"/>
     </row>
-    <row r="162" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="49" t="s">
         <v>465</v>
       </c>
@@ -9236,7 +9236,7 @@
       <c r="M162" s="49"/>
       <c r="N162" s="49"/>
     </row>
-    <row r="163" spans="1:14" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" s="64" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="62" t="s">
         <v>124</v>
       </c>
@@ -9251,7 +9251,7 @@
       <c r="M163" s="65"/>
       <c r="N163" s="65"/>
     </row>
-    <row r="164" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="79" t="s">
         <v>35</v>
       </c>
@@ -9275,7 +9275,7 @@
       <c r="M164" s="49"/>
       <c r="N164" s="49"/>
     </row>
-    <row r="165" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="80" t="s">
         <v>72</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="49" t="s">
         <v>14</v>
       </c>
@@ -9310,7 +9310,7 @@
       <c r="M166" s="49"/>
       <c r="N166" s="49"/>
     </row>
-    <row r="167" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="49" t="s">
         <v>14</v>
       </c>
@@ -9331,7 +9331,7 @@
       <c r="M167" s="49"/>
       <c r="N167" s="49"/>
     </row>
-    <row r="168" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="49" t="s">
         <v>14</v>
       </c>
@@ -9349,12 +9349,12 @@
       <c r="M168" s="49"/>
       <c r="N168" s="49"/>
     </row>
-    <row r="169" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="170" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="79" t="s">
         <v>35</v>
       </c>
@@ -9378,7 +9378,7 @@
       <c r="M170" s="49"/>
       <c r="N170" s="49"/>
     </row>
-    <row r="171" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="80" t="s">
         <v>72</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="49" t="s">
         <v>14</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="M172" s="49"/>
       <c r="N172" s="49"/>
     </row>
-    <row r="173" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="49" t="s">
         <v>14</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="M173" s="49"/>
       <c r="N173" s="49"/>
     </row>
-    <row r="174" spans="1:14" s="48" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="49" t="s">
         <v>14</v>
       </c>
@@ -9452,12 +9452,12 @@
       <c r="M174" s="49"/>
       <c r="N174" s="49"/>
     </row>
-    <row r="175" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="176" spans="1:14" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="79" t="s">
         <v>35</v>
       </c>
@@ -9481,7 +9481,7 @@
       <c r="M176" s="49"/>
       <c r="N176" s="49"/>
     </row>
-    <row r="177" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="80" t="s">
         <v>72</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="178" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="49" t="s">
         <v>14</v>
       </c>
@@ -9516,7 +9516,7 @@
       <c r="M178" s="49"/>
       <c r="N178" s="49"/>
     </row>
-    <row r="179" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="49" t="s">
         <v>14</v>
       </c>
@@ -9537,7 +9537,7 @@
       <c r="M179" s="49"/>
       <c r="N179" s="49"/>
     </row>
-    <row r="180" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="49" t="s">
         <v>14</v>
       </c>
@@ -9555,12 +9555,12 @@
       <c r="M180" s="49"/>
       <c r="N180" s="49"/>
     </row>
-    <row r="181" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="182" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="79" t="s">
         <v>35</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="M182" s="49"/>
       <c r="N182" s="49"/>
     </row>
-    <row r="183" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="80" t="s">
         <v>72</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="184" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="49" t="s">
         <v>14</v>
       </c>
@@ -9619,7 +9619,7 @@
       <c r="M184" s="49"/>
       <c r="N184" s="49"/>
     </row>
-    <row r="185" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="49" t="s">
         <v>14</v>
       </c>
@@ -9640,7 +9640,7 @@
       <c r="M185" s="49"/>
       <c r="N185" s="49"/>
     </row>
-    <row r="186" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="49" t="s">
         <v>14</v>
       </c>
@@ -9658,12 +9658,12 @@
       <c r="M186" s="49"/>
       <c r="N186" s="49"/>
     </row>
-    <row r="187" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="188" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="79" t="s">
         <v>35</v>
       </c>
@@ -9687,7 +9687,7 @@
       <c r="M188" s="49"/>
       <c r="N188" s="49"/>
     </row>
-    <row r="189" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="80" t="s">
         <v>72</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="190" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="49" t="s">
         <v>14</v>
       </c>
@@ -9722,7 +9722,7 @@
       <c r="M190" s="49"/>
       <c r="N190" s="49"/>
     </row>
-    <row r="191" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="49" t="s">
         <v>14</v>
       </c>
@@ -9743,7 +9743,7 @@
       <c r="M191" s="49"/>
       <c r="N191" s="49"/>
     </row>
-    <row r="192" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="49" t="s">
         <v>14</v>
       </c>
@@ -9761,12 +9761,12 @@
       <c r="M192" s="49"/>
       <c r="N192" s="49"/>
     </row>
-    <row r="193" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="194" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="79" t="s">
         <v>35</v>
       </c>
@@ -9790,7 +9790,7 @@
       <c r="M194" s="49"/>
       <c r="N194" s="49"/>
     </row>
-    <row r="195" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="80" t="s">
         <v>72</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="196" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="49" t="s">
         <v>14</v>
       </c>
@@ -9825,7 +9825,7 @@
       <c r="M196" s="49"/>
       <c r="N196" s="49"/>
     </row>
-    <row r="197" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="49" t="s">
         <v>14</v>
       </c>
@@ -9846,7 +9846,7 @@
       <c r="M197" s="49"/>
       <c r="N197" s="49"/>
     </row>
-    <row r="198" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="49" t="s">
         <v>14</v>
       </c>
@@ -9864,12 +9864,12 @@
       <c r="M198" s="49"/>
       <c r="N198" s="49"/>
     </row>
-    <row r="199" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="200" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="79" t="s">
         <v>35</v>
       </c>
@@ -9893,7 +9893,7 @@
       <c r="M200" s="49"/>
       <c r="N200" s="49"/>
     </row>
-    <row r="201" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="80" t="s">
         <v>72</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="202" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="49" t="s">
         <v>14</v>
       </c>
@@ -9928,7 +9928,7 @@
       <c r="M202" s="49"/>
       <c r="N202" s="49"/>
     </row>
-    <row r="203" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="49" t="s">
         <v>14</v>
       </c>
@@ -9949,7 +9949,7 @@
       <c r="M203" s="49"/>
       <c r="N203" s="49"/>
     </row>
-    <row r="204" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="49" t="s">
         <v>14</v>
       </c>
@@ -9967,12 +9967,12 @@
       <c r="M204" s="49"/>
       <c r="N204" s="49"/>
     </row>
-    <row r="205" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="206" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="79" t="s">
         <v>35</v>
       </c>
@@ -9996,7 +9996,7 @@
       <c r="M206" s="49"/>
       <c r="N206" s="49"/>
     </row>
-    <row r="207" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="80" t="s">
         <v>72</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="208" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="49" t="s">
         <v>14</v>
       </c>
@@ -10031,7 +10031,7 @@
       <c r="M208" s="49"/>
       <c r="N208" s="49"/>
     </row>
-    <row r="209" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="49" t="s">
         <v>14</v>
       </c>
@@ -10052,7 +10052,7 @@
       <c r="M209" s="49"/>
       <c r="N209" s="49"/>
     </row>
-    <row r="210" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="49" t="s">
         <v>14</v>
       </c>
@@ -10070,12 +10070,12 @@
       <c r="M210" s="49"/>
       <c r="N210" s="49"/>
     </row>
-    <row r="211" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="212" spans="1:14" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" s="64" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="62" t="s">
         <v>124</v>
       </c>
@@ -10090,7 +10090,7 @@
       <c r="M212" s="65"/>
       <c r="N212" s="65"/>
     </row>
-    <row r="213" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>35</v>
       </c>
@@ -10114,7 +10114,7 @@
       <c r="M213" s="49"/>
       <c r="N213" s="49"/>
     </row>
-    <row r="214" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="80" t="s">
         <v>72</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="215" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="49" t="s">
         <v>14</v>
       </c>
@@ -10149,7 +10149,7 @@
       <c r="M215" s="49"/>
       <c r="N215" s="49"/>
     </row>
-    <row r="216" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="49" t="s">
         <v>14</v>
       </c>
@@ -10170,7 +10170,7 @@
       <c r="M216" s="49"/>
       <c r="N216" s="49"/>
     </row>
-    <row r="217" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="49" t="s">
         <v>14</v>
       </c>
@@ -10188,12 +10188,12 @@
       <c r="M217" s="49"/>
       <c r="N217" s="49"/>
     </row>
-    <row r="218" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="219" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="79" t="s">
         <v>35</v>
       </c>
@@ -10217,7 +10217,7 @@
       <c r="M219" s="49"/>
       <c r="N219" s="49"/>
     </row>
-    <row r="220" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="80" t="s">
         <v>72</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="221" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="49" t="s">
         <v>14</v>
       </c>
@@ -10252,7 +10252,7 @@
       <c r="M221" s="49"/>
       <c r="N221" s="49"/>
     </row>
-    <row r="222" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="49" t="s">
         <v>14</v>
       </c>
@@ -10273,7 +10273,7 @@
       <c r="M222" s="49"/>
       <c r="N222" s="49"/>
     </row>
-    <row r="223" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="49" t="s">
         <v>14</v>
       </c>
@@ -10291,12 +10291,12 @@
       <c r="M223" s="49"/>
       <c r="N223" s="49"/>
     </row>
-    <row r="224" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="79" t="s">
         <v>35</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="M225" s="49"/>
       <c r="N225" s="49"/>
     </row>
-    <row r="226" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="80" t="s">
         <v>72</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="227" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>14</v>
       </c>
@@ -10355,7 +10355,7 @@
       <c r="M227" s="49"/>
       <c r="N227" s="49"/>
     </row>
-    <row r="228" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="49" t="s">
         <v>14</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="M228" s="49"/>
       <c r="N228" s="49"/>
     </row>
-    <row r="229" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="49" t="s">
         <v>14</v>
       </c>
@@ -10394,12 +10394,12 @@
       <c r="M229" s="49"/>
       <c r="N229" s="49"/>
     </row>
-    <row r="230" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="79" t="s">
         <v>35</v>
       </c>
@@ -10423,7 +10423,7 @@
       <c r="M231" s="49"/>
       <c r="N231" s="49"/>
     </row>
-    <row r="232" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="80" t="s">
         <v>72</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="233" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="49" t="s">
         <v>14</v>
       </c>
@@ -10458,7 +10458,7 @@
       <c r="M233" s="49"/>
       <c r="N233" s="49"/>
     </row>
-    <row r="234" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="49" t="s">
         <v>14</v>
       </c>
@@ -10479,7 +10479,7 @@
       <c r="M234" s="49"/>
       <c r="N234" s="49"/>
     </row>
-    <row r="235" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="49" t="s">
         <v>14</v>
       </c>
@@ -10497,12 +10497,12 @@
       <c r="M235" s="49"/>
       <c r="N235" s="49"/>
     </row>
-    <row r="236" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="237" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="79" t="s">
         <v>35</v>
       </c>
@@ -10526,7 +10526,7 @@
       <c r="M237" s="49"/>
       <c r="N237" s="49"/>
     </row>
-    <row r="238" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="80" t="s">
         <v>72</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="239" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="49" t="s">
         <v>14</v>
       </c>
@@ -10561,7 +10561,7 @@
       <c r="M239" s="49"/>
       <c r="N239" s="49"/>
     </row>
-    <row r="240" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="49" t="s">
         <v>14</v>
       </c>
@@ -10582,7 +10582,7 @@
       <c r="M240" s="49"/>
       <c r="N240" s="49"/>
     </row>
-    <row r="241" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="49" t="s">
         <v>14</v>
       </c>
@@ -10600,12 +10600,12 @@
       <c r="M241" s="49"/>
       <c r="N241" s="49"/>
     </row>
-    <row r="242" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="243" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="79" t="s">
         <v>35</v>
       </c>
@@ -10629,7 +10629,7 @@
       <c r="M243" s="49"/>
       <c r="N243" s="49"/>
     </row>
-    <row r="244" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="80" t="s">
         <v>72</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="245" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="49" t="s">
         <v>14</v>
       </c>
@@ -10664,7 +10664,7 @@
       <c r="M245" s="49"/>
       <c r="N245" s="49"/>
     </row>
-    <row r="246" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="49" t="s">
         <v>14</v>
       </c>
@@ -10685,7 +10685,7 @@
       <c r="M246" s="49"/>
       <c r="N246" s="49"/>
     </row>
-    <row r="247" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="49" t="s">
         <v>14</v>
       </c>
@@ -10703,12 +10703,12 @@
       <c r="M247" s="49"/>
       <c r="N247" s="49"/>
     </row>
-    <row r="248" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="249" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="79" t="s">
         <v>35</v>
       </c>
@@ -10732,7 +10732,7 @@
       <c r="M249" s="49"/>
       <c r="N249" s="49"/>
     </row>
-    <row r="250" spans="1:14" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="80" t="s">
         <v>72</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="251" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="49" t="s">
         <v>14</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="M251" s="49"/>
       <c r="N251" s="49"/>
     </row>
-    <row r="252" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="49" t="s">
         <v>14</v>
       </c>
@@ -10788,7 +10788,7 @@
       <c r="M252" s="49"/>
       <c r="N252" s="49"/>
     </row>
-    <row r="253" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="49" t="s">
         <v>14</v>
       </c>
@@ -10806,12 +10806,12 @@
       <c r="M253" s="49"/>
       <c r="N253" s="49"/>
     </row>
-    <row r="254" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="255" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="49" t="s">
         <v>14</v>
       </c>
@@ -10835,7 +10835,7 @@
       <c r="M255" s="49"/>
       <c r="N255" s="49"/>
     </row>
-    <row r="256" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="49" t="s">
         <v>14</v>
       </c>
@@ -10859,7 +10859,7 @@
       <c r="M256" s="49"/>
       <c r="N256" s="49"/>
     </row>
-    <row r="257" spans="1:14" s="48" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="49" t="s">
         <v>14</v>
       </c>
@@ -10883,7 +10883,7 @@
       <c r="M257" s="49"/>
       <c r="N257" s="49"/>
     </row>
-    <row r="258" spans="1:14" s="38" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" s="38" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="64" t="s">
         <v>124</v>
       </c>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="J258" s="39"/>
     </row>
-    <row r="259" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="48" t="s">
         <v>14</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="48" t="s">
         <v>14</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="48" t="s">
         <v>14</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="48" t="s">
         <v>14</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="48" t="s">
         <v>14</v>
       </c>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="J263" s="9"/>
     </row>
-    <row r="264" spans="1:14" s="38" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" s="38" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="64" t="s">
         <v>452</v>
       </c>
@@ -11033,7 +11033,7 @@
       <c r="G264" s="64"/>
       <c r="H264" s="64"/>
     </row>
-    <row r="265" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="89" t="s">
         <v>454</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="89" t="s">
         <v>454</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="89" t="s">
         <v>454</v>
       </c>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="J267" s="9"/>
     </row>
-    <row r="268" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="89" t="s">
         <v>454</v>
       </c>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="J268" s="9"/>
     </row>
-    <row r="269" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="93" t="s">
         <v>454</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="93" t="s">
         <v>454</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="93" t="s">
         <v>454</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="96" t="s">
         <v>454</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="96" t="s">
         <v>454</v>
       </c>
@@ -11189,7 +11189,7 @@
       </c>
       <c r="J273" s="9"/>
     </row>
-    <row r="274" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="96" t="s">
         <v>454</v>
       </c>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="80"/>
       <c r="B275" s="9"/>
       <c r="C275" s="34"/>
@@ -11217,7 +11217,7 @@
       <c r="G275" s="108"/>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="109" t="s">
         <v>124</v>
       </c>
@@ -11233,7 +11233,7 @@
       <c r="G276" s="108"/>
       <c r="J276" s="9"/>
     </row>
-    <row r="277" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="111" t="s">
         <v>20</v>
       </c>
@@ -11255,7 +11255,7 @@
       <c r="M277" s="113"/>
       <c r="N277" s="113"/>
     </row>
-    <row r="278" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="113" t="s">
         <v>808</v>
       </c>
@@ -11277,7 +11277,7 @@
       <c r="M278" s="113"/>
       <c r="N278" s="113"/>
     </row>
-    <row r="279" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="114" t="s">
         <v>72</v>
       </c>
@@ -11301,7 +11301,7 @@
       <c r="M279" s="113"/>
       <c r="N279" s="113"/>
     </row>
-    <row r="280" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="113" t="s">
         <v>813</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="M280" s="113"/>
       <c r="N280" s="113"/>
     </row>
-    <row r="281" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="113" t="s">
         <v>813</v>
       </c>
@@ -11353,7 +11353,7 @@
       <c r="M281" s="113"/>
       <c r="N281" s="113"/>
     </row>
-    <row r="282" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="113" t="s">
         <v>813</v>
       </c>
@@ -11379,7 +11379,7 @@
       <c r="M282" s="113"/>
       <c r="N282" s="113"/>
     </row>
-    <row r="283" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="113" t="s">
         <v>813</v>
       </c>
@@ -11405,7 +11405,7 @@
       <c r="M283" s="113"/>
       <c r="N283" s="113"/>
     </row>
-    <row r="284" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="113" t="s">
         <v>813</v>
       </c>
@@ -11431,7 +11431,7 @@
       <c r="M284" s="113"/>
       <c r="N284" s="113"/>
     </row>
-    <row r="285" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="113" t="s">
         <v>813</v>
       </c>
@@ -11457,7 +11457,7 @@
       <c r="M285" s="113"/>
       <c r="N285" s="113"/>
     </row>
-    <row r="286" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="113" t="s">
         <v>813</v>
       </c>
@@ -11483,7 +11483,7 @@
       <c r="M286" s="113"/>
       <c r="N286" s="113"/>
     </row>
-    <row r="287" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="113" t="s">
         <v>813</v>
       </c>
@@ -11509,7 +11509,7 @@
       <c r="M287" s="113"/>
       <c r="N287" s="113"/>
     </row>
-    <row r="288" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="113" t="s">
         <v>813</v>
       </c>
@@ -11535,7 +11535,7 @@
       <c r="M288" s="113"/>
       <c r="N288" s="113"/>
     </row>
-    <row r="289" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="113" t="s">
         <v>813</v>
       </c>
@@ -11561,7 +11561,7 @@
       <c r="M289" s="113"/>
       <c r="N289" s="113"/>
     </row>
-    <row r="290" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="113" t="s">
         <v>813</v>
       </c>
@@ -11587,7 +11587,7 @@
       <c r="M290" s="113"/>
       <c r="N290" s="113"/>
     </row>
-    <row r="291" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="113" t="s">
         <v>813</v>
       </c>
@@ -11613,7 +11613,7 @@
       <c r="M291" s="113"/>
       <c r="N291" s="113"/>
     </row>
-    <row r="292" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="113" t="s">
         <v>813</v>
       </c>
@@ -11639,7 +11639,7 @@
       <c r="M292" s="113"/>
       <c r="N292" s="113"/>
     </row>
-    <row r="293" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="113" t="s">
         <v>813</v>
       </c>
@@ -11665,7 +11665,7 @@
       <c r="M293" s="113"/>
       <c r="N293" s="113"/>
     </row>
-    <row r="294" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="113" t="s">
         <v>813</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="M294" s="113"/>
       <c r="N294" s="113"/>
     </row>
-    <row r="295" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="117" t="s">
         <v>465</v>
       </c>
@@ -11709,7 +11709,7 @@
       <c r="M295" s="133"/>
       <c r="N295" s="133"/>
     </row>
-    <row r="296" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="113"/>
       <c r="B296" s="118"/>
       <c r="C296" s="119"/>
@@ -11725,7 +11725,7 @@
       <c r="M296" s="133"/>
       <c r="N296" s="133"/>
     </row>
-    <row r="297" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="120" t="s">
         <v>72</v>
       </c>
@@ -11747,7 +11747,7 @@
       <c r="M297" s="109"/>
       <c r="N297" s="109"/>
     </row>
-    <row r="298" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="116" t="s">
         <v>565</v>
       </c>
@@ -11771,7 +11771,7 @@
       <c r="M298" s="113"/>
       <c r="N298" s="113"/>
     </row>
-    <row r="299" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="116" t="s">
         <v>848</v>
       </c>
@@ -11797,7 +11797,7 @@
       <c r="M299" s="113"/>
       <c r="N299" s="113"/>
     </row>
-    <row r="300" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="116" t="s">
         <v>848</v>
       </c>
@@ -11823,7 +11823,7 @@
       <c r="M300" s="113"/>
       <c r="N300" s="113"/>
     </row>
-    <row r="301" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="116" t="s">
         <v>848</v>
       </c>
@@ -11849,7 +11849,7 @@
       <c r="M301" s="113"/>
       <c r="N301" s="113"/>
     </row>
-    <row r="302" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="116" t="s">
         <v>848</v>
       </c>
@@ -11875,7 +11875,7 @@
       <c r="M302" s="113"/>
       <c r="N302" s="113"/>
     </row>
-    <row r="303" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="116" t="s">
         <v>848</v>
       </c>
@@ -11901,7 +11901,7 @@
       <c r="M303" s="113"/>
       <c r="N303" s="113"/>
     </row>
-    <row r="304" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="116" t="s">
         <v>848</v>
       </c>
@@ -11927,7 +11927,7 @@
       <c r="M304" s="113"/>
       <c r="N304" s="113"/>
     </row>
-    <row r="305" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="120" t="s">
         <v>465</v>
       </c>
@@ -11945,7 +11945,7 @@
       <c r="M305" s="133"/>
       <c r="N305" s="133"/>
     </row>
-    <row r="306" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="111"/>
       <c r="B306" s="123"/>
       <c r="C306" s="124"/>
@@ -11961,7 +11961,7 @@
       <c r="M306" s="113"/>
       <c r="N306" s="113"/>
     </row>
-    <row r="307" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="109" t="s">
         <v>124</v>
       </c>
@@ -11983,7 +11983,7 @@
       <c r="M307" s="146"/>
       <c r="N307" s="146"/>
     </row>
-    <row r="308" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="120" t="s">
         <v>72</v>
       </c>
@@ -12005,7 +12005,7 @@
       <c r="M308" s="133"/>
       <c r="N308" s="133"/>
     </row>
-    <row r="309" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="111" t="s">
         <v>14</v>
       </c>
@@ -12029,7 +12029,7 @@
       <c r="M309" s="113"/>
       <c r="N309" s="113"/>
     </row>
-    <row r="310" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="111" t="s">
         <v>14</v>
       </c>
@@ -12053,7 +12053,7 @@
       <c r="M310" s="113"/>
       <c r="N310" s="113"/>
     </row>
-    <row r="311" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="111" t="s">
         <v>14</v>
       </c>
@@ -12077,7 +12077,7 @@
       <c r="M311" s="113"/>
       <c r="N311" s="113"/>
     </row>
-    <row r="312" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="111" t="s">
         <v>14</v>
       </c>
@@ -12101,7 +12101,7 @@
       <c r="M312" s="113"/>
       <c r="N312" s="113"/>
     </row>
-    <row r="313" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="111" t="s">
         <v>14</v>
       </c>
@@ -12125,7 +12125,7 @@
       <c r="M313" s="113"/>
       <c r="N313" s="113"/>
     </row>
-    <row r="314" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="111" t="s">
         <v>14</v>
       </c>
@@ -12149,7 +12149,7 @@
       <c r="M314" s="113"/>
       <c r="N314" s="113"/>
     </row>
-    <row r="315" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="111" t="s">
         <v>14</v>
       </c>
@@ -12173,7 +12173,7 @@
       <c r="M315" s="113"/>
       <c r="N315" s="113"/>
     </row>
-    <row r="316" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="111" t="s">
         <v>14</v>
       </c>
@@ -12197,7 +12197,7 @@
       <c r="M316" s="113"/>
       <c r="N316" s="113"/>
     </row>
-    <row r="317" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="111" t="s">
         <v>14</v>
       </c>
@@ -12221,7 +12221,7 @@
       <c r="M317" s="113"/>
       <c r="N317" s="113"/>
     </row>
-    <row r="318" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="111" t="s">
         <v>14</v>
       </c>
@@ -12245,7 +12245,7 @@
       <c r="M318" s="113"/>
       <c r="N318" s="113"/>
     </row>
-    <row r="319" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="111" t="s">
         <v>14</v>
       </c>
@@ -12269,7 +12269,7 @@
       <c r="M319" s="113"/>
       <c r="N319" s="113"/>
     </row>
-    <row r="320" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="111" t="s">
         <v>14</v>
       </c>
@@ -12293,7 +12293,7 @@
       <c r="M320" s="113"/>
       <c r="N320" s="113"/>
     </row>
-    <row r="321" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="111" t="s">
         <v>14</v>
       </c>
@@ -12317,7 +12317,7 @@
       <c r="M321" s="113"/>
       <c r="N321" s="113"/>
     </row>
-    <row r="322" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="111" t="s">
         <v>14</v>
       </c>
@@ -12341,7 +12341,7 @@
       <c r="M322" s="113"/>
       <c r="N322" s="113"/>
     </row>
-    <row r="323" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="111" t="s">
         <v>14</v>
       </c>
@@ -12365,7 +12365,7 @@
       <c r="M323" s="113"/>
       <c r="N323" s="113"/>
     </row>
-    <row r="324" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="111" t="s">
         <v>14</v>
       </c>
@@ -12389,7 +12389,7 @@
       <c r="M324" s="113"/>
       <c r="N324" s="113"/>
     </row>
-    <row r="325" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="111" t="s">
         <v>14</v>
       </c>
@@ -12413,7 +12413,7 @@
       <c r="M325" s="113"/>
       <c r="N325" s="113"/>
     </row>
-    <row r="326" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="120" t="s">
         <v>465</v>
       </c>
@@ -12431,7 +12431,7 @@
       <c r="M326" s="133"/>
       <c r="N326" s="133"/>
     </row>
-    <row r="327" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="120" t="s">
         <v>72</v>
       </c>
@@ -12455,7 +12455,7 @@
       <c r="M327" s="133"/>
       <c r="N327" s="133"/>
     </row>
-    <row r="328" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="111" t="s">
         <v>35</v>
       </c>
@@ -12481,7 +12481,7 @@
       <c r="M328" s="113"/>
       <c r="N328" s="113"/>
     </row>
-    <row r="329" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="111" t="s">
         <v>35</v>
       </c>
@@ -12507,7 +12507,7 @@
       <c r="M329" s="113"/>
       <c r="N329" s="113"/>
     </row>
-    <row r="330" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="111" t="s">
         <v>35</v>
       </c>
@@ -12533,7 +12533,7 @@
       <c r="M330" s="113"/>
       <c r="N330" s="113"/>
     </row>
-    <row r="331" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="111" t="s">
         <v>35</v>
       </c>
@@ -12559,7 +12559,7 @@
       <c r="M331" s="113"/>
       <c r="N331" s="113"/>
     </row>
-    <row r="332" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="111" t="s">
         <v>35</v>
       </c>
@@ -12585,7 +12585,7 @@
       <c r="M332" s="113"/>
       <c r="N332" s="113"/>
     </row>
-    <row r="333" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="111" t="s">
         <v>35</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="M333" s="113"/>
       <c r="N333" s="113"/>
     </row>
-    <row r="334" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="111" t="s">
         <v>35</v>
       </c>
@@ -12637,7 +12637,7 @@
       <c r="M334" s="113"/>
       <c r="N334" s="113"/>
     </row>
-    <row r="335" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="111" t="s">
         <v>35</v>
       </c>
@@ -12663,7 +12663,7 @@
       <c r="M335" s="113"/>
       <c r="N335" s="113"/>
     </row>
-    <row r="336" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="111" t="s">
         <v>35</v>
       </c>
@@ -12689,7 +12689,7 @@
       <c r="M336" s="113"/>
       <c r="N336" s="113"/>
     </row>
-    <row r="337" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="111" t="s">
         <v>35</v>
       </c>
@@ -12715,7 +12715,7 @@
       <c r="M337" s="113"/>
       <c r="N337" s="113"/>
     </row>
-    <row r="338" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="111" t="s">
         <v>35</v>
       </c>
@@ -12741,7 +12741,7 @@
       <c r="M338" s="113"/>
       <c r="N338" s="113"/>
     </row>
-    <row r="339" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="111" t="s">
         <v>35</v>
       </c>
@@ -12767,7 +12767,7 @@
       <c r="M339" s="113"/>
       <c r="N339" s="113"/>
     </row>
-    <row r="340" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="111" t="s">
         <v>35</v>
       </c>
@@ -12793,7 +12793,7 @@
       <c r="M340" s="113"/>
       <c r="N340" s="113"/>
     </row>
-    <row r="341" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="111" t="s">
         <v>35</v>
       </c>
@@ -12819,7 +12819,7 @@
       <c r="M341" s="113"/>
       <c r="N341" s="113"/>
     </row>
-    <row r="342" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="111" t="s">
         <v>35</v>
       </c>
@@ -12845,7 +12845,7 @@
       <c r="M342" s="113"/>
       <c r="N342" s="113"/>
     </row>
-    <row r="343" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="111" t="s">
         <v>35</v>
       </c>
@@ -12871,7 +12871,7 @@
       <c r="M343" s="113"/>
       <c r="N343" s="113"/>
     </row>
-    <row r="344" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="111" t="s">
         <v>35</v>
       </c>
@@ -12897,7 +12897,7 @@
       <c r="M344" s="113"/>
       <c r="N344" s="113"/>
     </row>
-    <row r="345" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="120" t="s">
         <v>465</v>
       </c>
@@ -12915,7 +12915,7 @@
       <c r="M345" s="133"/>
       <c r="N345" s="133"/>
     </row>
-    <row r="346" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="111" t="s">
         <v>934</v>
       </c>
@@ -12939,7 +12939,7 @@
       <c r="M346" s="113"/>
       <c r="N346" s="113"/>
     </row>
-    <row r="347" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="111" t="s">
         <v>934</v>
       </c>
@@ -12963,7 +12963,7 @@
       <c r="M347" s="113"/>
       <c r="N347" s="113"/>
     </row>
-    <row r="348" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="109" t="s">
         <v>124</v>
       </c>
@@ -12985,7 +12985,7 @@
       <c r="M348" s="146"/>
       <c r="N348" s="146"/>
     </row>
-    <row r="349" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="111" t="s">
         <v>941</v>
       </c>
@@ -13009,7 +13009,7 @@
       <c r="M349" s="113"/>
       <c r="N349" s="113"/>
     </row>
-    <row r="350" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="111" t="s">
         <v>941</v>
       </c>
@@ -13033,7 +13033,7 @@
       <c r="M350" s="113"/>
       <c r="N350" s="113"/>
     </row>
-    <row r="351" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="111"/>
       <c r="B351" s="111"/>
       <c r="C351" s="129"/>
@@ -13049,7 +13049,7 @@
       <c r="M351" s="113"/>
       <c r="N351" s="113"/>
     </row>
-    <row r="352" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="134" t="s">
         <v>124</v>
       </c>
@@ -13071,7 +13071,7 @@
       <c r="M352" s="147"/>
       <c r="N352" s="147"/>
     </row>
-    <row r="353" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="111"/>
       <c r="B353" s="111"/>
       <c r="C353" s="136"/>
@@ -13087,7 +13087,7 @@
       <c r="M353" s="113"/>
       <c r="N353" s="113"/>
     </row>
-    <row r="354" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="111" t="s">
         <v>565</v>
       </c>
@@ -13111,7 +13111,7 @@
       <c r="M354" s="113"/>
       <c r="N354" s="113"/>
     </row>
-    <row r="355" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="111" t="s">
         <v>565</v>
       </c>
@@ -13135,7 +13135,7 @@
       <c r="M355" s="113"/>
       <c r="N355" s="113"/>
     </row>
-    <row r="356" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="111" t="s">
         <v>952</v>
       </c>
@@ -13161,7 +13161,7 @@
       <c r="M356" s="113"/>
       <c r="N356" s="113"/>
     </row>
-    <row r="357" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="111" t="s">
         <v>565</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="M357" s="113"/>
       <c r="N357" s="113"/>
     </row>
-    <row r="358" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="111" t="s">
         <v>565</v>
       </c>
@@ -13209,7 +13209,7 @@
       <c r="M358" s="113"/>
       <c r="N358" s="113"/>
     </row>
-    <row r="359" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="111" t="s">
         <v>565</v>
       </c>
@@ -13233,7 +13233,7 @@
       <c r="M359" s="113"/>
       <c r="N359" s="113"/>
     </row>
-    <row r="360" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="111" t="s">
         <v>565</v>
       </c>
@@ -13257,7 +13257,7 @@
       <c r="M360" s="113"/>
       <c r="N360" s="113"/>
     </row>
-    <row r="361" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="111" t="s">
         <v>565</v>
       </c>
@@ -13281,7 +13281,7 @@
       <c r="M361" s="113"/>
       <c r="N361" s="113"/>
     </row>
-    <row r="362" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="111" t="s">
         <v>565</v>
       </c>
@@ -13305,7 +13305,7 @@
       <c r="M362" s="113"/>
       <c r="N362" s="113"/>
     </row>
-    <row r="363" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="111" t="s">
         <v>565</v>
       </c>
@@ -13329,7 +13329,7 @@
       <c r="M363" s="113"/>
       <c r="N363" s="113"/>
     </row>
-    <row r="364" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="111" t="s">
         <v>565</v>
       </c>
@@ -13353,7 +13353,7 @@
       <c r="M364" s="113"/>
       <c r="N364" s="113"/>
     </row>
-    <row r="365" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="111"/>
       <c r="B365" s="111"/>
       <c r="C365" s="129"/>
@@ -13369,7 +13369,7 @@
       <c r="M365" s="113"/>
       <c r="N365" s="113"/>
     </row>
-    <row r="366" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="111"/>
       <c r="B366" s="111"/>
       <c r="C366" s="129"/>
@@ -13385,7 +13385,7 @@
       <c r="M366" s="113"/>
       <c r="N366" s="113"/>
     </row>
-    <row r="367" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="109" t="s">
         <v>971</v>
       </c>
@@ -13407,7 +13407,7 @@
       <c r="M367" s="109"/>
       <c r="N367" s="109"/>
     </row>
-    <row r="368" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="111"/>
       <c r="B368" s="111"/>
       <c r="C368" s="129"/>
@@ -13423,7 +13423,7 @@
       <c r="M368" s="113"/>
       <c r="N368" s="113"/>
     </row>
-    <row r="369" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="111" t="s">
         <v>565</v>
       </c>
@@ -13445,7 +13445,7 @@
       <c r="M369" s="113"/>
       <c r="N369" s="113"/>
     </row>
-    <row r="370" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="111" t="s">
         <v>14</v>
       </c>
@@ -13469,7 +13469,7 @@
       <c r="M370" s="113"/>
       <c r="N370" s="113"/>
     </row>
-    <row r="371" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="111" t="s">
         <v>978</v>
       </c>
@@ -13493,7 +13493,7 @@
       <c r="M371" s="113"/>
       <c r="N371" s="113"/>
     </row>
-    <row r="372" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="111" t="s">
         <v>981</v>
       </c>
@@ -13517,7 +13517,7 @@
       <c r="M372" s="113"/>
       <c r="N372" s="113"/>
     </row>
-    <row r="373" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="111" t="s">
         <v>984</v>
       </c>
@@ -13541,7 +13541,7 @@
       <c r="M373" s="113"/>
       <c r="N373" s="113"/>
     </row>
-    <row r="374" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="111"/>
       <c r="B374" s="113"/>
       <c r="C374" s="113"/>
@@ -13557,7 +13557,7 @@
       <c r="M374" s="113"/>
       <c r="N374" s="113"/>
     </row>
-    <row r="375" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="140" t="s">
         <v>987</v>
       </c>
@@ -13581,7 +13581,7 @@
       <c r="M375" s="113"/>
       <c r="N375" s="113"/>
     </row>
-    <row r="376" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="111" t="s">
         <v>990</v>
       </c>
@@ -13605,7 +13605,7 @@
       <c r="M376" s="113"/>
       <c r="N376" s="113"/>
     </row>
-    <row r="377" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="111" t="s">
         <v>993</v>
       </c>
@@ -13629,7 +13629,7 @@
       <c r="M377" s="113"/>
       <c r="N377" s="113"/>
     </row>
-    <row r="378" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="111" t="s">
         <v>996</v>
       </c>
@@ -13653,7 +13653,7 @@
       <c r="M378" s="113"/>
       <c r="N378" s="113"/>
     </row>
-    <row r="379" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="111" t="s">
         <v>999</v>
       </c>
@@ -13677,7 +13677,7 @@
       <c r="M379" s="113"/>
       <c r="N379" s="113"/>
     </row>
-    <row r="380" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="111"/>
       <c r="B380" s="113"/>
       <c r="C380" s="142"/>
@@ -13693,7 +13693,7 @@
       <c r="M380" s="113"/>
       <c r="N380" s="113"/>
     </row>
-    <row r="381" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="111"/>
       <c r="B381" s="111"/>
       <c r="C381" s="132"/>
@@ -13709,7 +13709,7 @@
       <c r="M381" s="113"/>
       <c r="N381" s="113"/>
     </row>
-    <row r="382" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="121" t="s">
         <v>124</v>
       </c>
@@ -13731,7 +13731,7 @@
       <c r="M382" s="146"/>
       <c r="N382" s="146"/>
     </row>
-    <row r="383" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="111" t="s">
         <v>1004</v>
       </c>
@@ -13755,7 +13755,7 @@
       <c r="M383" s="113"/>
       <c r="N383" s="113"/>
     </row>
-    <row r="384" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="111" t="s">
         <v>1004</v>
       </c>
@@ -13779,7 +13779,7 @@
       <c r="M384" s="113"/>
       <c r="N384" s="113"/>
     </row>
-    <row r="385" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="111" t="s">
         <v>1009</v>
       </c>
@@ -13803,7 +13803,7 @@
       <c r="M385" s="113"/>
       <c r="N385" s="113"/>
     </row>
-    <row r="386" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="111" t="s">
         <v>1012</v>
       </c>
@@ -13827,7 +13827,7 @@
       <c r="M386" s="113"/>
       <c r="N386" s="113"/>
     </row>
-    <row r="387" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="111" t="s">
         <v>1004</v>
       </c>
@@ -13851,7 +13851,7 @@
       <c r="M387" s="113"/>
       <c r="N387" s="113"/>
     </row>
-    <row r="388" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="111" t="s">
         <v>565</v>
       </c>
@@ -13875,7 +13875,7 @@
       <c r="M388" s="113"/>
       <c r="N388" s="113"/>
     </row>
-    <row r="389" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="111" t="s">
         <v>1019</v>
       </c>
@@ -13901,7 +13901,7 @@
       <c r="M389" s="113"/>
       <c r="N389" s="113"/>
     </row>
-    <row r="390" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="111" t="s">
         <v>565</v>
       </c>
@@ -13927,7 +13927,7 @@
       <c r="M390" s="113"/>
       <c r="N390" s="113"/>
     </row>
-    <row r="391" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="111" t="s">
         <v>565</v>
       </c>
@@ -13951,7 +13951,7 @@
       <c r="M391" s="113"/>
       <c r="N391" s="113"/>
     </row>
-    <row r="392" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="111" t="s">
         <v>1019</v>
       </c>
@@ -13977,7 +13977,7 @@
       <c r="M392" s="113"/>
       <c r="N392" s="113"/>
     </row>
-    <row r="393" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="111" t="s">
         <v>848</v>
       </c>
@@ -14003,7 +14003,7 @@
       <c r="M393" s="113"/>
       <c r="N393" s="113"/>
     </row>
-    <row r="394" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="111"/>
       <c r="B394" s="111"/>
       <c r="C394" s="113"/>
@@ -14019,7 +14019,7 @@
       <c r="M394" s="113"/>
       <c r="N394" s="113"/>
     </row>
-    <row r="395" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="143" t="s">
         <v>124</v>
       </c>
@@ -14041,7 +14041,7 @@
       <c r="M395" s="148"/>
       <c r="N395" s="148"/>
     </row>
-    <row r="396" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="145" t="s">
         <v>72</v>
       </c>
@@ -14065,7 +14065,7 @@
       <c r="M396" s="113"/>
       <c r="N396" s="113"/>
     </row>
-    <row r="397" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="111" t="s">
         <v>1034</v>
       </c>
@@ -14089,7 +14089,7 @@
       <c r="M397" s="113"/>
       <c r="N397" s="113"/>
     </row>
-    <row r="398" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="111" t="s">
         <v>1034</v>
       </c>
@@ -14113,7 +14113,7 @@
       <c r="M398" s="113"/>
       <c r="N398" s="113"/>
     </row>
-    <row r="399" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="111" t="s">
         <v>1034</v>
       </c>
@@ -14137,7 +14137,7 @@
       <c r="M399" s="113"/>
       <c r="N399" s="113"/>
     </row>
-    <row r="400" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="111" t="s">
         <v>1034</v>
       </c>
@@ -14161,7 +14161,7 @@
       <c r="M400" s="113"/>
       <c r="N400" s="113"/>
     </row>
-    <row r="401" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="111" t="s">
         <v>1034</v>
       </c>
@@ -14185,7 +14185,7 @@
       <c r="M401" s="113"/>
       <c r="N401" s="113"/>
     </row>
-    <row r="402" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="111" t="s">
         <v>1034</v>
       </c>
@@ -14209,7 +14209,7 @@
       <c r="M402" s="113"/>
       <c r="N402" s="113"/>
     </row>
-    <row r="403" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="111" t="s">
         <v>1034</v>
       </c>
@@ -14233,7 +14233,7 @@
       <c r="M403" s="113"/>
       <c r="N403" s="113"/>
     </row>
-    <row r="404" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="111" t="s">
         <v>1034</v>
       </c>
@@ -14257,7 +14257,7 @@
       <c r="M404" s="113"/>
       <c r="N404" s="113"/>
     </row>
-    <row r="405" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="111" t="s">
         <v>1034</v>
       </c>
@@ -14279,7 +14279,7 @@
       <c r="M405" s="113"/>
       <c r="N405" s="113"/>
     </row>
-    <row r="406" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="111" t="s">
         <v>1034</v>
       </c>
@@ -14301,7 +14301,7 @@
       <c r="M406" s="113"/>
       <c r="N406" s="113"/>
     </row>
-    <row r="407" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="145" t="s">
         <v>465</v>
       </c>
@@ -14319,7 +14319,7 @@
       <c r="M407" s="113"/>
       <c r="N407" s="113"/>
     </row>
-    <row r="408" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="80"/>
       <c r="B408" s="9"/>
       <c r="C408" s="34"/>
@@ -14329,7 +14329,7 @@
       <c r="G408" s="108"/>
       <c r="J408" s="9"/>
     </row>
-    <row r="409" spans="1:14" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" s="101" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="99" t="s">
         <v>124</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="410" spans="1:14" s="48" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="102" t="s">
         <v>14</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="411" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="103" t="s">
         <v>479</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="412" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="103" t="s">
         <v>108</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="413" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="103" t="s">
         <v>484</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:14" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="103" t="s">
         <v>14</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:14" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="102" t="s">
         <v>72</v>
       </c>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="E415" s="32"/>
     </row>
-    <row r="416" spans="1:14" s="48" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="102" t="s">
         <v>35</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:10" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="102" t="s">
         <v>35</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:10" s="48" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="102" t="s">
         <v>35</v>
       </c>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="J418" s="102"/>
     </row>
-    <row r="419" spans="1:10" s="48" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="102" t="s">
         <v>35</v>
       </c>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="J419" s="106"/>
     </row>
-    <row r="420" spans="1:10" s="48" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="102" t="s">
         <v>35</v>
       </c>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="J420" s="106"/>
     </row>
-    <row r="421" spans="1:10" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="102" t="s">
         <v>35</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:10" s="48" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="102" t="s">
         <v>35</v>
       </c>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="J422" s="102"/>
     </row>
-    <row r="423" spans="1:10" s="48" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="102" t="s">
         <v>35</v>
       </c>
@@ -14577,7 +14577,7 @@
       </c>
       <c r="J423" s="106"/>
     </row>
-    <row r="424" spans="1:10" s="48" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="102" t="s">
         <v>35</v>
       </c>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="J424" s="106"/>
     </row>
-    <row r="425" spans="1:10" s="48" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="102" t="s">
         <v>35</v>
       </c>
@@ -14616,7 +14616,7 @@
       </c>
       <c r="J425" s="88"/>
     </row>
-    <row r="426" spans="1:10" s="48" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="102" t="s">
         <v>35</v>
       </c>
@@ -14635,7 +14635,7 @@
       </c>
       <c r="J426" s="88"/>
     </row>
-    <row r="427" spans="1:10" s="48" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="102" t="s">
         <v>35</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:10" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="102" t="s">
         <v>35</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:10" s="48" customFormat="1" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="102" t="s">
         <v>35</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:10" s="48" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="102" t="s">
         <v>35</v>
       </c>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="J430" s="102"/>
     </row>
-    <row r="431" spans="1:10" s="48" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="102" t="s">
         <v>35</v>
       </c>
@@ -14729,7 +14729,7 @@
       </c>
       <c r="J431" s="106"/>
     </row>
-    <row r="432" spans="1:10" s="48" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="102" t="s">
         <v>35</v>
       </c>
@@ -14749,7 +14749,7 @@
       </c>
       <c r="J432" s="106"/>
     </row>
-    <row r="433" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="102" t="s">
         <v>124</v>
       </c>
@@ -14766,7 +14766,7 @@
       </c>
       <c r="J433" s="102"/>
     </row>
-    <row r="434" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="102" t="s">
         <v>35</v>
       </c>
@@ -14783,7 +14783,7 @@
       </c>
       <c r="J434" s="106"/>
     </row>
-    <row r="435" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="102" t="s">
         <v>35</v>
       </c>
@@ -14800,7 +14800,7 @@
       </c>
       <c r="J435" s="88"/>
     </row>
-    <row r="436" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="102" t="s">
         <v>35</v>
       </c>
@@ -14816,7 +14816,7 @@
       </c>
       <c r="J436" s="88"/>
     </row>
-    <row r="437" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="102" t="s">
         <v>35</v>
       </c>
@@ -14832,7 +14832,7 @@
       </c>
       <c r="J437" s="88"/>
     </row>
-    <row r="438" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="102" t="s">
         <v>35</v>
       </c>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="J438" s="88"/>
     </row>
-    <row r="439" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="102" t="s">
         <v>35</v>
       </c>
@@ -14865,14 +14865,14 @@
       </c>
       <c r="J439" s="88"/>
     </row>
-    <row r="440" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="107" t="s">
         <v>465</v>
       </c>
       <c r="C440" s="102"/>
       <c r="J440" s="88"/>
     </row>
-    <row r="441" spans="1:16" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="103" t="s">
         <v>551</v>
       </c>
@@ -14880,7 +14880,7 @@
       <c r="F441" s="88"/>
       <c r="J441" s="88"/>
     </row>
-    <row r="442" spans="1:16" s="101" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" s="101" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="99" t="s">
         <v>124</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="32" t="s">
         <v>14</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="32" t="s">
         <v>479</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="32" t="s">
         <v>108</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="32" t="s">
         <v>484</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="32" t="s">
         <v>31</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="32" t="s">
         <v>20</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="32" t="s">
         <v>14</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="32" t="s">
         <v>565</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="32" t="s">
         <v>565</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="32" t="s">
         <v>72</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="32" t="s">
         <v>14</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="32" t="s">
         <v>14</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="32" t="s">
         <v>14</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="32" t="s">
         <v>14</v>
       </c>
@@ -15099,12 +15099,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="32" t="s">
         <v>72</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="32" t="s">
         <v>565</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="32" t="s">
         <v>565</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="32" t="s">
         <v>565</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="32" t="s">
         <v>565</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="32" t="s">
         <v>565</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="32" t="s">
         <v>565</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="32" t="s">
         <v>565</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="32" t="s">
         <v>565</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="32" t="s">
         <v>565</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="32" t="s">
         <v>565</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="32" t="s">
         <v>565</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="32" t="s">
         <v>565</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="32" t="s">
         <v>565</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="32" t="s">
         <v>565</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="32" t="s">
         <v>565</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="32" t="s">
         <v>565</v>
       </c>
@@ -15393,9 +15393,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="32" t="s">
-        <v>565</v>
+        <v>14</v>
       </c>
       <c r="B475" s="32" t="s">
         <v>616</v>
@@ -15407,17 +15407,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="32" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="32" t="s">
         <v>465</v>
       </c>
@@ -15467,7 +15467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2083"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A72" sqref="A60:XFD72"/>
     </sheetView>
   </sheetViews>
@@ -18304,6 +18304,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -18520,12 +18526,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>
@@ -18535,6 +18535,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18551,21 +18568,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>